--- a/internships.xlsx
+++ b/internships.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Business Development (Sales) - Web3</t>
+          <t>Admission Counsellor (Female)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include: 1. Research and identify potential institutional investors (family offices, fund managers)2. Create personalized outreach campaigns for different investor segments3. Manage investor communications and follow-up sequences4. Support partnership development with Web3 communities5. Assist in preparing investment materials and presentations6. Track and report on BD metrics and pipeline progressSkill(s) requiredBlockchainClient Relationship Management (CRM)CryptographyEnglish Proficiency (Spoken)English Proficiency (Written)Financial literacyLead GenerationResearch and AnalyticsSales StrategyEarn certifications in these skillsLearn BlockchainLearn Business CommunicationLearn Stocks and TradingLearn HyperledgerLearn Research and AnalyticsWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 12th Jul'25 and 16th Aug'25                                    3. are available for duration of 4 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Students pursuing BBA/MBA/economics/finance                                    2. Web3/Crypto knoweldege required                                    3. Freshers with strong analytical skills                                    4. Excellent written English (mandatory)                                    5. Available 3-4 hours daily                                    6. Own laptop &amp; Internet required                PerksCertificate Letter of recommendation Flexible work hoursAdditional informationStipend Structure:Fixed pay: ₹ 5,000 - 15,000 /month                    Incentive pay: ₹ 8,000 /month                     Number of openings        4                        About Podha Protocol                        Podha Protocol is a web3 yield generation platform via real real-world digital asset management company. Recognized as a top-tier digital asset yield platform, Podha delivers reliable and forward-thinking yield solutions that bolster the digital asset economy.    Activity on InternshalaHiring since May 202515 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    We are hiring a telecaller intern (female candidate) who can join immediately.Selected intern's day-to-day responsibilities include:1. Interact with students telephonically &amp; convert leads into admissions. 2. Offer MBBS abroad admission services to the students/parents 3. Set appointments for students for office visits or Zoom meetings.Skill(s) requiredEffective CommunicationSalesEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 5th Jul'25 and 9th Aug'25                                    3. are available for duration of 2 months                                    4. are from Pune only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Should have a passion to grow &amp; progress in life.                                    2. Aggressive in approach.                                    3. Good communication in Marathi must.                PerksCertificate Letter of recommendation Informal dress codeAdditional informationStipend Structure:Fixed pay: ₹ 7,000 - 10,000 /month                    Incentive pay: ₹ 200 - 1,000 /month                     Number of openings        2                        About Bright EduWorld                Website         We are a medical e-learning company mentoring medical students &amp; optimizing their abilities, approach, and mindset.    Activity on InternshalaHiring since September 20238 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,24 +506,24 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:10</t>
+          <t>2025-07-20 10:40:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-business-development-sales-web3-internship-at-podha-protocol1752338121</t>
+          <t>https://internshala.com/internship/detail/telecaller-female-internship-in-pune-at-bright-eduworld1751749920</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Virtual Charity Drive</t>
+          <t>Human Resource</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Join our 'Virtual Charity Drive Internship' and become a driving force behind our mission to make a difference. As an intern, you'll focus on fundraising through innovative virtual campaigns aimed at supporting various charitable causes. Selected intern's day-to-day responsibilities include devising and implementing strategies to engage donors online, and leveraging social media platforms and digital tools. This internship provides a unique opportunity to gain practical experience in fundraising, digital marketing, and project management while making a meaningful impact on communities in need.Skill(s) requiredEffective CommunicationEarn certifications in these skillsLearn Creative WritingLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendationNumber of openings        500                        About Basti Ki Pathshala Foundation                        Basti Ki Pathshala Foundation is a Government-registered organization established under the Indian Societies Act of 1860. We are a grassroots organization dedicated to breaking the barriers of education in underserved communities. Founded with a mission to provide quality education to children living in slum areas, we strive to create a nurturing learning environment where every child has the opportunity to thrive. Through innovative teaching methods, community engagement, and partnerships, we empower children with the knowledge and skills they need to build a brighter future. Our commitment extends beyond the classroom as we work towards bridging the educational gap and fostering long-term sustainable change in the lives of marginalized families.    Activity on InternshalaHiring since February 20241083 opportunities posted14496 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected interns day-to-day responsibilities:1. Conducting sourcing activities for open positions2. Involving in recruitment and selection processes (resume screening, screening calls, interviews, etc.)3. Making SOPs and policies4. Conducting onboarding and exit process5. Handling payroll using HRIS software6. Handling other HR-related jobs assigned from time to timeSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-WordOperationsRecruitmentEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn about RecruitmentWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 8th Jul'25 and 12th Aug'25                                    3. are available for duration of 4 months                                    4. are from Gandhinagar only                                    5. have relevant skills and interests                    PerksLetter of recommendation Flexible work hours 5 days a weekNumber of openings        1                        About Get Structured Consulting Services OPC Private Limited                Website         We are a one-stop solution for all the HR needs of new-age startups. At GetStructured, our mission is to empower businesses to achieve their full potential by providing expert human resources support and guidance. We believe that a strong HR function is essential to the success of any organization, and we are dedicated to helping our clients build and maintain a high-performing, engaged, and effective workforce.    Activity on InternshalaHiring since June 202322 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,24 +541,24 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:11</t>
+          <t>2025-07-20 10:40:53</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-virtual-charity-drive-internship-at-basti-ki-pathshala-foundation1752833362</t>
+          <t>https://internshala.com/internship/detail/human-resource-internship-in-gandhinagar-at-get-structured-consulting-services-opc-private-limited1751975462</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Human Resource</t>
+          <t>Videography</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>About the internship    Selected interns day-to-day responsibilities:1. Conducting sourcing activities for open positions2. Involving in recruitment and selection processes (resume screening, screening calls, interviews, etc.)3. Making SOPs and policies4. Conducting onboarding and exit process5. Handling payroll using HRIS software6. Handling other HR-related jobs assigned from time to timeSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-WordOperationsRecruitmentEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn about RecruitmentWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 8th Jul'25 and 12th Aug'25                                    3. are available for duration of 4 months                                    4. are from Gandhinagar only                                    5. have relevant skills and interests                    PerksLetter of recommendation Flexible work hours 5 days a weekNumber of openings        1                        About Get Structured Consulting Services OPC Private Limited                Website         We are a one-stop solution for all the HR needs of new-age startups. At GetStructured, our mission is to empower businesses to achieve their full potential by providing expert human resources support and guidance. We believe that a strong HR function is essential to the success of any organization, and we are dedicated to helping our clients build and maintain a high-performing, engaged, and effective workforce.    Activity on InternshalaHiring since June 202322 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    As a Videography at The Trading Fox, you will have the exciting opportunity to showcase your skills in video making, videography, and photography. You will work closely with our team to create captivating visual content for our brand. 1.  Capture high-quality video footage for promotional videos and social media content.2. Enhance video content to ensure a polished final product.3. Help set up and operate equipment for video shoots, including cameras, lighting, and audio.4. Manage and organize video files and footage to maintain a streamlined workflow.5. Stay up-to-date on industry trends and best practices to bring fresh ideas to our projects.Join us at The Trading Fox and help us bring our brand to life through the power of video.Skill(s) requiredPhotographyVideographyVideo MakingEarn certifications in these skillsLearn Adobe Premiere ProLearn PhotographyLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 2 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About The Trading Fox                        Trading Fox PVT. LTD. is a premier trading and finance firm dedicated to empowering clients through strategic investment solutions and expert financial guidance. We specialize in a wide range of services, including equities, commodities, forex, and derivatives trading, tailored to meet the diverse needs of individual investors and institutional clients alike.Our team of seasoned professionals leverages advanced analytics and market insights to identify lucrative opportunities and mitigate risks. We pride ourselves on our commitment to transparency, integrity, and personalized service, ensuring that our clients are well-informed and equipped to make confident financial decisions.At Trading Fox, we strive to foster long-term relationships built on trust and performance, helping our clients navigate the complexities of the financial markets to achieve their financial goals.    Activity on InternshalaHiring since October 2024108 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,24 +576,24 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:12</t>
+          <t>2025-07-20 10:40:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/human-resource-internship-in-gandhinagar-at-get-structured-consulting-services-opc-private-limited1751975462</t>
+          <t>https://internshala.com/internship/detail/videography-internship-in-jaipur-at-the-trading-fox1752734340</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operation &amp; Maintenance Supervisor</t>
+          <t>Field Sales</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>About the internship    We're looking for a hands-on male intern from a Civil or Electrical Engineering background to support daily operations and maintenance at a sewage treatment plant (STP) site. Perfect for those who want practical infrastructure experience in real field conditions.Selected intern's day-to-day responsibilities include:1. Assist in the daily maintenance of the STP plant2. Record and monitor key operational parameters (flow rates, pressure, etc.)3. Support in resolving electrical/control panel issues4. Help manage sludge removal, aeration processes, and chemical dosing5. Maintain logbooks, checklists, and operational records6. Coordinate with site engineers for routine checks and reporting7. Assist in spare part tracking and minor repair coordination8. Learn and follow safety and compliance protocols9. Join daily review or vendor meetings where needed10. Share basic reports or updates with supervisorsWho Should Apply:1. Final-year students or fresh graduates in civil or electrical engineering2. Must be willing to stay full-time on-site during the internship3. Interested in utilities, infrastructure, or sustainable project work4. Ready to learn in a real, high-responsibility environment5. Comfortable with routine tasks and hands-on workWhat You'll Gain:1. On-ground experience at a live STP infrastructure project2. Exposure to real-time engineering practices and team coordination3. Mentorship from professionals in the infra/utilities domain4. Certificate + Letter of Recommendation based on performance5. Possibility of a Pre-Placement Offer (PPO) for outstanding interns6. Improved resume and technical confidencePlease only apply if you are available for a minimum 6-month full-time on-site internship.Skill(s) requiredEngineering DrawingEngineering SurveyingTechnical AnalysisEarn certifications in these skillsLearn AutoCADLearn STAAD ProLearn RevitLearn AutoCAD 3DLearn Engineering DrawingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jun'25 and 23rd Jul'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    1. Students from other engineering backgrounds with a strong interest in infrastructure/utilities may also apply, but only if they are available for a minimum 6-month full-time on-site internship.                Number of openings        2                        About Movi Ecoserve Private Limited                        Movi Ecoserve works in sustainable technologies. We work majorly with the government and municipalities in pan India.     Activity on InternshalaHiring since February 202261 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    As a field &amp; sales marketing intern, you'll work closely with the marketing and operations team to promote the mission and products through grassroots outreach, retail engagement, and local campaign activities. This role is ideal for students passionate about sustainability, marketing, and rural development.Selected intern's day-to-day responsibilities include: 1. Assist in field sales drives, including product demos at local shops, events, or stalls2. Help execute local marketing campaigns (flyers, WhatsApp promotions, on-ground surveys)3. Support the onboarding of local retailers, organic stores, and individual customers4. Engage with customers and collect feedback on products like A2 milk, ghee, and soaps5. Represent the brand at community events, farmers' markets, or exhibitions6. Maintain daily records of outreach, leads, and customer interactions7. Coordinate with internal teams for delivery, packaging, and logistics trackingIdeal candidate:1. Education: pursuing/recently completed a degree in marketing, agriculture, rural management, or social work2. Skills: strong communication (Marathi/Hindi preferred), people skills, and willingness to travel locally3. Passionate about sustainability, animal welfare, and social impact4. Self-driven, eager to learn, and comfortable with on-ground activitiesWhat you'll learn:1. Grassroots marketing strategy and execution2. Sales techniques and customer engagement in real-world settings3. Insight into rural livelihood, sustainable agriculture, and indigenous dairy practices4. Exposure to a mission-driven start-up environment with real social impactSkill(s) requiredEffective CommunicationEmail MarketingEnglish Proficiency (Spoken)Hindi Proficiency (Spoken)Interpersonal skillsMS-OfficeEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 2nd Jul'25 and 6th Aug'25                                    3. are available for duration of 4 months                                    4. are from Pune only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendationAdditional informationStipend Structure:Fixed pay: ₹ 10,000 - 12,000 /month                    Incentive pay: ₹ 2,000 /month                     Number of openings        5                        About SOLARTS                        We are into health awareness and consultancy on disease control and cures. We offer one of the best organic health products in India and our company is a pure organic ayurvedic medicine based company.    Activity on InternshalaHiring since October 20182 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,24 +611,24 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:13</t>
+          <t>2025-07-20 10:40:55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/operation-maintenance-supervisor-internship-in-mumbai-at-movi-ecoserve-private-limited1750307830</t>
+          <t>https://internshala.com/internship/detail/field-sales-internship-in-pune-at-solarts1751444830</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Architecture</t>
+          <t>Video Animator</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>About the internship    THD Design Studio is seeking an Architecture Intern who is proficient in AutoCAD, Adobe Photoshop, Google SketchUp, Autodesk 3ds Max, and MS-Office to join our team. As an intern, you will have the opportunity to work on a variety of projects and grow your skills in a collaborative and creative environment.1. Assist with drafting and designing architectural plans using AutoCAD.2. Create visually stunning presentations and renderings using Adobe Photoshop.3. Develop 3D models and animations with Google SketchUp and Autodesk 3ds Max.4. Collaborate with team members to brainstorm and problem solve design challenges.5. Conduct research on industry trends and best practices to incorporate into projects.6. Attend client meetings and presentations to contribute ideas and insights.7. Support the team with administrative tasks and project management duties as needed.If you are a motivated and talented individual with a passion for architecture and design, we want to hear from you! Join us at THD Design Studio and take the first step towards a successful career in the industry. Apply now and showcase your skills in a professional setting.Skill(s) requiredAdobe PhotoshopAutoCADAutodesk 3ds MaxGoogle SketchUp MS-OfficeEarn certifications in these skillsLearn Adobe PhotoshopLearn AutoCADLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 9th Jul'25 and 13th Aug'25                                    3. are available for duration of 4 months                                    4. are from Thane, Navi Mumbai, Mumbai only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About HD Design Studio                Instagram page         HD Design Studio is a Mumbai-based firm of experienced professionals offering comprehensive services in architecture, interior design, and urban design to residential, commercial, and institutional clients. In addition to extensive experience in all the architectural processes from designing to construction and execution, HDDS is actively involved in providing clients with the following services: architecture, interior design, residential design, historic renovations, site analysis, and feasibility, zoning and code consulting, building department expediting, municipal department approvals, dot approvals, landmark approvals, condominium subdivisions, and tenant reviews.    Activity on InternshalaHiring since November 202110 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Bring creative vision to life: Use storytelling skills to create engaging animations2. Master animation tools: Work with Adobe After Effects, Premiere Pro, Illustrator, Photoshop, or equivalent software3. Ensure high-quality output: Deliver polished and detail-oriented animations4. Collaborate effectively: Communicate well with cross-functional teams to align on project goalsSkill(s) requiredAdobe After EffectsAdobe AnimateAdobe Creative SuiteAdobe IllustratorAdobe PhotoshopFigmaEarn certifications in these skillsLearn Adobe After EffectsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Adobe Premiere ProLearn FigmaWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 5th Jul'25 and 9th Aug'25                                    3. are available for duration of 3 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Other requirements                    1. Educational background: Currently enrolled in or recently graduated from animation, visual arts, multimedia design, or related programs                                    2. Technical knowledge: A basic understanding of video editing tools and techniques is preferred                                    3. Portfolio: Samples of previous animation work (optional but recommended)                                    4. Experience: Prior experience in related fields is a plus                PerksCertificateNumber of openings        1                        About Travel Lykke Private Limited                Website         We are a travel brand curating unique, experiential &amp; sustainable holidays for you. Our trips are not limited to usual travel arrangements. We design unique, immersive experiences that make their mark in your heart. We also believe in sustainable tourism. We try to make our trips as environmentally friendly as possible and engage local communities in the destinations. Other than the usual blah blah blah, we are a bunch of youngsters, insanely passionate about travel. We think of you as our future friends and not just customers.    Activity on InternshalaHiring since February 202527 opportunities posted13 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,24 +646,24 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:13</t>
+          <t>2025-07-20 10:40:55</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/architecture-internship-in-multiple-locations-at-hd-design-studio1752057921</t>
+          <t>https://internshala.com/internship/detail/video-animator-internship-in-jaipur-at-travel-lykke-private-limited1751707788</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Admission Counsellor (Female)</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>About the internship    We are hiring a telecaller intern (female candidate) who can join immediately.Selected intern's day-to-day responsibilities include:1. Interact with students telephonically &amp; convert leads into admissions. 2. Offer MBBS abroad admission services to the students/parents 3. Set appointments for students for office visits or Zoom meetings.Skill(s) requiredEffective CommunicationSalesEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 5th Jul'25 and 9th Aug'25                                    3. are available for duration of 2 months                                    4. are from Pune only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Should have a passion to grow &amp; progress in life.                                    2. Aggressive in approach.                                    3. Good communication in Marathi must.                PerksCertificate Letter of recommendation Informal dress codeAdditional informationStipend Structure:Fixed pay: ₹ 7,000 - 10,000 /month                    Incentive pay: ₹ 200 - 1,000 /month                     Number of openings        2                        About Bright EduWorld                Website         We are a medical e-learning company mentoring medical students &amp; optimizing their abilities, approach, and mindset.    Activity on InternshalaHiring since September 20238 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    THD Design Studio is seeking an Architecture Intern who is proficient in AutoCAD, Adobe Photoshop, Google SketchUp, Autodesk 3ds Max, and MS-Office to join our team. As an intern, you will have the opportunity to work on a variety of projects and grow your skills in a collaborative and creative environment.1. Assist with drafting and designing architectural plans using AutoCAD.2. Create visually stunning presentations and renderings using Adobe Photoshop.3. Develop 3D models and animations with Google SketchUp and Autodesk 3ds Max.4. Collaborate with team members to brainstorm and problem solve design challenges.5. Conduct research on industry trends and best practices to incorporate into projects.6. Attend client meetings and presentations to contribute ideas and insights.7. Support the team with administrative tasks and project management duties as needed.If you are a motivated and talented individual with a passion for architecture and design, we want to hear from you! Join us at THD Design Studio and take the first step towards a successful career in the industry. Apply now and showcase your skills in a professional setting.Skill(s) requiredAdobe PhotoshopAutoCADAutodesk 3ds MaxGoogle SketchUp MS-OfficeEarn certifications in these skillsLearn Adobe PhotoshopLearn AutoCADLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 9th Jul'25 and 13th Aug'25                                    3. are available for duration of 4 months                                    4. are from Thane, Navi Mumbai, Mumbai only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About HD Design Studio                Instagram page         HD Design Studio is a Mumbai-based firm of experienced professionals offering comprehensive services in architecture, interior design, and urban design to residential, commercial, and institutional clients. In addition to extensive experience in all the architectural processes from designing to construction and execution, HDDS is actively involved in providing clients with the following services: architecture, interior design, residential design, historic renovations, site analysis, and feasibility, zoning and code consulting, building department expediting, municipal department approvals, dot approvals, landmark approvals, condominium subdivisions, and tenant reviews.    Activity on InternshalaHiring since November 202110 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,24 +681,24 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:14</t>
+          <t>2025-07-20 10:40:56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/telecaller-female-internship-in-pune-at-bright-eduworld1751749920</t>
+          <t>https://internshala.com/internship/detail/architecture-internship-in-multiple-locations-at-hd-design-studio1752057921</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Design &amp; Communication</t>
+          <t>Market Research</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: A. Graphic design &amp; visual content:1. Create visuals for social media, newsletters, website banners, presentations, pitch decks, etc.2. Design campaign assets like posters, digital ads, stories, GIFs, thumbnails, and email headers3. Maintain brand consistency across all designs (colors, fonts, layout, tone)4. Collaborate with marketing and content teams to turn ideas into engaging visualsB. Brand communication &amp; messaging:1. Assist in writing clear, compelling copy for campaigns, captions, brochures, etc.2. Help refine tone of voice across platforms to align with brand identity3. Support storytelling across platforms (visual + written) for product, brand, or founder narrativeC. Asset management:1. Organize and maintain brand asset folders (logos, fonts, templates, content banks)2. Keep a repository of past work for easy access and performance review3. Update and manage brand guideline documents if neededD. Campaign &amp; creative strategy support:1. Help brainstorm for creative campaigns, product launches, or seasonal content2. Assist in preparing mood boards, mockups, or presentation decks for internal reviews or clients3. Research industry trends and competitor content for design and tone benchmarksE. Content production assistance:1. Support photoshoots or video shoots (creative direction, layout, styling help)2. Edit short video snippets or story-based content using basic tools (optional but useful)3. Coordinate with freelancers or vendors (printers, photographers, editors)F. Cross-team collaboration:1. Work closely with the social media, marketing, and product teams2. Assist in internal communication design (event invites, internal notices, presentations)3. Support event branding and communication materials (digital invites, posters, handouts)Skill(s) requiredCanvaMS-PowerPointEarn certifications in these skillsLearn Graphic DesignLearn Creative WritingLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 2nd Jul'25 and 6th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    1. Should know Canva Powerpoint and interest in emerging tech/ media is a plus.                PerksCertificate Letter of recommendationNumber of openings        2                        About Movi Ecoserve Private Limited                        Movi Ecoserve works in sustainable technologies. We work majorly with the government and municipalities in pan India.     Activity on InternshalaHiring since February 202261 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Are you passionate about market research? Do you have strong communication skills? Join our Startup - Lohagarh Software Solutions Private Limited as a Market Research intern and gain hands-on experience in the world of education &amp; counselling business &amp; technology Selected intern's day-to-day responsibilities include:1. Conduct market research to identify Education, Counselling &amp; Career trends and opportunities in the industry.2. Create a list of Schools, Tuition centres, etc and make Field Visits to collect additional data and validate the Startup Hypothesis.3. Analyze data using MS-Excel to generate insights and recommendations.4. Assist in creating reports and presentations for internal and external stakeholders.5. Collaborate with founders in refining and executing their business idea. 6. Support the team in developing strategies and marketing campaigns.This is a fantastic opportunity for someone looking to kickstart their career in market research and make a real impact in a fast-paced and dynamic environment. Apply now and take the first step towards a rewarding career with us!Skill(s) requiredEffective CommunicationInterpersonal skillsMS-OfficePresentation skillsResearch and AnalyticsSelf-learningEarn certifications in these skillsLearn MS-ExcelLearn Research and AnalyticsLearn Business CommunicationLearn Business AnalyticsLearn Statistics for Data ScienceLearn Deep LearningLearn TableauLearn SAS ProgrammingLearn SQL for Data AnalyticsLearn Clinical Trial Analysis &amp; ReportingLearn Natural Language ProcessingLearn Data ScienceWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 2 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Have completed BBA or MBA                                    2. Prior experience in terms of projects/internships in Market research are PREFERRED.                PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About Lohagarh Software Solutions Pvt Ltd                        Lohagarh Software Solutions is a start-up with a mission to empower students with informed education and career decisions, aligning their choices with their inherent strengths, and offering continuous mental well-being support to students and their parents.Every year, around 200,000 students enrol in coaching hubs like Kota, Jaipur, and Sikar to prepare for competitive exams such as IIT-JEE and NEET. Students endure immense academic pressure that often leads to stress, mental health challenges, and the loss of formative years. Many students enrol in coaching programs without a clear understanding of their aptitudes, strengths, or long-term career goals, resulting in disengagement, frustration, bad health, and loss of time.We aim to help Students in these areas.Activity on InternshalaHiring since May 20252 opportunities posted2 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,24 +716,24 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:15</t>
+          <t>2025-07-20 10:40:57</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/design-communication-internship-in-mumbai-at-movi-ecoserve-private-limited1751519202</t>
+          <t>https://internshala.com/internship/detail/market-research-internship-in-jaipur-at-lohagarh-software-solutions-pvt-ltd1752812739</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HR Generalist</t>
+          <t>Field Sales</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include: 1. Provide tailored guidance to professionals in managing their job applications, enhancing LinkedIn profiles, and improving interview readiness to ensure a smooth and engaging candidate experience.2. Analyze labor market trends, industry shifts, and employer requirements to provide strategic input that supports both talent development and internal HR planning.3. Monitor employee and candidate engagement throughout the hiring process, evaluate outcomes, and use feedback to fine-tune HR strategies and enhance overall service quality.4. Work closely with employees, candidates, and cross-functional teams to implement initiatives that improve HR services, boost operational efficiency, and foster a positive experience across all touchpoints.Skill(s) requiredEffective CommunicationEnglish Proficiency (Written)LinkedIn MarketingTime ManagementEarn certifications in these skillsLearn Business CommunicationLearn Human Resource ManagementWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 15th Jul'25 and 19th Aug'25                                    3. are available for duration of 2 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        20                        About NxtJob                Website         At NxtJob, we are at the intersection of two rapidly growing industries - AI and online consulting/coaching. We've built an AI-powered web app and consulting program tailored to help job seekers land their ideal roles. Our mission is straightforward yet impactful: to empower professionals to showcase their skills and secure the salaries they deserve. It's why we're called NxtJob. Over 1,400 professionals have already used our services to land high-paying job offers around the world. In just 18 months of operations, we've achieved exceptional growth, consistently delivering outstanding results for our clients. As we continue to expand, we're looking for passionate team members to join us on this journey of transformation and empowerment.    Activity on InternshalaHiring since December 202373 opportunities posted181 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Key Responsibilities:1. Understand and explain the key features and benefits of our IT product.2. Conduct on-field visits to potential clients across Pithampur, Dewas Naka, and Indore.3. Assist in generating leads and identifying new business opportunities.Participate in client meetings, demos, and follow-ups.4. Collect insights from field visits and share feedback with the internal team.5. Maintain proper records of leads, interactions, and daily activities.Skill(s) requiredBusiness DevelopmentClient InteractionEnglish Proficiency (Spoken)Field SalesField WorkHindi Proficiency (Spoken)Lead GenerationNegotiationSalesEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 11th Jul'25 and 15th Aug'25                                    3. are available for duration of 3 months                                    4. are from Indore only                                    5. have relevant skills and interests                    Other requirements                    1. Good communication and interpersonal skills                                    2. Interest in technology and willingness to learn about IT products                                    3. Self-motivated, proactive, and comfortable with field work                                    4. Basic knowledge of sales or marketing is a plus                                    5. Ability to travel locally for field visits                PerksCertificateAdditional informationStipend Structure:Fixed pay: ₹ 8,000 - 10,000 /month                    Incentive pay: ₹ 2,000 - 20,000 /month                     Number of openings        4                        About BluCursor Infotech Private Limited                Website         bluCursor Infotech Private Limited is a government-certified and acclaimed IT company. Established in 2013, we have fulfilled the needs of a diverse range of clients belonging to various countries and have been flourishing since. bluCursor Infotech Private Limited consists of technology evangelists, full-stack consumers, and web solution experts. Our offerings include SOA-based applications, big data solutions, and mobile applications. We have a well-established track record and our services have always ensured great customer satisfaction.     Activity on InternshalaHiring since April 20234 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -751,24 +751,24 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:16</t>
+          <t>2025-07-20 10:40:57</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-hr-generalist-internship-at-nxtjob1752565321</t>
+          <t>https://internshala.com/internship/detail/field-sales-internship-in-indore-at-blucursor-infotech-private-limited1752237511</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Web3- Social Media Marketing</t>
+          <t>Sales and Marketing</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Content creation: Write, schedule, and publish daily tweets, threads, memes, and replies that match the brand's tone and resonate with our audience.2. Brand voice: Develop and maintain a distinct, authentic, and engaging voice for the brand on Twitter.3. Community engagement: Reply to mentions, join conversations, participate in trending hashtags, and build relationships with key community members and influencers.4. Trendspotting: Monitor Web3, crypto, and Twitter trends to create relevant, timely, and viral content.5. Performance tracking: Monitor analytics (engagement, reach, followers), report on campaign results, and optimize strategy based on data.6. Collaboration: Coordinate with content, design, and marketing teams to ensure posts align with wider campaigns and brand initiatives.7. Creative campaigns: Propose and execute campaigns like giveaways, AMAs, polls, and collaborations with other Twitter accounts.Skill(s) requiredCreative WritingEnglish Proficiency (Spoken)English Proficiency (Written)Earn certifications in these skillsLearn Creative WritingLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 12th Jul'25 and 16th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        2                        About Podha Protocol                        Podha Protocol is a web3 yield generation platform via real real-world digital asset management company. Recognized as a top-tier digital asset yield platform, Podha delivers reliable and forward-thinking yield solutions that bolster the digital asset economy.    Activity on InternshalaHiring since May 202515 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Assist in identifying and onboarding new restaurants, cloud kitchens, and cafes to the Restomart platform2. Conduct field visits across Chennai to understand customer pain points and recommend relevant product bundles3. Support order placement and fulfillment coordination via WhatsApp and internal systems. Prepare performance reports, track leads, and maintain CRM disciplineSkill(s) requiredBusiness DevelopmentCanvaDigital MarketingTamil Proficiency (Spoken)Earn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 3 months                                    4. are from Chennai only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeAdditional informationStipend Structure:Fixed pay: ₹ 6,000 - 8,000 /month                    Incentive pay: ₹ 4,000 - 6,000 /month                     Number of openings        2                        About Restomart                Website         We're a one-stop B2B platform powering restaurants and cafes with quality food supplies and next-day delivery. Bootstrapped and profitable, we're now scaling our platform, category offerings, and operations to build the "OS for restaurants" solving for procurement, inventory, recipe costing, and beyond.    Activity on InternshalaHiring since June 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -786,24 +786,24 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:16</t>
+          <t>2025-07-20 10:40:58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-web3-social-media-marketing-internship-at-podha-protocol1752338082</t>
+          <t>https://internshala.com/internship/detail/sales-and-marketing-internship-in-chennai-at-restomart1752752843</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Management Trainee</t>
+          <t>Video Editing/Making</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include: 1. Support professionals in enhancing their job search approach by improving personal branding strategies, such as optimizing LinkedIn profiles and aligning career goals with current hiring trends.2. Conduct detailed research on evolving job market patterns, industry shifts, and employer recruitment behaviors to inform internal strategies and client advisory.3. Monitor and analyze job application metrics, track client journey progress, and generate insights to boost placement and conversion rates.4. Assist in improving internal operations by identifying inefficiencies, recommending workflow enhancements, and supporting implementation of process improvements.5. Collaborate with cross-functional teams to co-create and implement innovative operational solutions aimed at elevating the overall client and stakeholder experience.Skill(s) requiredEffective CommunicationEnglish Proficiency (Written)LinkedIn MarketingTime ManagementEarn certifications in these skillsLearn Business CommunicationLearn Business AnalyticsLearn Digital MarketingLearn Human Resource ManagementWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 15th Jul'25 and 19th Aug'25                                    3. are available for duration of 2 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        20                        About NxtJob                Website         At NxtJob, we are at the intersection of two rapidly growing industries - AI and online consulting/coaching. We've built an AI-powered web app and consulting program tailored to help job seekers land their ideal roles. Our mission is straightforward yet impactful: to empower professionals to showcase their skills and secure the salaries they deserve. It's why we're called NxtJob. Over 1,400 professionals have already used our services to land high-paying job offers around the world. In just 18 months of operations, we've achieved exceptional growth, consistently delivering outstanding results for our clients. As we continue to expand, we're looking for passionate team members to join us on this journey of transformation and empowerment.    Activity on InternshalaHiring since December 202373 opportunities posted181 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    We are seeking a talented video editing expert who possesses advanced skills in utilizing the latest AI tools to create engaging short marketing videos. The ideal candidate should have a keen eye for detail, creativity, and proficiency in editing software.Selected intern's day-to-day responsibilities include: 1. Collaborate with the marketing team to understand project requirements and objectives.2. Utilize cutting-edge AI tools to enhance video content and create captivating marketing videos.3. Edit raw footage, adding effects, transitions, graphics, and sound to produce high-quality videos.4. Ensure videos align with brand guidelines and maintain consistency in style and tone.5. Optimize videos for various platforms, including social media channels, websites, and presentations.6. Stay updated on industry trends and emerging technologies to incorporate innovative techniques into video editing processes.7. Manage multiple projects simultaneously and adhere to deadlines.8. Provide constructive feedback and contribute to brainstorming sessions for creative ideas.Skill(s) requiredAdobe IllustratorAdobe PhotoshopVideo EditingVideo MakingEarn certifications in these skillsLearn Adobe PhotoshopLearn Adobe Premiere ProLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 3rd Jul'25 and 7th Aug'25                                    3. are available for duration of 3 months                                    4. are from Chennai only                                    5. have relevant skills and interests                    Other requirements                    1. Proficiency in video editing software such as Adobe Premiere Pro, Final Cut Pro, or similar tools.                                    2. Demonstrated expertise in using AI tools for video editing and enhancement.                                    3. Strong understanding of storytelling techniques and visual aesthetics..                                    4. Demonstrated expertise in using AI tools for video editing and enhancement.                                    5. Strong understanding of storytelling techniques and visual aesthetics.                                    6. A freelancer can also apply for the internship.                PerksCertificate Letter of recommendationAdditional information                1. Candidates may be required to provide a portfolio showcasing their previous work.2. The position offers opportunities for professional growth and development within the company.                Number of openings        1                        About MiTran Global                Website         We are a global organization focusing on delivering world-class tools to understand the mindset of students and provide them with appropriate training courses.    Activity on InternshalaHiring since October 202229 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,24 +821,24 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:17</t>
+          <t>2025-07-20 10:40:59</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-management-trainee-internship-at-nxtjob1752565361</t>
+          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-chennai-at-mitran-global1751542350</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UI/UX Design</t>
+          <t>Kannada Audio Recording Expert (Native Speakers)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>About the internship    As a UI/UX Design intern, you will have the opportunity to work on cutting-edge projects and gain hands-on experience in the field. Your creativity and skills in Wireframing, UI and UX Design, Figma, Sketch, and Adobe Illustrator will be put to the test as you collaborate with our team to create user-friendly interfaces for our digital platforms.Key Responsibilities:1. Collaborate with the product officer to create wireframes and prototypes for new features and enhancements.2. Conduct user research and testing to gather insights and feedback for design improvements.3. Work closely with developers to ensure designs are implemented accurately and efficiently.4. Create visually appealing and intuitive designs that enhance the overall user experience.5. Stay up-to-date with the latest design trends and technologies to continually improve our products.6. Assist in the creation of design assets and style guides to maintain brand consistency.7. Participate in design reviews and provide constructive feedback to help refine design concepts. If you are a motivated and creative individual looking to jumpstart your career in UI/UX design, we want to hear from you! Join us and be part of a dynamic team that is shaping the future.Skill(s) requiredAdobe IllustratorFigmaSketchUI &amp; UX DesignWireframingEarn certifications in these skillsLearn FigmaLearn Rapid PrototypingLearn UI &amp; UX DesignLearn WireframingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 2 months                                    4. are from Coimbatore only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        1                        About HiFresh Agro Private Limited                        HiFresh Agro Private Limited is a startup focused on producing protein-rich food such as mushrooms and Spirulina, with strategic plans to expand into the export business of agricultural products such as millets, coir, and other agricultural produce where there is a demand.    Activity on InternshalaHiring since June 202415 opportunities posted8 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    We are currently looking for fluent Kannada speakers to participate in an ongoing audio recording project. If you have strong verbal communication skills, a keen eye for detail, and are proficient in Kannada, this is a great opportunity for you.Selected intern's day-to-day responsibilities include:1. Recording audio on assigned topics with clear and fluent Kannada pronunciation.2. Speaking exclusively in Kannada throughout all recordings.3. Staying on topic and following the given subpoints without deviating from the script.4. Using the specified mobile application to complete recordings.5. Ensuring recordings are done in a quiet, noise-free environment for optimal audio quality.6. Maintaining a stable internet connection and staying fully focused   no multitasking during sessions.7. Adhering to professional standards: avoiding offensive, abusive, or discriminatory language, and refraining from sharing any personal information.Note: 1.  Each participant will record 220 short phrases provided on the platform.2. This is a one-time task, and all recordings will be completed through a mobile. Application.Skill(s) requiredCreative WritingEnglish Proficiency (Spoken)English Proficiency (Written)Kannada Proficiency (Spoken)Kannada Proficiency (Written)ProofreadingVoice-over artistEarn certifications in these skillsLearn Creative WritingLearn Business CommunicationLearn FrenchWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 20th Jul'25 and 24th Aug'25                                    3. are available for duration of 1 week                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Fluency in Kannada.                                    2. Excellent reading and speaking skills in the Kannada Language.                                    3. Ability to commit to a minimum of 3-4 hours per day.                                    4. Strong attention to detail and ability to meet project specifications.                PerksCertificate Flexible work hoursNumber of openings        20                        About Solvitude                LinkedIn page         Solvitude is a rapidly growing content service platform where users get various academic and content writing services like article writing, textbook solutions, essay writing, translations, and many more. Solvitude has the perfect team of experts for such work. The team adheres to and fulfills the needs of the clients. Various leading companies in the ed-tech industry outsource their writing requirements to us. By doing so, they get the benefits of one of the most capable content writing services online. Join our yoga centre team at Solvitude.    Activity on InternshalaHiring since April 2023370 opportunities posted84 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -856,24 +856,24 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:18</t>
+          <t>2025-07-20 10:40:59</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-coimbatore-at-hifresh-agro-private-limited1752838475</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-kannada-audio-recording-expert-native-speakers-internship-at-solvitude1752995847</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>UI/UX Design</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>About part time job/internship    Selected intern's day-to-day responsibilities include: 1. Assisting in digital marketing activities and campaign execution2. Managing and growing social media platforms through engaging content3. Supporting branding and advertising initiatives for better visibility4. Performing basic search engine optimization (SEO) tasks to improve rankings5. Creating graphics and visual content for marketing purposes6. Helping run and monitor search engine marketing (SEM) campaigns7. Managing Digital Channels8. Content Creation and Management9. Website Optimization:10. Improving website visibility through SEO (Search Engine Optimization) and content marketing strategies.  11. Campaign Management: Managing and optimizing digital advertising campaigns across various platforms like Google Ads, social media, and email marketing.  12. Technical Proficiency: Familiarity with web analytics tools (e.g., Google Analytics), content management systems (CMS), and other digital marketing tools.  Skill(s) requiredDigital MarketingEmail MarketingFacebook MarketingInstagram MarketingSearch Engine Marketing (SEM)Search Engine Optimization (SEO)Social Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 4 months                                    4. are from Bangalore only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Assisting in digital marketing activities and campaign execution                                    2. Managing and growing social media platforms through engaging content                                    3. Supporting branding and advertising initiatives for better visibility                                    4. Performing basic search engine optimization (SEO) tasks to improve rankings                                    5. Creating graphics and visual content for marketing purposes                                    6. Helping run and monitor search engine marketing (SEM) campaigns                PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        5                        About Varuna                        Varuna is a trusted name in the field of water and wastewater management, offering innovative, sustainable, and cost-effective solutions across India. Headquartered in Bangalore, we specialize in the design, manufacturing, installation, and maintenance of high-quality Sewage Treatment Plants (STP), Effluent Treatment Plants (ETP), Water Treatment Plants (WTP), Modular Precast RCC Tanks, Water Softeners, and Rainwater Harvesting Systems.                            Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Create low and high-fidelity wireframes and prototypes.2. Develop user flows and information architecture to enhance usability.3. Design responsive and adaptive UI for mobile and web applications.4. Work with typography, color theory, and visual hierarchy to create aesthetically pleasing designs.5. Utilize Figma for design systems, auto-layout, variants, and prototyping.6. Collaborate with developers and stakeholders to refine design solutionsSkill(s) requiredFigmaEarn certifications in these skillsLearn FigmaLearn UI &amp; UX DesignWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 20th Jul'25 and 24th Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Number of openings        10                        About EG Allied Private Limited                        Entire Globe Allied is in the IT services &amp; BPO industry. We offer our services globally and connect you to the world of innovation. We believe in providing the best solution to our clients by keeping the customer's satisfaction and the brand's reputation in mind. We frame our work with innovative ideas to get ahead of the global competition, which also helps us to provide our clients with high-quality services. We provide services in IT, customer engagement, accounting, and digital marketing.    Activity on InternshalaHiring since June 2021222 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -891,24 +891,24 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:18</t>
+          <t>2025-07-20 10:41:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/part-time-digital-marketing-internship-in-bangalore-at-varuna1752840350</t>
+          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-jaipur-at-eg-allied-private-limited1752984633</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Finance Research Analyst</t>
+          <t>Content and Social Media Marketing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Participate in internal training sessions or knowledge-sharing activities2. Track stock market trends, economic indicators, and global financial news3. Conduct research on listed companies, market sectors, and industriesSkill(s) requiredFinancial literacyEarn certifications in these skillsLearn Stocks and TradingLearn Business CommunicationLearn Business AnalyticsLearn Financial modeling valuationLearn Personal FinanceWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        20                        About Savvy Merit                Website         Savvy Merit is a forward-thinking educational company committed to empowering individuals with the knowledge, tools, and strategies needed to thrive in the world of finance and the stock market. Our mission is to simplify complex financial concepts and make investing accessible to everyone, from curious beginners to aspiring market professionals. We offer high-quality education through structured courses, live mentorship, interactive workshops, and market insights. Our expert-led curriculum covers a wide range of topics, including stock market fundamentals, technical and fundamental analysis, portfolio management, and financial planning, all with a focus on real-world applications. What sets us apart is our team of experienced mentors, beginner-to-advanced learning tracks, live market training and simulations, strong community support, engaging webinars, and access to up-to-date tools and resources.    Activity on InternshalaHiring since June 202559 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Are you a creative individual with a passion for content creation and social media marketing? Homemade Love is seeking a talented Content and Social Media Marketing intern to join our team! As a key member of our marketing team, you will have the opportunity to showcase your skills in video editing, social media marketing, Instagram marketing, and videography. Key Responsibilities:1. Create engaging and visually appealing video content for our social media channels2. Develop and implement social media marketing strategies to increase brand awareness3. Manage and grow our Instagram presence through creative and innovative content4. Collaborate with the marketing team to brainstorm and execute new ideas for content5. Assist in capturing high-quality video footage for promotional purposes6. Analyze and report on social media performance metrics to optimize marketing efforts7. Stay up-to-date on industry trends and best practices to continuously improve our marketing strategies If you are a self-motivated individual with a strong eye for detail and a love for all things creative, we want to hear from you! Join us at Homemade Love and make a real impact on our brand's digital presence. Apply now and show us what you've got!Skill(s) requiredInstagram MarketingSocial Media MarketingVideo EditingVideographyEarn certifications in these skillsLearn Adobe Premiere ProLearn Facebook MarketingLearn Social Media MarketingLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 20th Jul'25 and 24th Aug'25                                    3. are available for duration of 3 months                                    4. are from Delhi only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksInformal dress codeNumber of openings        2                        About Homemade Love LLP                        We're a homegrown pickle, chutney, and traditional recipe brand. We are very particular about delivering quality products like a true Punjabi mom, and careful to make only small quantities of Jams and pickles, slow-cooked with love and perfectly simmered. Wanting to cater to all kinds of preferences, we laid a strong emphasis on producing only unadulterated all-natural pickles and jams, made from locally sourced vegetables, simmered in pure oils and vinegar. Only natural preservatives like lemon, mustard oil, vinegar, and sugar are used to create products that are made to last for 8-12 months with refrigeration and 6 months - without. Willing to ship fresh batches of pickles and jams to just about anywhere, we make sure that each bottle packed is filled to the brim with the product and the love.    Activity on InternshalaHiring since August 202210 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -926,24 +926,24 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:19</t>
+          <t>2025-07-20 10:41:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-finance-research-analyst-internship-at-savvy-merit1752841432</t>
+          <t>https://internshala.com/internship/detail/content-and-social-media-marketing-internship-in-delhi-at-homemade-love-llp1752989543</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Graphic Design</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>About the internship    As a Project Management intern at VerboLabs, you will have the opportunity to work in a dynamic and fast-paced environment where your skills in Interpersonal communication, Effective Communication, and Time Management will be put to the test. Your role will involve collaborating with team members, clients, and vendors to ensure projects are completed successfully and on time. Key responsibilities:1. Assist in creating project plans and timelines2. Communicate project updates and progress to all stakeholders3. Coordinate with team members to delegate tasks and ensure deadlines are met4. Conduct research and analysis to support project objectives5. Assist in identifying potential risks and developing mitigation strategies6. Participate in meetings and provide input on project strategy and direction7. Maintain project documentation and ensure accuracy and completeness of recordsIf you are a proactive and driven individual looking to gain hands-on experience in project management, this internship is the perfect opportunity to expand your skills and make a real impact. Apply now and take the first step towards a rewarding career in project management at VerboLabs.Skill(s) requiredEffective CommunicationInterpersonal skillsTime ManagementEarn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Udaipur only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 240000 to 300000/year Number of openings        4                        About VerboLabs                LinkedIn page         VerboLabs is a leading language services company based in Bangalore, India. We are one of the top website &amp; human translation service providing agencies. Our great base of experienced native translators makes sure that every project is taken up sincerely and that the best efforts are put in to make it stand out in terms of quality.    Activity on InternshalaHiring since November 20226 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About part time job/internship    Selected intern's day-to-day responsibilities include:1. Design the layout of essential business materials (e.g. business cards, presentations)2. Create infographics and presentation materials to simplify the communication of complex concepts and data3. Work on editing video clips for use on social media platformsNotes: 1. Windows is not accepted due to the nature of the work, you have to work on a MacBook.2. If you perform well, you might be working very closely with our marketing and founding teams to showcase your creativity at its best.Skill(s) requiredAdobe IllustratorAdobe PhotoshopCorelDRAWSketchEarn certifications in these skillsLearn Adobe PhotoshopLearn Graphic DesignLearn AnimationLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 3 months                                    4. are from Mohali only                                    5. have relevant skills and interests                    Other requirements                    1. The candidate should have a MacBook/Mac Mini (only Macintosh OS), which is required for internal processes.                                    2. The candidate should be eager to learn about creativity and test it within brand guidelines.                PerksCertificate Letter of recommendation Informal dress code 5 days a week Free snacks &amp; beverages Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 240000/year Number of openings        5                        About Alphanumeric Ideas Private Limited                        We deal in digital empowerment and promotion solutions and have been accredited as one of APAC's top digital marketing agencies. We are a Google premier partner agency listed among the top 3% of companies in the APAC region. We have been working with leading brands like The Whole Truth Foods, and Agarwal Packers &amp; Movers, to name a few.    Activity on InternshalaHiring since January 2020946 opportunities posted45 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -961,24 +961,24 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:20</t>
+          <t>2025-07-20 10:41:01</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/project-management-internship-in-udaipur-at-verbolabs1752837603</t>
+          <t>https://internshala.com/internship/detail/part-time-graphic-design-internship-in-mohali-at-alphanumeric-ideas-private-limited1752900107</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Telecalling / Customer Service</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Make cold calls and follow-ups with customers and prospects2. Handle product, order, and service-related queries via phone, email, and WhatsApp3. Maintain accurate call logs and feedback records4. Coordinate with internal teams to ensure smooth customer service5. Assist with customer complaints, returns, and status updates6. Create and manage basic reports in ExcelSkill(s) requiredAdaptabilityAttention to DetailCollaborationComputer skillsCoordinationDocument ManagementEffective CommunicationReport WritingEarn certifications in these skillsLearn MS-ExcelLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Kolkata only                                    5. have relevant skills and interests                    Other requirements                    1. Students or freshers based in Kolkata                                    2. Strong verbal communication in English, Hindi, and Bengali                                    3. Confident in handling phone calls and cold outreach                                    4. Well-versed in MS Excel, email, and WhatsApp tools                                    5. Friendly, composed, and detail-oriented                PerksCertificateNumber of openings        4                        About Anuschka Leather-India Private Limited                Website         Anuschka is a premium fashion brand renowned for having the world's largest collection of hand-painted bags. Headquartered in the USA, it sells across North America, Europe, Australia, and the UK, with its Sales and Marketing unit in India. The brand name means "like no other", and for over 36 years, Anuschka has empowered artisans to create wearable art that tells stories and supports their families. As part of the Anuschka family, you contribute to a global circle of empowerment, connecting art lovers and artisans through storytelling, creativity, and community. For more details-  www.anuschkaleather.com    Activity on InternshalaHiring since May 202525 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities:1. Assist in integrating ERP platforms and professional service ecosystems to enhance compliance, tax intelligence, and reconciliation workflows2. Support the team in showcasing SaaS solutions for accounting, finance, tax compliance, and risk management3. Create engaging content for social media platforms (LinkedIn, Facebook, YouTube)4. Help with client connect initiatives (email campaigns, webinars, events)5. Assist in implementing SaaS tools to streamline client processes6. Collaborate with teams to support platform sales and handle routine platform-related queries7. Collect and share client feedback with product development teamsSkill(s) requiredDigital MarketingEmail MarketingEnglish Proficiency (Spoken)English Proficiency (Written)FinanceSales StrategySocial Media MarketingEarn certifications in these skillsLearn Business CommunicationLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingLearn Financial ModelingLearn TallyLearn Stocks and TradingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 4 months                                    4. are from Chennai only                                    5. have relevant skills and interests                    Other requirements                    1. Bachelor's degree in accounting, finance, law, business administration, or related fields                                    2. Strong interest in SaaS solutions, accounting, and finance                                    3. Good knowledge of social media platforms and content creation                PerksCertificate Letter of recommendationNumber of openings        1                        About Gigart Solutions Private Limited                        We are a freelancing marketplace focused on providing technology-enabled platform services that ensure the availability of professionals on a short-term basis. The service is expected to be offered to the right person at the right time and at the right cost. This service saves on employing such resources on a full-time basis.    Activity on InternshalaHiring since January 202143 opportunities posted8 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -996,24 +996,24 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:20</t>
+          <t>2025-07-20 10:41:02</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/telecalling-customer-service-internship-in-kolkata-at-anuschka-leather-india-private-limited1752838563</t>
+          <t>https://internshala.com/internship/detail/marketing-internship-in-chennai-at-gigart-solutions-private-limited1752911509</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Law/Legal</t>
+          <t>Business Development (Sales)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Conduct legal research and analysis on various matters2. Draft legal documents, contracts, and agreements3. Assist in preparing for court hearings and trials4. Review and analyze legal documents and correspondence5. Communicate with clients, attorneys, and other legal professionals6. Maintain and organize legal files and documentation7. Provide support to the legal team as neededAny other cross-functional team support if requiredSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-OfficeMS-WordEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    This role is not open to freshers; we require candidates with relevant experience.                                    The stipend will be based on the candidate’s skills and prior experience.                Number of openings        2                        About Movi Ecoserve Private Limited                        Movi Ecoserve works in sustainable technologies. We work majorly with the government and municipalities in pan India.     Activity on InternshalaHiring since February 202261 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Key responsibilities:1. Contact potential students and organizations via calls, emails, and social media to describe GradX programs and career opportunities2. Schedule and conduct counseling sessions or product demos with interested candidates online or in person as needed3. Track and manage a pipeline of leads using CRM tools or spreadsheets, ensuring regular follow-up and engagement4. Monitor progress towards weekly and monthly sales targets and adjust strategies to improve conversion rates5. Work consistently to achieve and exceed assigned weekly and monthly sales targets for enrollments and partnerships6. Collect insights and feedback from prospects and enrolled clients regarding course offerings and service quality to inform improvements7. Provide prompt support and ongoing communication to address queries and maintain strong follow-up throughout the enrollment cycle8. Collaborate with marketing, academic, and placement teams to ensure a seamless onboarding experience and alignment of objectives9. Maintain clear records of activity, customer interactions, and sales outcomes, and submit reports to team leaders10. Participate in team meetings, strategy sessions, and training programs to improve performance and enhance product knowledgeSkill(s) requiredClient Relationship Management (CRM)Effective CommunicationEnglish Proficiency (Spoken)English Proficiency (Written)Interpersonal skillsSalesSales StrategyEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 5 months                                    4. are from Pune only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Bachelor’s degree (business, marketing, or related field preferred)                                    2. Sales or business development experience (preferably EdTech)                                    3. Excellent communication and interpersonal skills                                    4. Experience with CRM tools and digital outreach                                    5. Strong organizational and multitasking abilities                                    6. Target-driven and self-motivated                                    7. Quick learner, adaptable to change                                    8. Customer-focused attitude                                    9. Team player                PerksCertificate Letter of recommendation Informal dress code Job offerAdditional informationStipend Structure:Fixed pay: ₹ 5,000 - 10,000 /month                    Incentive pay: ₹ 8,000 - 30,000 /month                     Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 600000/year Number of openings        6                        About GradX Academy                Website         GradX Academy is a next-generation EdTech platform on a mission to bridge the skill gap between traditional education and the real-world tech industry. We specialize in delivering high-impact training programs in salesforce, data cloud, marketing cloud, business development, and other in-demand technologies. Our courses are designed and delivered by industry experts with a focus on practical learning, real-time projects, and career transition support. We've helped hundreds of professionals and students land high-paying jobs and accelerate their careers in IT, even without prior tech backgrounds. At GradX Academy, we believe in "Learning by Doing." Join us to be part of a fast-growing team that's shaping the future of tech education and empowering the next generation of IT leaders.Activity on InternshalaHiring since July 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1031,24 +1031,24 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:21</t>
+          <t>2025-07-20 10:41:02</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/law-legal-internship-in-mumbai-at-movi-ecoserve-private-limited1752834353</t>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-pune-at-gradx-academy1752919512</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Human Resources (HR)</t>
+          <t>Law/Legal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>About the internship    Position: HR InternLocation: Jaipur (Onsite)Shift Timing: Day Shift (10:00 AM to 7:00 PM)Stipend:    15,000 per monthAbout the Role:We are looking for a motivated and enthusiastic HR Intern to join our team at our Jaipur office. This is a great opportunity for individuals who are passionate about building a career in human resources and wish to gain hands-on experience in a professional setting.Key Responsibilities:Assist in recruitment processes, including sourcing, screening, and scheduling interviews.Maintain and update employee records and HR databases.Support onboarding and orientation processes for new hires.Help in organizing employee engagement activities and events.Provide support for daily HR operations and administrative tasks.Handle documentation and assist in policy compliance.Requirements:Pursuing or recently completed a degree in Human Resources, Business Administration, or a related field.Strong communication and interpersonal skills.Proficiency in MS Office (Word, Excel, PowerPoint).Ability to multitask and prioritize tasks efficiently.Positive attitude and eagerness to learn.Skill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-WordRecruitmentEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn about RecruitmentWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 4 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        1                        About Softsensor.ai                Website         Softsensor.ai is a USA and India-based corporation focused on delivering outcomes to clients using data. Our expertise lies in a collection of people, methods, and accelerators to rapidly deploy solutions for our clients. Our principals have significant experience with leading global consulting firms &amp; corporations and delivering large-scale solutions. We are focused on data science and analytics for improving the process and organizational performance. We are working on cutting-edge data science technologies like NLP, CNN, and RNN and applying them in the business context.    Activity on InternshalaHiring since September 2019236 opportunities posted45 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Conduct legal research and analysis on various matters2. Draft legal documents, contracts, and agreements3. Assist in preparing for court hearings and trials4. Review and analyze legal documents and correspondence5. Communicate with clients, attorneys, and other legal professionals6. Maintain and organize legal files and documentation7. Provide support to the legal team as neededAny other cross-functional team support if requiredSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-OfficeMS-WordEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    This role is not open to freshers; we require candidates with relevant experience.                                    The stipend will be based on the candidate’s skills and prior experience.                Number of openings        2                        About Movi Ecoserve Private Limited                        Movi Ecoserve works in sustainable technologies. We work majorly with the government and municipalities in pan India.     Activity on InternshalaHiring since February 202261 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1066,24 +1066,24 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:22</t>
+          <t>2025-07-20 10:41:03</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-jaipur-at-softsensorai1752833768</t>
+          <t>https://internshala.com/internship/detail/law-legal-internship-in-mumbai-at-movi-ecoserve-private-limited1752834353</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Finance Equity Analyst</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Are you a finance-savvy individual eager to dive into the world of equity analysis? Look no further! Savvy Merit is seeking a talented finance equity analyst intern to join our dynamic team. As an intern, you will have the opportunity to gain hands-on experience in financial analysis and market research while working closely with seasoned professionals in the industry. Selected intern's day-to-day responsibilities include:1. Conduct in-depth research and analysis on equity investments to identify potential opportunities for growth.2. Assist in the preparation of financial models and reports to support investment decisions.3. Monitor and evaluate market trends, economic developments, and company performance to make informed recommendations.4. Collaborate with team members to assess risk factors and develop strategies to mitigate potential risks.5. Present findings and recommendations to senior management and contribute to investment discussions.6. Develop a strong understanding of financial markets, investment strategies, and valuation techniques.7. Stay updated on industry news and regulations to ensure compliance with relevant guidelines.If you are passionate about finance and eager to learn from industry experts, this internship is the perfect opportunity for you to kickstart your career in equity analysis. Join us at Savvy Merit and take your first step towards a successful future in finance!Skill(s) requiredFinancial literacyEarn certifications in these skillsLearn Stocks and TradingLearn Business CommunicationLearn Business AnalyticsLearn Financial modeling valuationLearn Personal FinanceWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        20                        About Savvy Merit                Website         Savvy Merit is a forward-thinking educational company committed to empowering individuals with the knowledge, tools, and strategies needed to thrive in the world of finance and the stock market. Our mission is to simplify complex financial concepts and make investing accessible to everyone, from curious beginners to aspiring market professionals. We offer high-quality education through structured courses, live mentorship, interactive workshops, and market insights. Our expert-led curriculum covers a wide range of topics, including stock market fundamentals, technical and fundamental analysis, portfolio management, and financial planning, all with a focus on real-world applications. What sets us apart is our team of experienced mentors, beginner-to-advanced learning tracks, live market training and simulations, strong community support, engaging webinars, and access to up-to-date tools and resources.    Activity on InternshalaHiring since June 202559 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    As a Project Management intern at VerboLabs, you will have the opportunity to work in a dynamic and fast-paced environment where your skills in Interpersonal communication, Effective Communication, and Time Management will be put to the test. Your role will involve collaborating with team members, clients, and vendors to ensure projects are completed successfully and on time. Key responsibilities:1. Assist in creating project plans and timelines2. Communicate project updates and progress to all stakeholders3. Coordinate with team members to delegate tasks and ensure deadlines are met4. Conduct research and analysis to support project objectives5. Assist in identifying potential risks and developing mitigation strategies6. Participate in meetings and provide input on project strategy and direction7. Maintain project documentation and ensure accuracy and completeness of recordsIf you are a proactive and driven individual looking to gain hands-on experience in project management, this internship is the perfect opportunity to expand your skills and make a real impact. Apply now and take the first step towards a rewarding career in project management at VerboLabs.Skill(s) requiredEffective CommunicationInterpersonal skillsTime ManagementEarn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Udaipur only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 240000 to 300000/year Number of openings        4                        About VerboLabs                LinkedIn page         VerboLabs is a leading language services company based in Bangalore, India. We are one of the top website &amp; human translation service providing agencies. Our great base of experienced native translators makes sure that every project is taken up sincerely and that the best efforts are put in to make it stand out in terms of quality.    Activity on InternshalaHiring since November 20227 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1101,24 +1101,24 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:22</t>
+          <t>2025-07-20 10:41:05</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-finance-equity-analyst-internship-at-savvy-merit1752840608</t>
+          <t>https://internshala.com/internship/detail/project-management-internship-in-udaipur-at-verbolabs1752837603</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jewelry Design &amp; Creative Product</t>
+          <t>Human Resources (HR)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Conceptualize and sketch disruptive jewelry and accessory designs that break the conventional mold.2. Create trend-forward moodboards, storyboards, and product visuals using Procreate, Canva, or Adobe tools.3. Contribute ideas for packaging, branding, and storytelling aligned with the brand vision.4. Support social media content design (optional) for styling, lookbooks, and creative direction.5. Design handmade sketches based on the concept shared and given.Skill(s) requiredAdobe IllustratorAdobe PhotoshopCanvaCLO3DDesign ThinkingMarket AnalysisProcreateRhinoSketchingEarn certifications in these skillsLearn Adobe PhotoshopLearn AutoCADLearn Autodesk Fusion 360Who can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 14th Jul'25 and 18th Aug'25                                    3. are available for duration of 3 months                                    4. are from Thane, Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Candidates currently pursuing or recently completed a course in fashion design, accessory design, jewelry design, or product design.                                    2. Must be from Mumbai or Thane only.                                    3. Must be available for office hours.                                    4. Must have a strong interest in working on bold, creative, and unconventional concepts.                                    5. Women wanting to start/restart their careers are encouraged to apply.                PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 3,000 - 7,000 /month                    Incentive pay: ₹ 1,000 - 5,000 /month                     Number of openings        2                        About Magic Touch                        Magic Touch has been a benchmark for design, craftsmanship, quality, and price. As India's leading manufacturer and retailer of real diamond &amp; jewelry, we offer a huge range of exclusive designs and a wide-ranging collection. Whether you are looking for everyday wear, occasion wear, or gifting, Magic Touch is your one-stop jewelry shopping destination for the best in quality, design, and price!    Activity on InternshalaHiring since May 202110 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Position: HR InternLocation: Jaipur (Onsite)Shift Timing: Day Shift (10:00 AM to 7:00 PM)Stipend:    15,000 per monthAbout the Role:We are looking for a motivated and enthusiastic HR Intern to join our team at our Jaipur office. This is a great opportunity for individuals who are passionate about building a career in human resources and wish to gain hands-on experience in a professional setting.Key Responsibilities:Assist in recruitment processes, including sourcing, screening, and scheduling interviews.Maintain and update employee records and HR databases.Support onboarding and orientation processes for new hires.Help in organizing employee engagement activities and events.Provide support for daily HR operations and administrative tasks.Handle documentation and assist in policy compliance.Requirements:Pursuing or recently completed a degree in Human Resources, Business Administration, or a related field.Strong communication and interpersonal skills.Proficiency in MS Office (Word, Excel, PowerPoint).Ability to multitask and prioritize tasks efficiently.Positive attitude and eagerness to learn.Skill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-WordRecruitmentEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn about RecruitmentWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 4 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        1                        About Softsensor.ai                Website         Softsensor.ai is a USA and India-based corporation focused on delivering outcomes to clients using data. Our expertise lies in a collection of people, methods, and accelerators to rapidly deploy solutions for our clients. Our principals have significant experience with leading global consulting firms &amp; corporations and delivering large-scale solutions. We are focused on data science and analytics for improving the process and organizational performance. We are working on cutting-edge data science technologies like NLP, CNN, and RNN and applying them in the business context.    Activity on InternshalaHiring since September 2019236 opportunities posted45 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1136,24 +1136,24 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:23</t>
+          <t>2025-07-20 10:41:05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/jewelry-design-creative-product-internship-in-multiple-locations-at-magic-touch1752667067</t>
+          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-jaipur-at-softsensorai1752833768</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>UI/UX Design</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include: 1. Create and schedule engaging social media posts to increase awareness and engagement2. Assist in the development and execution of email marketing campaigns to reach our target audience3. Utilize MS Office and MS Excel to analyze marketing data and trends4. Collaborate with the team to brainstorm and implement innovative marketing strategies5. Maintain and update our online presence on various platforms6. Utilize your proficiency in spoken Hindi and English to communicate effectively with our diverse audience7. Develop written content for various marketing materials to convey our message and find donors for the campaign effectivelySkill(s) requiredDigital MarketingEmail MarketingEnglish Proficiency (Spoken)English Proficiency (Written)Hindi Proficiency (Spoken)MS-ExcelMS-OfficeSocial Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn MS-ExcelLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 2 weeks                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        6                        About Rural Development Society                        Rural Development Society (RDS) is a dedicated non-profit organization passionately committed to the holistic development of rural communities. Specializing in children's welfare and social empowerment, we collaborate seamlessly with numerous NGOs, fostering a united front for positive change. Together, we strive to create a brighter future, one where every child has the opportunity to thrive and every community can flourish. Join us in our mission to uplift lives and build a more inclusive society.    Activity on InternshalaHiring since November 2023272 opportunities posted9779 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    As a UI/UX Design intern, you will have the opportunity to work on cutting-edge projects and gain hands-on experience in the field. Your creativity and skills in Wireframing, UI and UX Design, Figma, Sketch, and Adobe Illustrator will be put to the test as you collaborate with our team to create user-friendly interfaces for our digital platforms.Key Responsibilities:1. Collaborate with the product officer to create wireframes and prototypes for new features and enhancements.2. Conduct user research and testing to gather insights and feedback for design improvements.3. Work closely with developers to ensure designs are implemented accurately and efficiently.4. Create visually appealing and intuitive designs that enhance the overall user experience.5. Stay up-to-date with the latest design trends and technologies to continually improve our products.6. Assist in the creation of design assets and style guides to maintain brand consistency.7. Participate in design reviews and provide constructive feedback to help refine design concepts. If you are a motivated and creative individual looking to jumpstart your career in UI/UX design, we want to hear from you! Join us and be part of a dynamic team that is shaping the future.Skill(s) requiredAdobe IllustratorFigmaSketchUI &amp; UX DesignWireframingEarn certifications in these skillsLearn FigmaLearn Rapid PrototypingLearn UI &amp; UX DesignLearn WireframingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 2 months                                    4. are from Coimbatore only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        1                        About HiFresh Agro Private Limited                        HiFresh Agro Private Limited is a startup focused on producing protein-rich food such as mushrooms and Spirulina, with strategic plans to expand into the export business of agricultural products such as millets, coir, and other agricultural produce where there is a demand.    Activity on InternshalaHiring since June 202416 opportunities posted8 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1171,24 +1171,24 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:23</t>
+          <t>2025-07-20 10:41:06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-marketing-internship-at-rural-development-society1752840612</t>
+          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-coimbatore-at-hifresh-agro-private-limited1752838475</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Next.js Development</t>
+          <t>Search Engine Optimization (SEO)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include: 1. Convert Framer prototypes/designs into hard-coded front-end pages using Next.js, HTML, and CSS2. Ensure responsive design, cross-browser compatibility, and performance3. Collaborate with designers and developers to maintain design consistencyMaintain clean, well-documented code4. Optimize components for performance and scalabilitySkill(s) requiredCSSFramerHTMLNext.jsEarn certifications in these skillsLearn CSSLearn HTMLLearn Web DevelopmentLearn Data Structures &amp; AlgorithmsLearn Git &amp; GithubLearn NodejsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 2 months                                    4. have relevant skills and interests                    Other requirements                    1. Basic understanding of Next.js, React, HTML, and CSS                                    2. Ability to accurately translate visual designs into code                                    3. Familiarity with responsive and adaptive design principles                                    4. Attention to detail and a sense of design aesthetics                                    5. Eagerness to learn and take feedback constructively                PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        2                        About Aadi Foundation                        Aadi Foundation started in 2021, is a non-profit organization committed to bringing the best educational resources to the under-served tribal communities of Delhi, Dehradun, etc., in India. We also distribute food items in poverty-stricken areas and always stress activities and strategies that cover the whole cycle of what is required for providing quality education and food to an individual child in a structured manner. Our mission is to build a platform for vulnerable and oppressed children, living in poverty, thus empowering them with well-equipped education and gaining knowledge to alleviate poverty.    Activity on InternshalaHiring since July 2022208 opportunities posted1002 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Assist in creating backlinks through methods like citations, profile creation, classified ads, and blog commenting2. Conduct keyword research using SEO tools to identify high-performing search terms3. Perform competitor analysis to understand SEO strategies, backlink profiles, and keyword gaps4. Support in technical SEO audits and reporting5. Write and optimize meta titles and descriptions for improved CTR and SERP rankings6. Analyze website traffic and user behavior using tools like Google Analytics and Search Console7. Help in content optimization for blog posts, landing pages, and service pages based on SEO best practices8. Monitor and report daily/weekly keyword rankings and SEO performance metrics9. Research and list relevant directories and platforms for off-page SEO10. Stay updated with the latest SEO trends, Google algorithm updates, and industry tools11. Collaborate with the team to brainstorm and execute link-building strategies12. Support in on-page SEO elements such as header tags, image optimization, and internal linkingSkill(s) requiredComputer skillsEnglish Proficiency (Written)Google Keyword PlannerMicrosoft PowerAppsSearch Engine Optimization (SEO)Earn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn SEOWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Strong interest in digital marketing and content strategy                                    2. Ability to conduct online research and summarize findings clearly                                    3. Comfortable using spreadsheets (Google Sheets/Excel) for tracking SEO data                                    4. Eagerness to learn and stay updated on SEO trends and Google algorithm changes                                    5. Ability to follow instructions and meet deadlines                                    6. Self-motivated, proactive, and detail-oriented mindset                                    Bonus: Experience with WordPress or other CMS platforms                                    Bonus: Familiarity with ChatGPT or other AI tools for content ideation and SEO research                PerksCertificate Letter of recommendation Informal dress codeNumber of openings        5                        About Jaipur SEO Company                Website         We are a bunch of relentless tech nerds aiming to grow ahead of digital trends. Having served businesses in 15+ domain verticals and 40+ business niches serving a wide array of audiences, we have delivered top organic positions and paid leverages through result-focused search marketing and digital branding services. We have been a service trusted by local businesses and inventive brands. A 95% target-achievement rate and 80% business retention figures define the crux of it.    Activity on InternshalaHiring since September 202313 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1206,24 +1206,24 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:24</t>
+          <t>2025-07-20 10:41:07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-nextjs-development-internship-at-aadi-foundation1752839954</t>
+          <t>https://internshala.com/internship/detail/search-engine-optimization-seo-internship-in-jaipur-at-jaipur-seo-company1752846589</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Company Secretary (CS)</t>
+          <t>Flutter Development</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Assisting with MCA-related tasks, including company incorporation, amendment of AOA/MOA, charge filing, and annual return and accounts filing2. Performing accounting work using accounting software3. Liaisoning with clients for documentation and compliance coordinationSkill(s) requiredAccountingEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-OfficeEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn TallyWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Number of openings        4                        About KNSG &amp; CO LLP                        The CA firm has 10 years of experience and works on all kinds of audit-related work, taxation work (income tax, GST, etc.), banking-related work like stock audits, and MCA-related work. We are offering the opportunity to work directly with CA Naman Singla (ex-KPMG) and CA Ripika Gupta (ex-ICICI) as a risk analyst.    Activity on InternshalaHiring since January 202316 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Develop secure, scalable, and high-performance mobile applications using modern frameworks and best practices2. Collaborate with backend developers and designers to integrate APIs and deliver seamless user experiences3. Support and mentor teammates by reviewing code, sharing knowledge, and assisting with mobile development challengesSkill(s) requiredDartFlutterEarn certifications in these skillsLearn Andoid App DevelopementLearn Android App DevelopmentLearn Git &amp; GithubWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Ahmedabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Candidates currently pursuing a degree in computer science, information technology, or related fields are preferred                                    2. Must possess a strong willingness to learn and adapt in a fast-paced environment                                    3. Basic understanding of programming concepts, mobile app development (Flutter/React Native/Android/iOS), and UI/UX principles is a plus                                    4. Good communication skills and the ability to work collaboratively in a team                                    5. A proactive attitude with a problem-solving mindset is highly desirable                                    6. Eagerness to take on challenges and contribute to real-world projects                PerksCertificate Letter of recommendation Informal dress code Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 4,000 - 7,000 /month                    Incentive pay: ₹ 1,000 - 3,000 /month                     Number of openings        3                        About Arhant Solutions                Website         Arhant Solutions is an IT services company based in Ahmedabad. We offer expert solutions tailored to meet your business needs with cutting-edge technology and dedicated support.    Activity on InternshalaHiring since December 20245 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1241,24 +1241,24 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:25</t>
+          <t>2025-07-20 10:41:08</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/company-secretary-cs-internship-in-delhi-at-knsg-co-llp1752824459</t>
+          <t>https://internshala.com/internship/detail/flutter-development-internship-in-ahmedabad-at-arhant-solutions1752899652</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Graphic Designer (Pharmaceuticals, Nutraceuticals, And Cosmetics)</t>
+          <t>Content Marketing</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>About the internship    As a graphic designer intern at ACTBLENDX INGREDIENTS PRIVATE LIMITED, you will have the opportunity to work on exciting projects and gain valuable hands-on experience in the field. We are looking for a talented individual who is proficient in Adobe Creative Suite, typography, layout design, UI &amp; UX design, logo design, color theory, digital design, and effective communication skills.Selected intern's day-to-day responsibilities include: 1. Collaborate with the design team to create visually appealing graphics for various marketing materials.2. Assist in the development of brand identity assets, including logos, color schemes, and typography.3. Design user-friendly interfaces for our website and digital platforms, focusing on enhancing the user experience.4. Utilize your knowledge of color theory to create eye-catching designs that resonate with our target audience.5. Ensure consistency in design across all platforms and materials, maintaining a cohesive brand image.6. Communicate effectively with team members to understand project requirements and deliver high-quality designs on time.7. Stay updated on industry trends and best practices to continuously improve your design skills and contribute fresh ideas to the team.Skill(s) requiredAdobe Creative SuiteColor TheoryDigital DesignEffective CommunicationLayout DesignLogo DesignTypographyUI &amp; UX DesignEarn certifications in these skillsLearn Adobe After EffectsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Adobe Premiere ProLearn FigmaLearn Rapid PrototypingLearn UI &amp; UX DesignLearn WireframingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Previous experience in healthcare, medical, or wellness writing                                    2. Knowledge of regulatory compliance in health/pharma content                                    3. Understanding of audience targeting and digital content best practices                PerksCertificate Letter of recommendation 5 days a weekNumber of openings        4                        About ACTBLENDX INGREDIENTS PRIVTE LIMITED                Website         ActBlendex Ingredients is a research-driven organization, empowering wellbeing through next generation nutritional innovation through supplying and manufacturing API's and ingredients for Pharmaceuticals, Nutraceuticals, Bakery, Dairy, Spices and Ani. With increasing education and awareness of preventive health, encouraging peoples to think differently about health and wellness, and creating momentum for nutraceuticals. It's our constant endeavor to research &amp; development for products and technologies to provide solutions for optimum health and healthy lifestyle.We at ActBlendex are focused on human wellness through supplements and functional foods. We have developed an entire product pipeline &amp; technologies to conquer the unmet health and market need using advanced nanotechnology and biotechnological process.    Activity on InternshalaHiring since November 201822 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Research &amp; trends: Conduct research on travel trends, destinations, and audience preferences to produce relevant and impactful content.2. Product content enhancement: Add engaging and persuasive content for our travel products, ensuring descriptions are compelling, informative, and aligned with our brand voice and marketing objectives.3. Content marketing: Assist in planning and implementing content marketing campaigns across digital platforms.4. SEO &amp; analytics: Learn and apply SEO best practices; monitor content performance and provide insights for optimization.5. Collaboration: Work closely with marketing, design, and product teams to ensure cohesive campaigns and messaging.6. Editing &amp; proofreading: Review and refine content to ensure accuracy, clarity, and consistency.Skill(s) requiredCreative WritingEffective CommunicationGoogle AdWordsMarketing Campaigns Search Engine Optimization (SEO)Earn certifications in these skillsLearn Creative WritingLearn Google AdWordsLearn SEOWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Other requirements                    1. Creative thinker with a passion for travel and digital storytelling.                                    2. Strong writing and communication skills in English.                                    3. Understanding of social media, digital marketing, and basic SEO principles.                                    4. Ability to research, analyze trends, and adapt content accordingly.                                    5. Team player with strong collaboration and organizational skills.                                    6. Currently pursuing or recently graduated in marketing, mass communication, Journalism, English, or related fields.                                    7. Familiarity with Google Workspace (Docs, Sheets) and basic knowledge of SEO is preferred.                                    8. Portfolio or writing samples showcasing your skills are a plus (optional but recommended).                PerksCertificateNumber of openings        1                        About Travel Lykke Private Limited                Website         We are a travel brand curating unique, experiential &amp; sustainable holidays for you. Our trips are not limited to usual travel arrangements. We design unique, immersive experiences that make their mark in your heart. We also believe in sustainable tourism. We try to make our trips as environmentally friendly as possible and engage local communities in the destinations. Other than the usual blah blah blah, we are a bunch of youngsters, insanely passionate about travel. We think of you as our future friends and not just customers.    Activity on InternshalaHiring since February 202527 opportunities posted13 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1276,24 +1276,24 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:25</t>
+          <t>2025-07-20 10:41:08</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/graphic-designer-pharmaceuticals-nutraceuticals-and-cosmetics-internship-in-gurgaon-at-actblendx-ingredients-privte-limited1752838781</t>
+          <t>https://internshala.com/internship/detail/content-marketing-internship-in-jaipur-at-travel-lykke-private-limited1752844515</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Human Resources (HR)</t>
+          <t>Business Development (Sales)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Manage the recruitment process from sourcing candidates to conducting interviews and making offers.2. Screen resumes and conduct initial phone screenings to ensure candidates meet job requirements.3. Handle payroll processing and ensure accuracy in payroll calculations.4. Conduct regular audits to ensure compliance with company policies and legal requirements.5. Develop and implement HR policies and procedures to streamline processes and improve efficiency.6. Coordinate training and development programs for employees to enhance their skills and knowledge.7. Provide guidance and support to employees on HR-related matters and foster a positive and inclusive work environment.Skill(s) requiredEffective CommunicationEnglish Proficiency (Spoken)English Proficiency (Written)Google WorkspaceInterpersonal skillsRecruitmentResume screeningEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn about RecruitmentWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 4 months                                    4. are from Delhi, Gurgaon, Greater Noida, Noida, Greater Noida West only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Strong communication skills (verbal and written) in English and Hindi.                                    2. Available to work full-time in-office for a minimum of 4 months.                PerksCertificate Letter of recommendation Informal dress code 5 days a week Free snacks &amp; beveragesNumber of openings        4                        About Swing Saga                Website         At Swing Saga, our range of products is curated to provide a one-stop shop for reasonably priced and unique home decor. Whether your preference is bohemian, chic, antique, or modern, we have the right thing for you. At the core of our philosophy is the combination of creativity and innovation to give you products that look beautiful and can stand the test of time, too. Whether it's our outdoor LED planters or handcrafted bed swings, we use high-quality materials to ensure a sumptuous yet sturdy design. We wish to give you the best of both worlds because your home deserves nothing less. Our women-led venture is an effort to bring you great ecological products at affordable prices, backed by great customer service. Every day, we strive to create long, trustworthy relationships. As your home evolves with you, we promise we'll continue to bring you exquisite decor that you will love. We hope you find a little bit of yourself in our humble store.    Activity on InternshalaHiring since April 202346 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities:1. Generate leads and prospect potential clients2. Provide support to the sales team in daily operations3. Conduct market and competitor research to identify opportunities4. Interact with customers to understand their needs and build relationships5. Gain a thorough understanding of the product and its value propositionSkill(s) requiredE-commerceEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Palghar, Thane, Navi Mumbai, Mumbai only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress code Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 240000 to 300000/year Number of openings        2                        About Vamaship                Website         Vamaship is a tech-driven logistics aggregator that empowers e-commerce sellers across India. By partnering with leading courier services like BlueDart and Delhivery, Vamaship streamlines shipping through real-time tracking, delivery &amp; returns management, COD management, and timely communication at critical milestones. As an intern, you'll gain hands-on experience in a dynamic environment, learning about cutting-edge supply chain technology while helping create seamless shipping solutions for growing online businesses.    Activity on InternshalaHiring since July 20253 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1311,12 +1311,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:26</t>
+          <t>2025-07-20 10:41:09</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-multiple-locations-at-swing-saga1752835821</t>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-multiple-locations-at-vamaship1752924797</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:27</t>
+          <t>2025-07-20 10:41:09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1358,12 +1358,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Video Editor/Maker (Pharmaceuticals, Nutraceuticals, And Cosmetics)</t>
+          <t>Front End Development</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>About the internship    As a Video Editing/Making intern at ACTBLENDX INGREDIENTS PRIVATE LIMITED, you will have the exciting opportunity to showcase your skills in Adobe Premiere Pro, After Effects, Canva, Final Cut Pro, Photoshop, Illustrator, and motion graphics. You will be an integral part of our creative team, bringing our brand to life through visually compelling videos. Selected intern's day-to-day responsibilities include: 1. Collaborate with the marketing team to create engaging video content for social media, website, and other platforms.2. Edit and enhance raw footage to produce high-quality videos that align with the company's brand and message.3. Incorporate motion graphics and animation to elevate the visual appeal of our videos.4. Brainstorm and pitch creative ideas for video projects that will resonate with our target audience.5. Maintain a keen eye for detail, ensuring all videos are polished and error-free before publication.6. Stay up-to-date on industry trends and best practices to continually improve your video editing skills.7. Assist with other creative projects as needed to support the overall marketing efforts of the company. This internship will provide you with hands-on experience in video production and editing, valuable skills that will set you up for success in the fast-paced world of digital marketing. Join us in bringing our brand to the next level through the power of visual storytelling.Skill(s) requiredAdobe After EffectsAdobe IllustratorAdobe PhotoshopAdobe Premiere ProCanvaFinal Cut ProMotion GraphicsPerplexityVideo EditingVideo MakingEarn certifications in these skillsLearn Adobe After EffectsLearn Adobe PhotoshopLearn Adobe Premiere ProLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Previous experience in healthcare, medical, or wellness.                                    2. Knowledge of regulatory compliance in health/pharma content and video editing/making.                                    3. Understanding of audience targeting and digital content best practices                                    4. Opportunity for a full-time position based on performance, creativity, and initiative                PerksCertificate Letter of recommendation 5 days a weekNumber of openings        4                        About ACTBLENDX INGREDIENTS PRIVTE LIMITED                Website         ActBlendex Ingredients is a research-driven organization, empowering wellbeing through next generation nutritional innovation through supplying and manufacturing API's and ingredients for Pharmaceuticals, Nutraceuticals, Bakery, Dairy, Spices and Ani. With increasing education and awareness of preventive health, encouraging peoples to think differently about health and wellness, and creating momentum for nutraceuticals. It's our constant endeavor to research &amp; development for products and technologies to provide solutions for optimum health and healthy lifestyle.We at ActBlendex are focused on human wellness through supplements and functional foods. We have developed an entire product pipeline &amp; technologies to conquer the unmet health and market need using advanced nanotechnology and biotechnological process.    Activity on InternshalaHiring since November 201822 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1.Ensuring the technical feasibility of UI/UX designs and optimizing applications for speed and scalability2.Debugging and resolving frontend issues and browser compatibility problems3.Developing user-facing features using HTML, CSS, JavaScript, and modern frameworks like React.js or Vue.jsSkill(s) requiredCSSHTMLJavaScriptNext.jsReactEarn certifications in these skillsLearn AngularLearn CSSLearn HTMLLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn Node.JSLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 360000/year Number of openings        2                        About Gurucool                Instagram page         Gurucool is an online platform for astrology and Kundli predictions from the best astrologers in India. Users can talk to astrologers on call or live chat. They can also opt for a complete annual astrological report or post a question on astrology. Astrology questions could be on any subject, from marriage and love life to career or health.    Activity on InternshalaHiring since April 2019751 opportunities posted90 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1381,24 +1381,24 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:27</t>
+          <t>2025-07-20 10:41:10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/video-editor-maker-pharmaceuticals-nutraceuticals-and-cosmetics-internship-in-gurgaon-at-actblendx-ingredients-privte-limited1752838409</t>
+          <t>https://internshala.com/internship/detail/front-end-development-internship-in-jaipur-at-gurucool1752902543</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sales and Marketing</t>
+          <t>Company Secretary (CS)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Identify suitable leads using portals and online data sources2. Call leads to explain the product and schedule a demo3. Maintain the log of sales leads and status reportsSkill(s) requiredEffective CommunicationEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Pune only                                    5. have relevant skills and interests                    Other requirements                    1. MBA in Sales and marketing                PerksCertificate Letter of recommendation Informal dress code Job offerAdditional informationStipend Structure:Fixed pay: ₹ 10,000 - 10,001 /month                    Incentive pay: ₹ 5,000 - 20,000 /month                     Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 300000/year Number of openings        2                        About Quantian Technologies Private Limited                        We help small &amp; medium companies leverage the power of emerging digital technologies to enable a non-linear growth trajectory. Services include digital onboarding via high-performance and visually appealing websites, light &amp; progressive web applications, hybrid and cross-platform mobile applications, AI/ML utilities, IoT solutions, and more.     Activity on InternshalaHiring since April 202117 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Assisting with MCA-related tasks, including company incorporation, amendment of AOA/MOA, charge filing, and annual return and accounts filing2. Performing accounting work using accounting software3. Liaisoning with clients for documentation and compliance coordinationSkill(s) requiredAccountingEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-OfficeEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn TallyWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Number of openings        4                        About KNSG &amp; CO LLP                        The CA firm has 10 years of experience and works on all kinds of audit-related work, taxation work (income tax, GST, etc.), banking-related work like stock audits, and MCA-related work. We are offering the opportunity to work directly with CA Naman Singla (ex-KPMG) and CA Ripika Gupta (ex-ICICI) as a risk analyst.    Activity on InternshalaHiring since January 202316 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1416,24 +1416,24 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:28</t>
+          <t>2025-07-20 10:41:11</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/sales-and-marketing-internship-in-pune-at-quantian-technologies-private-limited1752826302</t>
+          <t>https://internshala.com/internship/detail/company-secretary-cs-internship-in-delhi-at-knsg-co-llp1752824459</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Telecalling (Tamil, Telugu, English &amp; Hindi)-Female</t>
+          <t>Business Development (Sales)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include making 150+ connected calls daily, diligently following up with prospects, and ensuring effective communication to maximize conversions and project success.Skill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)Hindi Proficiency (Spoken)Hindi Proficiency (Written)MarketingSalesTamil Proficiency (Spoken)Tamil Proficiency (Written)Telugu Proficiency (Spoken)Telugu Proficiency (Written)Earn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Fluency in Hindi, English, and regional languages (Tamil &amp; Telugu) is necessary.                                    2. Applications from female candidates are encouraged.                                    3. Access to a laptop and an Android mobile phone is required.                                    4. The ability to follow up and close leads is essential.                PerksCertificate Letter of recommendationNumber of openings        10                        About Lead Mines Media                        We're the leading and quickest-growing digital marketing agency in Mumbai. We offer SMM, web designing, lead generation, SEO, tele-calling, PR, e-commerce seller account handling, and many other online services. We're not just another aspiring digital marketing company but a company that offers many services, starting from the very basics like web page styling and web development to innovative and complex development and jobs like SEO, digital marketing, and other marketing alternatives.    Activity on InternshalaHiring since May 20211654 opportunities posted2 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities: 1. Research and identify potential colleges and institutions for program partnerships2. Approach college principals, HODs, and management to present Tutorac's offerings3. Conduct in-person or virtual meetings to pitch the Career Advancement Program4. Clearly explain program benefits and address any questions/objections from college management5. Get approvals and assist in signing MoUs and onboarding colleges6. Coordinate with Tutorac's central team for seminar scheduling and student engagement activities7. Maintain a database of colleges approached and prepare weekly progress reportsSkill(s) requiredBusiness DevelopmentClient RelationshipComputer skillsEnglish Proficiency (Spoken)English Proficiency (Written)MarketingSalesTelugu Proficiency (Spoken)Web developmentEarn certifications in these skillsLearn BootstrapLearn Business CommunicationLearn CSSLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn HTMLLearn MS-ExcelLearn PHPLearn Search Engine MarketingLearn SEOLearn Social Media MarketingLearn AngularJSLearn AngularLearn Node.JSLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    Other requirements                    1. Demonstrate excellent communication and persuasion skills in English and regional languages                                    2. Exhibit confidence while speaking to senior decision-makers like principals or directors                                    3. Show enthusiasm for career counseling, EdTech, and student empowerment                                    4. Display willingness to travel locally for college visits                                    5. Maintain self-motivation, target orientation, and eagerness to learn                PerksCertificate Letter of recommendation Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 480000/year Number of openings        4                        About Request IT Support                Website         Request IT Support is a national mid-sized consulting firm positioned between the small boutiques and the big six   big enough for great opportunities and small enough for your accomplishments to be noticed and recognized. We specialize in delivering superior-quality consulting and staffing solutions to our client partners, enabling them to compete in today's competitive and dynamic business environment.     Activity on InternshalaHiring since August 2024138 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1451,24 +1451,24 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:28</t>
+          <t>2025-07-20 10:41:11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-telecalling-tamil-telugu-english-hindi-female-internship-at-lead-mines-media1752828523</t>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-request-it-support1752898271</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Business Development (Sales)</t>
+          <t>Social Media Assistance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1.  Handle *inbound &amp; outbound calls* to engage potential clients.    2.  Guide candidates through *technical counseling* for training programs.    3.  Provide information on IT courses and career paths.    4.  Build and maintain strong client relationships.    5.  Maintain accurate records of client interactions and follow-ups.    6.  Work closely with the sales and training teams for seamless operations.     Requirements:  1. MBA pass-out (Freshers can apply).    2. Strong *communication &amp; persuasion skills*.    3. Ability to manage client queries professionally.    4. Self-motivated and results-driven mindset.    Skill(s) requiredClient Relationship Management (CRM)Cold CallingEnglish Proficiency (Spoken)English Proficiency (Written)Inside SalesMS-ExcelEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Bangalore only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    MBA Marketing looking for the Internship                                    Women candidates need to restart your career can also apply                PerksCertificate Job offerAdditional informationStipend Structure:Fixed pay: ₹ 5,000 - 8,000 /month                    Incentive pay: ₹ 5,000 - 10,000 /month                     Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 400000/year Number of openings        5                        About RADICAL TECHNOLOGIES                Website         Radical Technologies has been a recognized leader in training administrative and software development courses since 1995, empowering IT professionals with a competitive edge to tap into job opportunities in the IT sector. Dedicated to simplifying technology trends, Radical Technologies excels with its robust R&amp;D division.    Activity on InternshalaHiring since May 20189 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Post daily stories to engage the audience2. Publish content on the grid every day3. Brainstorm and create fresh, engaging content4. Edit videos to enhance quality and impactSkill(s) requiredCanvaEffective CommunicationVideo MakingEarn certifications in these skillsLearn Adobe Premiere ProLearn Video EditingLearn Creative WritingLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 3 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Someone who loves posting on social media                                    2. Someone who understands how social media works and audience preferences                                    3. Someone who understands Instagram and how to work the algorithm                PerksCertificate Letter of recommendationNumber of openings        1                        About The Mould Story                Website         We are a D2C brand that sells silicone molds to artists and creators. Our e-commerce website is www.themouldstory.com. Our goal is to help our customers grow their businesses by creating wonderful products that appeal to a range of customers. Our company is only 2 years old but leads the way in the manufacture and supply of quality molds for resin art, and our range is soon going to expand to other mediums as well.     Activity on InternshalaHiring since August 202324 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1486,24 +1486,24 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:29</t>
+          <t>2025-07-20 10:41:12</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-bangalore-at-radical-technologies1752828696</t>
+          <t>https://internshala.com/internship/detail/social-media-assistance-internship-in-mumbai-at-the-mould-story1752925393</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Customer Support Specialist</t>
+          <t>UI/UX Design</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>About the internship    Customer support specialist intern at DoubleTick requires a unique blend of technical expertise, communication skills, and customer service abilities. Moreover, you must have an ownership mindset, a sense of pride in solving complex problems for our customers, owning up to the customer problems as if they were your own, and bringing a smile to our customer's faces at the end of the day. Selected intern's day-to-day responsibilities include:1. Strong understanding of SaaS products- its features, functionalities, and integrations ecosystem.2. Proficiency in troubleshooting technical issues related to DoubleTick, including but not limited to bugs, errors, and user interface problems.3. Excellent communication skills, both written and verbal, to interact effectively with customers. This includes active listening, empathy, and clarity in explanations.4. Patience and the ability to remain calm and composed, especially when dealing with frustrated or upset customers.  5. Strong problem-solving skills and analytical ability to address customer concerns and find appropriate solutions promptly.  6. Continuous hunger to learn and stay updated on the product's latest features, updates, and enhancements.7. Ability to articulate complex automation and workflow concepts in a simple and understandable manner to customers of varying technical backgrounds.8. Ability to collaborate with cross-functional teams such as product development, sales, and marketing to provide comprehensive support to customers.9. Sharing insights and feedback gathered from customer interactions to contribute to product improvement and enhancement.10. Ability to manage multiple customer inquiries simultaneously while ensuring timely responses and resolutions.11. Prioritizing tasks based on urgency and impact on customer satisfaction.12. Being adaptable to evolving processes, technologies, and customer needs in a fast-paced SaaS environment.13. Resilience in handling high-pressure situations and maintaining a positive attitude even during challenging times.14. Attention to detail in documenting customer issues, resolutions, and any follow-up actions taken.15. Conducting testing and replication of reported issues to verify resolutions and prevent recurrence.16. Proficiency in utilizing available tools to achieve high efficiency and timely responses to customers.Note - This internship does not come with a guaranteed PPO; conversion to a full-time role will be based on performance during the internship.Skill(s) requiredEffective CommunicationProblem SolvingTechnical SupportTroubleshootingEarn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    -B.Tech / B.E. (Any specialization, especially Computer Science, IT, Electronics)                                    -B.Sc / M.Sc (Computer Science, IT, or related fields)                                    -BCA / MCA                                    -BBA / MBA (preferably with a specialization in Marketing, IT, or Operations)                                    -B.Com / M.Com (for candidates with strong communication and customer-facing skills)                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        10                        About Apport Software Solutions Private Limited                        Apport Software Solutions Private Limited is a dynamic and innovative SAAS-based product company offering conversational commerce and empowering global brands with scalable personal commerce and relationship-led sales on WhatsApp.  QuickSell is a sales acceleration commerce suite started in 2017 with the vision to empower businesses to translate conversations into conversions on customer-first channels like WhatsApp through assisted personal commerce. For more details, check out our website: https://quicksell.co/DoubleClick is a mobile-first conversational CRM built on top of WhatsApp     Business API to unlock WhatsApp's marketing and sales capabilities. It offers top-notch features, including a central team inbox, bulk broadcasting, and analytics, a bot studio, commerce and cataloging, chatbots, and role-based access. For more details, check out our website: https://doubletick.io/    Activity on InternshalaHiring since April 202455 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Co-create user flows and interfaces for real entertainment products, web experiences, and story-first platforms2. Assist with wireframing, prototyping, and interaction design in Figma (and beyond)3. Help shape gamified UX concepts that mix storytelling, animation, and feedback loops4. Collaborate with storytellers, strategists, devs, and weird creatives to bring new digital formats to life5. Research player psychology, web mechanics, and the fine line between joy and rage-quit6. Bring structure to creative chaos     and chaos to creative structureSkill(s) requiredCreative ThinkingDesign ThinkingTechnical AnalysisTime ManagementUI &amp; UX DesignEarn certifications in these skillsLearn FigmaLearn Rapid PrototypingLearn UI &amp; UX DesignLearn WireframingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Are graduating in 2025 or 2026 (design school, bootcamp, or self-taught — we care about your mindset, not your certificate)                                    2. Are fluent in UI/UX building tools                                    3. Are excited about interactive storytelling, user behavior, and playful design thinking                PerksCertificate Letter of recommendation Informal dress code Free snacks &amp; beveragesNumber of openings        3                        About OI Communications                        Opinion Incubator (OI) is not a production house. It's a beautifully weaponized idea factory. Born from the mischievous minds behind Red Ice Films, OI marries award-winning storytelling with devilishly precise production craft. We don't chase trends, we seduce them. In a world drowning in content, we create stories that slap, sting, and stay. We don't just make shows; we stage revolutions, irresistible frames at a time.    Activity on InternshalaHiring since July 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1521,24 +1521,24 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:30</t>
+          <t>2025-07-20 10:41:12</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/customer-support-specialist-internship-in-mumbai-at-apport-software-solutions-private-limited1752826851</t>
+          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-mumbai-at-oi-communications1752919460</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Business Development (Sales)</t>
+          <t>Industrial And Production Engineering</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Identify and engage potential customers through proactive outreach methods,2. Provided tailored information about our products and services to support their decision-making process.3. Address and resolve any objections to achieve sales and secure successful outcomes.4. Oversee and manage sales pipelines and CRM systems to monitor and track leads, and opportunities.Qualifications:1. Bachelor's degree in business administration, marketing, or related field preferred.2. Strong communication and interpersonal skills.3. Ability to engage effectively with diverse audiences.4. Excellent negotiation abilities.5. Stock market knowledge is a plus.Skill(s) requiredClient RelationshipEmail MarketingEnglish Proficiency (Spoken)English Proficiency (Written)SalesEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Bangalore only                                    5. have relevant skills and interests                    PerksCertificate Flexible work hours Informal dress code 5 days a week Free snacks &amp; beverages Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 360000/year Number of openings        2                        About Trade Brains                Website         Trade Brains is a financial website helping readers learn the art of stock investing, trading, portfolio management, financial planning, money management, and more. At FinGrad (an initiative by Trade Brains), we offer the best online courses, webinars, and resources from various top experts who have real skin in the financial game. FinGrad has been built in the mind to deliver end-to-end financial education at our best standard to our novice investors &amp; traders.    Activity on InternshalaHiring since March 2018545 opportunities posted69 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Learn the manufacturing setup2. Work on production management and planning3. Work on research and development activitiesSkill(s) requiredIndustrial automationMechanical &amp; Electrical Product DesignEarn certifications in these skillsLearn CATIALearn Industrial Automation using PLCSolidWorksWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 3 months                                    4. are from Ujjain only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About Rock Engines Private Limited                        Rock Engines Private Limited is a pioneer in the manufacturing of quick oil chamber clean machines and a leading supplier to PSUs, PAN India.     Activity on InternshalaHiring since March 20216 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1556,12 +1556,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:30</t>
+          <t>2025-07-20 10:41:13</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-bangalore-at-trade-brains1752826094</t>
+          <t>https://internshala.com/internship/detail/industrial-and-production-engineering-internship-in-ujjain-at-rock-engines-private-limited1752747981</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1618,7 +1618,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1649,7 +1649,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1680,7 +1680,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1711,7 +1711,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1742,7 +1742,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1773,7 +1773,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1804,7 +1804,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1835,7 +1835,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1866,7 +1866,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1897,7 +1897,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1928,7 +1928,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1959,7 +1959,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -1990,7 +1990,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-07-18 15:28:45</t>
+          <t>2025-07-20 10:41:26</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2048,7 +2048,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:00</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2075,7 +2075,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:00</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2102,7 +2102,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:00</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2129,7 +2129,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:00</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2156,7 +2156,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:00</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2183,7 +2183,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2210,7 +2210,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2237,7 +2237,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2264,7 +2264,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2291,7 +2291,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2322,7 +2322,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2353,7 +2353,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2384,7 +2384,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2446,7 +2446,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-07-18 15:29:01</t>
+          <t>2025-07-20 10:41:40</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">

--- a/internships.xlsx
+++ b/internships.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Admission Counsellor (Female)</t>
+          <t>Business Analysis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>About the internship    We are hiring a telecaller intern (female candidate) who can join immediately.Selected intern's day-to-day responsibilities include:1. Interact with students telephonically &amp; convert leads into admissions. 2. Offer MBBS abroad admission services to the students/parents 3. Set appointments for students for office visits or Zoom meetings.Skill(s) requiredEffective CommunicationSalesEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 5th Jul'25 and 9th Aug'25                                    3. are available for duration of 2 months                                    4. are from Pune only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Should have a passion to grow &amp; progress in life.                                    2. Aggressive in approach.                                    3. Good communication in Marathi must.                PerksCertificate Letter of recommendation Informal dress codeAdditional informationStipend Structure:Fixed pay: ₹ 7,000 - 10,000 /month                    Incentive pay: ₹ 200 - 1,000 /month                     Number of openings        2                        About Bright EduWorld                Website         We are a medical e-learning company mentoring medical students &amp; optimizing their abilities, approach, and mindset.    Activity on InternshalaHiring since September 20238 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Connect with the leads/clients. Gather the requirements from the Client and Create a detailed business analysis, abstract the problems, opportunities, and solutions for a business.2. Gather the requirements from the Client and Implement competitive analysis for clients to identify both offensive and defensive opportunities within the industry and thereby develop a sound strategy to enhance growth3. Capture the opportunities while dealing with threats in any sized market space4. Analyze and translate the client's requirements distinctly5. Stay updated with the latest processes and trends in the market6. Conduct meetings and presentations to share ideas and findings with the stakeholders7. Gather critical information to produce useful reports through these meetings8. Allocate resources and maintain cost efficiencyRequirements:1. Good communication, interpersonal skills, and confidence2. Strong decision-making skills3. Able to comprehend an organization's goals and problems and come up with the most suited solutionSkill(s) requiredBusiness AnalysisBusiness ResearchDigital MarketingEmail MarketingSocial Media MarketingUser Interface (UI) DevelopmentWindows Mobile Application DevelopmentEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 11th Jul'25 and 15th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours Job offerAdditional informationStipend Structure:Fixed pay: ₹ 2,500 - 10,000 /month                    Incentive pay: ₹ 100 - 2,500 /month                     Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 400000 to 700000/year Number of openings        10                        About Across The Globe (ATG)                        Across The Globe (ATG) connects students and professionals worldwide. We are a startup based in Bangalore and aim to assist individuals in excelling in their careers, professional endeavors, and personal lives. We have a product that meets the current demand and is valued at a billion dollars. It has the potential to benefit millions by enhancing career opportunities, providing direction, and building networks for those in need.    Activity on InternshalaHiring since January 20163479 opportunities posted783 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,24 +506,24 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:52</t>
+          <t>2025-07-22 11:20:12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/telecaller-female-internship-in-pune-at-bright-eduworld1751749920</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-business-analysis-internship-at-across-the-globe-atg1752251275</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Human Resource</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>About the internship    Selected interns day-to-day responsibilities:1. Conducting sourcing activities for open positions2. Involving in recruitment and selection processes (resume screening, screening calls, interviews, etc.)3. Making SOPs and policies4. Conducting onboarding and exit process5. Handling payroll using HRIS software6. Handling other HR-related jobs assigned from time to timeSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-WordOperationsRecruitmentEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn about RecruitmentWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 8th Jul'25 and 12th Aug'25                                    3. are available for duration of 4 months                                    4. are from Gandhinagar only                                    5. have relevant skills and interests                    PerksLetter of recommendation Flexible work hours 5 days a weekNumber of openings        1                        About Get Structured Consulting Services OPC Private Limited                Website         We are a one-stop solution for all the HR needs of new-age startups. At GetStructured, our mission is to empower businesses to achieve their full potential by providing expert human resources support and guidance. We believe that a strong HR function is essential to the success of any organization, and we are dedicated to helping our clients build and maintain a high-performing, engaged, and effective workforce.    Activity on InternshalaHiring since June 202322 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Are you a digital marketing enthusiast with a passion for SEM, SEO, Instagram, Facebook, and social media marketing? Join us at Across The Globe (ATG) as a Digital Marketing intern, where you'll have the opportunity to sharpen your skills and make a real impact on our global campaigns. Key Responsibilities:1. Collaborate with the marketing team to create and implement SEM strategies to drive website traffic and conversions.2. Optimize website content and metadata for SEO to improve search engine rankings and visibility.3. Create engaging Reels and UGC-style content for Instagram, TikTok, and other platforms4. Support social media advertising campaigns on Meta (Facebook &amp; Instagram) and YouTube5. Assist in SEO tasks such as keyword research, on-page optimization, and performance analysis6. Coordinate and track marketing projects, ensuring timelines and deliverables are met7. Collaborate with content, design, and ad teams for campaign execution8. Monitor campaign results and contribute to performance reports with actionable insightsSkill(s) requiredDigital MarketingEnglish Proficiency (Spoken)English Proficiency (Written)Facebook MarketingInstagram MarketingSearch Engine Marketing (SEM)Search Engine Optimization (SEO)Social Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 14th Jul'25 and 18th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Flexible work hoursNumber of openings        5                        About Across The Globe (ATG)                        Across The Globe (ATG) connects students and professionals worldwide. We are a startup based in Bangalore and aim to assist individuals in excelling in their careers, professional endeavors, and personal lives. We have a product that meets the current demand and is valued at a billion dollars. It has the potential to benefit millions by enhancing career opportunities, providing direction, and building networks for those in need.    Activity on InternshalaHiring since January 20163479 opportunities posted783 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -541,24 +541,24 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:53</t>
+          <t>2025-07-22 11:20:13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/human-resource-internship-in-gandhinagar-at-get-structured-consulting-services-opc-private-limited1751975462</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-digital-marketing-internship-at-across-the-globe-atg1752515054</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Videography</t>
+          <t>International Customer Service: The Coolest Weekend Internship</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>About the internship    As a Videography at The Trading Fox, you will have the exciting opportunity to showcase your skills in video making, videography, and photography. You will work closely with our team to create captivating visual content for our brand. 1.  Capture high-quality video footage for promotional videos and social media content.2. Enhance video content to ensure a polished final product.3. Help set up and operate equipment for video shoots, including cameras, lighting, and audio.4. Manage and organize video files and footage to maintain a streamlined workflow.5. Stay up-to-date on industry trends and best practices to bring fresh ideas to our projects.Join us at The Trading Fox and help us bring our brand to life through the power of video.Skill(s) requiredPhotographyVideographyVideo MakingEarn certifications in these skillsLearn Adobe Premiere ProLearn PhotographyLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 2 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About The Trading Fox                        Trading Fox PVT. LTD. is a premier trading and finance firm dedicated to empowering clients through strategic investment solutions and expert financial guidance. We specialize in a wide range of services, including equities, commodities, forex, and derivatives trading, tailored to meet the diverse needs of individual investors and institutional clients alike.Our team of seasoned professionals leverages advanced analytics and market insights to identify lucrative opportunities and mitigate risks. We pride ourselves on our commitment to transparency, integrity, and personalized service, ensuring that our clients are well-informed and equipped to make confident financial decisions.At Trading Fox, we strive to foster long-term relationships built on trust and performance, helping our clients navigate the complexities of the financial markets to achieve their financial goals.    Activity on InternshalaHiring since October 2024108 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    The coolest weekend internship is here!Get a chance to work with one of the most iconic brands, interact with international customers, and earn a prestigious certificate and a stipend of    13,000/- that turns heads. And yes, free food, snacks, and beverages too!All of this in a 8-day weekend internship as per the following schedule:Onboarding &amp; training (can be in any shift - day shift or the evening shift): 1. 28th July/13th August (Mon - Friday, onboarding)2. 17th August (Sun, training)3. 24th August (Sun, training)3. 30th &amp; 31st August (Sat &amp; Sun, training)Production i.e. actual working (night shift):1. 7th September (Sun)2. 14th September(Sun)3. 21st September (Sun)What will you do in the internship: 1. Provide excellent customer service over the phone.2. Adhere to program-defined quality standards.3. Stay informed about the latest information and updates.4. Perform tasks related to voice profiles.Since the internship requires interacting with international clients, you must possess excellent English-speaking skills. You must be comfortable with either the day shift or the evening shift on the training and onboarding dates and night shifts (only) on the production dates. Also, you would need to clear the training to proceed further with the production phase.The internship location would be in Bangalore. Please apply to this internship ONLY if you are available on the above dates and shifts and can arrange for your own transport to the office. Other than the stipend, no cab allowance would be provided. Free food/snacks and beverages would be available during cafeteria operating hours.Skill(s) requiredClient RelationshipEffective CommunicationEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 16th Jul'25 and 20th Aug'25                                    3. are available for duration of 1 week                                    4. are from Bangalore only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Graduate/Undergraduate.                                    2. Fresher/Experienced (any experience).                                    3. Should be comfortable working rotational day and night shifts on weekends.                                    4. Should be able to commute on their own.                PerksCertificate Free snacks &amp; beveragesAdditional information                The selection process would consist of 2 steps:1. Online application on Internshala 2. Face-to-face in-office assessment and interview for shortlisted candidates                Number of openings        130                        About Concentrix                Website         Concentrix Corporation (NASDAQ: CNXC), a Fortune 500 company, is the global technology and services leader that powers the world's best brands with their human-centered, tech-powered, intelligence-fueled approach. Every day, they help over 2,000 of the world's best brands across 70+ global markets . They design, build, and run fully integrated, end-to-end solutions at speed and scale across the entire enterprise, designing game-changing brand experiences, building, and scaling secure AI technologies, or running digital operations that deliver global consistency with a local touch.    Activity on InternshalaHiring since July 20248 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,24 +576,24 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:54</t>
+          <t>2025-07-22 11:20:14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/videography-internship-in-jaipur-at-the-trading-fox1752734340</t>
+          <t>https://internshala.com/internship/detail/international-customer-service-the-coolest-weekend-internship-internship-in-bangalore-at-concentrix1752652254</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Field Sales</t>
+          <t>International Customer Service: The Coolest Weekend Internship</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>About the internship    As a field &amp; sales marketing intern, you'll work closely with the marketing and operations team to promote the mission and products through grassroots outreach, retail engagement, and local campaign activities. This role is ideal for students passionate about sustainability, marketing, and rural development.Selected intern's day-to-day responsibilities include: 1. Assist in field sales drives, including product demos at local shops, events, or stalls2. Help execute local marketing campaigns (flyers, WhatsApp promotions, on-ground surveys)3. Support the onboarding of local retailers, organic stores, and individual customers4. Engage with customers and collect feedback on products like A2 milk, ghee, and soaps5. Represent the brand at community events, farmers' markets, or exhibitions6. Maintain daily records of outreach, leads, and customer interactions7. Coordinate with internal teams for delivery, packaging, and logistics trackingIdeal candidate:1. Education: pursuing/recently completed a degree in marketing, agriculture, rural management, or social work2. Skills: strong communication (Marathi/Hindi preferred), people skills, and willingness to travel locally3. Passionate about sustainability, animal welfare, and social impact4. Self-driven, eager to learn, and comfortable with on-ground activitiesWhat you'll learn:1. Grassroots marketing strategy and execution2. Sales techniques and customer engagement in real-world settings3. Insight into rural livelihood, sustainable agriculture, and indigenous dairy practices4. Exposure to a mission-driven start-up environment with real social impactSkill(s) requiredEffective CommunicationEmail MarketingEnglish Proficiency (Spoken)Hindi Proficiency (Spoken)Interpersonal skillsMS-OfficeEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 2nd Jul'25 and 6th Aug'25                                    3. are available for duration of 4 months                                    4. are from Pune only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendationAdditional informationStipend Structure:Fixed pay: ₹ 10,000 - 12,000 /month                    Incentive pay: ₹ 2,000 /month                     Number of openings        5                        About SOLARTS                        We are into health awareness and consultancy on disease control and cures. We offer one of the best organic health products in India and our company is a pure organic ayurvedic medicine based company.    Activity on InternshalaHiring since October 20182 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    The coolest weekend internship is here!Get a chance to work with one of the most iconic brands, interact with international customers, and earn a prestigious certificate and a stipend of    13,000/- that turns heads. And yes, free food, snacks, and beverages too!All of this in a 8-day weekend internship as per the following schedule:Onboarding &amp; training (can be in any shift - day shift or the evening shift): 1. 28th July /13th August (Mon - Fri, onboarding)2. 17th August (Sun, training)3. 24th  August (Sun, training)4. 30th &amp; 31st August (Sat &amp; Sun, training)Production i.e. actual working (night shift):1. 7th September (Sun)2. 14th September(Sun)3. 21st September (Sun)What will you do in the internship: 1. Provide excellent customer service over the phone.2. Adhere to program-defined quality standards.3. Stay informed about the latest information and updates.4. Perform tasks related to voice profiles.Since the internship requires interacting with international clients, you must possess excellent English-speaking skills. You must be comfortable with either the day shift or the evening shift on the training and onboarding dates and night shifts (only) on the production dates. Also, you would need to clear the training to proceed further with the production phase.The internship location would be in Hyderabad. Please apply to this internship ONLY if you are available on the above dates and shifts and can arrange for your own transport to the office. Other than the stipend, no cab allowance would be provided. Free food/snacks and beverages would be available during cafeteria operating hours.Skill(s) requiredClient RelationshipEffective CommunicationEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 16th Jul'25 and 20th Aug'25                                    3. are available for duration of 1 week                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Graduate/Undergraduate.                                    2. Fresher/Experienced (any experience).                                    3. Should be comfortable working rotational day and night shifts on weekends.                                    4. Should be able to commute on their own.                PerksCertificate Free snacks &amp; beveragesAdditional information                The selection process would consist of 2 steps:1. Online application on Internshala 2. Face-to-face in-office assessment and interview for the shortlisted candidates                Number of openings        50                        About Concentrix                Website         Concentrix Corporation (NASDAQ: CNXC), a Fortune 500 company, is the global technology and services leader that powers the world's best brands with their human-centered, tech-powered, intelligence-fueled approach. Every day, they help over 2,000 of the world's best brands across 70+ global markets . They design, build, and run fully integrated, end-to-end solutions at speed and scale across the entire enterprise, designing game-changing brand experiences, building, and scaling secure AI technologies, or running digital operations that deliver global consistency with a local touch.    Activity on InternshalaHiring since July 20248 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,24 +611,24 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:55</t>
+          <t>2025-07-22 11:20:15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/field-sales-internship-in-pune-at-solarts1751444830</t>
+          <t>https://internshala.com/internship/detail/international-customer-service-the-coolest-weekend-internship-internship-in-hyderabad-at-concentrix1752652388</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Video Animator</t>
+          <t>International Customer Service: The Coolest Weekend Internship</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Bring creative vision to life: Use storytelling skills to create engaging animations2. Master animation tools: Work with Adobe After Effects, Premiere Pro, Illustrator, Photoshop, or equivalent software3. Ensure high-quality output: Deliver polished and detail-oriented animations4. Collaborate effectively: Communicate well with cross-functional teams to align on project goalsSkill(s) requiredAdobe After EffectsAdobe AnimateAdobe Creative SuiteAdobe IllustratorAdobe PhotoshopFigmaEarn certifications in these skillsLearn Adobe After EffectsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Adobe Premiere ProLearn FigmaWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 5th Jul'25 and 9th Aug'25                                    3. are available for duration of 3 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Other requirements                    1. Educational background: Currently enrolled in or recently graduated from animation, visual arts, multimedia design, or related programs                                    2. Technical knowledge: A basic understanding of video editing tools and techniques is preferred                                    3. Portfolio: Samples of previous animation work (optional but recommended)                                    4. Experience: Prior experience in related fields is a plus                PerksCertificateNumber of openings        1                        About Travel Lykke Private Limited                Website         We are a travel brand curating unique, experiential &amp; sustainable holidays for you. Our trips are not limited to usual travel arrangements. We design unique, immersive experiences that make their mark in your heart. We also believe in sustainable tourism. We try to make our trips as environmentally friendly as possible and engage local communities in the destinations. Other than the usual blah blah blah, we are a bunch of youngsters, insanely passionate about travel. We think of you as our future friends and not just customers.    Activity on InternshalaHiring since February 202527 opportunities posted13 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    The coolest weekend internship is here!Get a chance to work with one of the most iconic brands, interact with international customers, and earn a prestigious certificate and a stipend of    13,000/- that turns heads. And yes, free food, snacks, and beverages too!All of this in a 8-day weekend internship as per the following schedule:Onboarding &amp; training (can be in any shift - day shift or the evening shift): 1. 28th July /13th August (Mon - Fri, onboarding)2. 17th August (Sun, training)3. 24th  August (Sun, training)4. 30th &amp; 31st August (Sat &amp; Sun, training)Production i.e. actual working (night shift):1. 7th September (Sun)2. 14th September(Sun)3. 21st September (Sun)What will you do in the internship: 1. Provide excellent customer service over the phone.2. Adhere to program-defined quality standards.3. Stay informed about the latest information and updates.4. Perform tasks related to voice profiles.Since the internship requires interacting with international clients, you must possess excellent English-speaking skills. You must be comfortable with either the day shift or the evening shift on the training and onboarding dates and night shifts (only) on the production dates. Also, you would need to clear the training to proceed further with the production phase.The internship location would be in Gurgaon. Please apply to this internship ONLY if you are available on the above dates and shifts and can arrange for your own transport to the office. Other than the stipend, no cab allowance would be provided. Free food/snacks and beverages would be available during cafeteria operating hours.Skill(s) requiredClient RelationshipEffective CommunicationEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 16th Jul'25 and 20th Aug'25                                    3. are available for duration of 1 week                                    4. are from Gurgaon only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Graduate/Undergraduate.                                    2. Fresher/Experienced (any experience).                                    3. Should be comfortable working rotational day and night shifts on weekends.                                    4. Should be able to commute on their own.                PerksCertificate Free snacks &amp; beveragesAdditional information                The selection process would consist of 2 steps:1. Online application on Internshala 2. Face-to-face in-office assessment and interview for shortlisted candidates                Number of openings        150                        About Concentrix                Website         Concentrix Corporation (NASDAQ: CNXC), a Fortune 500 company, is the global technology and services leader that powers the world's best brands with their human-centered, tech-powered, intelligence-fueled approach. Every day, they help over 2,000 of the world's best brands across 70+ global markets . They design, build, and run fully integrated, end-to-end solutions at speed and scale across the entire enterprise, designing game-changing brand experiences, building, and scaling secure AI technologies, or running digital operations that deliver global consistency with a local touch.    Activity on InternshalaHiring since July 20248 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,24 +646,24 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:55</t>
+          <t>2025-07-22 11:20:16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/video-animator-internship-in-jaipur-at-travel-lykke-private-limited1751707788</t>
+          <t>https://internshala.com/internship/detail/international-customer-service-the-coolest-weekend-internship-internship-in-gurgaon-at-concentrix1752652486</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Architecture</t>
+          <t>Travel &amp; Tourism</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>About the internship    THD Design Studio is seeking an Architecture Intern who is proficient in AutoCAD, Adobe Photoshop, Google SketchUp, Autodesk 3ds Max, and MS-Office to join our team. As an intern, you will have the opportunity to work on a variety of projects and grow your skills in a collaborative and creative environment.1. Assist with drafting and designing architectural plans using AutoCAD.2. Create visually stunning presentations and renderings using Adobe Photoshop.3. Develop 3D models and animations with Google SketchUp and Autodesk 3ds Max.4. Collaborate with team members to brainstorm and problem solve design challenges.5. Conduct research on industry trends and best practices to incorporate into projects.6. Attend client meetings and presentations to contribute ideas and insights.7. Support the team with administrative tasks and project management duties as needed.If you are a motivated and talented individual with a passion for architecture and design, we want to hear from you! Join us at THD Design Studio and take the first step towards a successful career in the industry. Apply now and showcase your skills in a professional setting.Skill(s) requiredAdobe PhotoshopAutoCADAutodesk 3ds MaxGoogle SketchUp MS-OfficeEarn certifications in these skillsLearn Adobe PhotoshopLearn AutoCADLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 9th Jul'25 and 13th Aug'25                                    3. are available for duration of 4 months                                    4. are from Thane, Navi Mumbai, Mumbai only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About HD Design Studio                Instagram page         HD Design Studio is a Mumbai-based firm of experienced professionals offering comprehensive services in architecture, interior design, and urban design to residential, commercial, and institutional clients. In addition to extensive experience in all the architectural processes from designing to construction and execution, HDDS is actively involved in providing clients with the following services: architecture, interior design, residential design, historic renovations, site analysis, and feasibility, zoning and code consulting, building department expediting, municipal department approvals, dot approvals, landmark approvals, condominium subdivisions, and tenant reviews.    Activity on InternshalaHiring since November 202110 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Assisting in preparing domestic and international tour itineraries and quotations2. Handling client inquiries via email, phone, and WhatsApp with prompt and professional communication3. Coordinating with airlines, hotels, and transport partners for bookings and follow-ups4. Supporting the visa documentation process for travelers5. Creating and posting engaging content on social media platforms for travel promotions6. Maintaining records of bookings, client details, and lead conversions7. Researching trending destinations and updating internal knowledge base8. Participating in internal meetings and training sessions9. Assisting walk-in clients at the office and providing information about available packages10. Preparing travel brochures and presentation materials for corporate clientsSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)Holiday Package DesignInterpersonal skillsMS-ExcelTravel Itinerary MakingTravel ManagementEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn Digital MarketingLearn PhotographyLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 12th Jul'25 and 16th Aug'25                                    3. are available for duration of 3 months                                    4. are from Uttar Pradesh only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Candidates pursuing or holding a degree/diploma in travel &amp; tourism, hospitality, or business administration will be preferred                                    2. Strong communication skills in English and Hindi                                    3. Basic knowledge of MS Office (Word, Excel, PowerPoint) is essential                                    4. Passion for travel, tourism, and customer service                                    5. Familiarity with travel portals, GDS systems, or ticketing platforms will be an added advantage                                    6. Candidates from or near Gorakhpur or willing to relocate will be preferred                                    7. Should be enthusiastic, punctual, and eager to learn                                    8. Preferably available for a full-time in-office internship (10 AM to 7 PM)                PerksCertificate Letter of recommendation Informal dress code Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 8,000 - 14,000 /month                    Incentive pay: ₹ 2,000 - 8,000 /month                     Number of openings        15                        About Royal Tour &amp; Travel India Private Limited                Website         Royal Tour &amp; Travel India Pvt Ltd is one of India's leading travel management companies, headquartered in Gorakhpur (U.P.), with branch offices in Lucknow, Delhi, Dubai, London, and New York. With over 15 years of experience in the travel and tourism industry, we specialize in outbound, inbound, and MICE travel, offering tailor-made travel experiences worldwide.We are an IATA-approved agency and proudly recognized by the Ministry of Tourism, Government of India. Our company is also affiliated with the major tourism industry, we are registered with Uttar Pradesh Tourism and actively promote regional tourism, especially the Buddhist Circuit, given our proximity to Kushinagar, the sacred land of Lord Buddha. We work closely with 15+ international tourism boards such as Visit Britain, Dubai Tourism, Switzerland Tourism, Malaysia Tourism, Oman Tourism, and Spain Tourism, delivering high-quality travel solutions for corporate clients, family vacations, group tours, and educational trips.    Activity on InternshalaHiring since July 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,24 +681,24 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:56</t>
+          <t>2025-07-22 11:20:17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/architecture-internship-in-multiple-locations-at-hd-design-studio1752057921</t>
+          <t>https://internshala.com/internship/detail/travel-tourism-internship-in-multiple-locations-at-royal-tour-travel-india-private-limited1752467136</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Market Research</t>
+          <t>Auditing &amp; Accounting</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>About the internship    Are you passionate about market research? Do you have strong communication skills? Join our Startup - Lohagarh Software Solutions Private Limited as a Market Research intern and gain hands-on experience in the world of education &amp; counselling business &amp; technology Selected intern's day-to-day responsibilities include:1. Conduct market research to identify Education, Counselling &amp; Career trends and opportunities in the industry.2. Create a list of Schools, Tuition centres, etc and make Field Visits to collect additional data and validate the Startup Hypothesis.3. Analyze data using MS-Excel to generate insights and recommendations.4. Assist in creating reports and presentations for internal and external stakeholders.5. Collaborate with founders in refining and executing their business idea. 6. Support the team in developing strategies and marketing campaigns.This is a fantastic opportunity for someone looking to kickstart their career in market research and make a real impact in a fast-paced and dynamic environment. Apply now and take the first step towards a rewarding career with us!Skill(s) requiredEffective CommunicationInterpersonal skillsMS-OfficePresentation skillsResearch and AnalyticsSelf-learningEarn certifications in these skillsLearn MS-ExcelLearn Research and AnalyticsLearn Business CommunicationLearn Business AnalyticsLearn Statistics for Data ScienceLearn Deep LearningLearn TableauLearn SAS ProgrammingLearn SQL for Data AnalyticsLearn Clinical Trial Analysis &amp; ReportingLearn Natural Language ProcessingLearn Data ScienceWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 2 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Have completed BBA or MBA                                    2. Prior experience in terms of projects/internships in Market research are PREFERRED.                PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About Lohagarh Software Solutions Pvt Ltd                        Lohagarh Software Solutions is a start-up with a mission to empower students with informed education and career decisions, aligning their choices with their inherent strengths, and offering continuous mental well-being support to students and their parents.Every year, around 200,000 students enrol in coaching hubs like Kota, Jaipur, and Sikar to prepare for competitive exams such as IIT-JEE and NEET. Students endure immense academic pressure that often leads to stress, mental health challenges, and the loss of formative years. Many students enrol in coaching programs without a clear understanding of their aptitudes, strengths, or long-term career goals, resulting in disengagement, frustration, bad health, and loss of time.We aim to help Students in these areas.Activity on InternshalaHiring since May 20252 opportunities posted2 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    As an auditing &amp; accounting intern at GPMJ AND ASSOCIATES, you will have the opportunity to apply your knowledge of Tally, GST, MS-Excel, and Income Tax in a dynamic and fast-paced environment. Join our team and gain practical experience while working on real-world projects.Selected intern's day-to-day responsibilities include:1. Assist in auditing financial statements and conducting internal audits.2. Prepare and maintain financial records using Tally software.3. Assist in the preparation of GST returns and compliance documents.4. Analyze and reconcile financial data in MS Excel.5. Assist in the preparation of income tax returns for clients.6. Participate in meetings with clients and provide support on accounting and auditing matters.7. Stay up-to-date on accounting regulations and industry trends to ensure compliance and accuracy in financial reporting.If you are a detail-oriented and driven individual looking to kickstart your career in auditing and accounting, apply now to become a valuable member of our team at GPMJ AND ASSOCIATES.Requirements:    B. Com/BBA/BMS student planning to enroll Articleship immediately    Strong grasp of accounting principles, Tally, MS Excel    Excellent written and verbal communication skills    Detail-oriented, proactive, and eager to learn    Team player with a positive, professional attitude    Available to work full-time from our Indore officeSkill(s) requiredAccountingAccounting SoftwareAuditingBank ReconciliationFinancial AnalysisFinancial literacyFinancial ModelingFinancial ReportingGSTMS-ExcelTallyEarn certifications in these skillsLearn Stocks and TradingLearn Financial ModelingLearn MS-ExcelLearn TallyWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 8th Jul'25 and 12th Aug'25                                    3. are available for duration of 6 months                                    4. are from Indore only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours Informal dress codeAdditional information                • Hands-on training under experienced Chartered Accountants• Exposure to diverse assignments across audit, tax, and consultancy• Opportunity for career growth and potential pre-qualification employment                Number of openings        4                        About GPMJ AND ASSOCIATES                        GPMJ &amp; Associates is a leading chartered accountancy firm founded by seven experienced partners united by a shared vision of delivering trusted, comprehensive financial and compliance solutions. Established in 2013, we pride ourselves on integrity, excellence, and personalized service, helping businesses and individuals navigate accounting, audits, taxation, corporate finance, and advisory needs seamlessly under one roof.Our proven track record includes winning complex tax cases and providing strategic financial guidance that empowers our clients to grow confidently. With offices in Neemuch, Indore, and Rajasthan, we're your dependable partner for smart, reliable, and confidential professional services.    Activity on InternshalaHiring since May 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,24 +716,24 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:57</t>
+          <t>2025-07-22 11:20:18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/market-research-internship-in-jaipur-at-lohagarh-software-solutions-pvt-ltd1752812739</t>
+          <t>https://internshala.com/internship/detail/ca-articleship-internship-in-indore-at-gpmj-and-associates1751952926</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Field Sales</t>
+          <t>Partnerships &amp; Outreach Associate - NGO Internship</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>About the internship    Key Responsibilities:1. Understand and explain the key features and benefits of our IT product.2. Conduct on-field visits to potential clients across Pithampur, Dewas Naka, and Indore.3. Assist in generating leads and identifying new business opportunities.Participate in client meetings, demos, and follow-ups.4. Collect insights from field visits and share feedback with the internal team.5. Maintain proper records of leads, interactions, and daily activities.Skill(s) requiredBusiness DevelopmentClient InteractionEnglish Proficiency (Spoken)Field SalesField WorkHindi Proficiency (Spoken)Lead GenerationNegotiationSalesEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 11th Jul'25 and 15th Aug'25                                    3. are available for duration of 3 months                                    4. are from Indore only                                    5. have relevant skills and interests                    Other requirements                    1. Good communication and interpersonal skills                                    2. Interest in technology and willingness to learn about IT products                                    3. Self-motivated, proactive, and comfortable with field work                                    4. Basic knowledge of sales or marketing is a plus                                    5. Ability to travel locally for field visits                PerksCertificateAdditional informationStipend Structure:Fixed pay: ₹ 8,000 - 10,000 /month                    Incentive pay: ₹ 2,000 - 20,000 /month                     Number of openings        4                        About BluCursor Infotech Private Limited                Website         bluCursor Infotech Private Limited is a government-certified and acclaimed IT company. Established in 2013, we have fulfilled the needs of a diverse range of clients belonging to various countries and have been flourishing since. bluCursor Infotech Private Limited consists of technology evangelists, full-stack consumers, and web solution experts. Our offerings include SOA-based applications, big data solutions, and mobile applications. We have a well-established track record and our services have always ensured great customer satisfaction.     Activity on InternshalaHiring since April 20234 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Research and identify government departments, education institutions, or NGOs aligned with our mission2. Reach out to relevant officials, educators, or partners via email/phone3. Schedule and coordinate meetings with potential collaborators4. Maintain follow-up records and action items5. Assist in documenting progress and preparing basic reports6. Support internal team operations and event planning (if any)Skill(s) requiredEffective CommunicationGoogle WorkspaceMS-OfficeTeam ManagementEarn certifications in these skillsLearn MS-ExcelLearn Business CommunicationLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 15th Jul'25 and 19th Aug'25                                    3. are available for duration of 2 months                                    4. are from Bangalore only                                    5. have relevant skills and interests                    Other requirements                    1. Strong communication skills (English + any local language preferred)                                    2. Curious, self-driven, and well-organized                                    3. Comfortable using Google Workspace (Docs, Sheets, Calendar)                                    4. Interest in social causes, public systems, or education reform                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeAdditional information                Company offers fuel allowance for roles requiring                Number of openings        2                        About United Angels                        United Angels India is a purpose-driven NGO committed to serving anyone in need regardless of category, cause, or background. We believe that compassion shouldn't be limited. From urgent interventions to ongoing community support, we act with heart, timing, and responsibility not just as a charity, but as a movement."If it affects a life, it matters to us."About NGO: https://www.instagram.com/unitedangelsindia?igsh=ODV0MDNqdW1zbmJt&amp;utm_source=qr    Activity on InternshalaHiring since July 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -751,24 +751,24 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:57</t>
+          <t>2025-07-22 11:20:18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/field-sales-internship-in-indore-at-blucursor-infotech-private-limited1752237511</t>
+          <t>https://internshala.com/internship/detail/partnerships-outreach-associate-ngo-internship-internship-in-bangalore-at-united-angels1752754544</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sales and Marketing</t>
+          <t>Customer Service Executive</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Assist in identifying and onboarding new restaurants, cloud kitchens, and cafes to the Restomart platform2. Conduct field visits across Chennai to understand customer pain points and recommend relevant product bundles3. Support order placement and fulfillment coordination via WhatsApp and internal systems. Prepare performance reports, track leads, and maintain CRM disciplineSkill(s) requiredBusiness DevelopmentCanvaDigital MarketingTamil Proficiency (Spoken)Earn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 3 months                                    4. are from Chennai only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeAdditional informationStipend Structure:Fixed pay: ₹ 6,000 - 8,000 /month                    Incentive pay: ₹ 4,000 - 6,000 /month                     Number of openings        2                        About Restomart                Website         We're a one-stop B2B platform powering restaurants and cafes with quality food supplies and next-day delivery. Bootstrapped and profitable, we're now scaling our platform, category offerings, and operations to build the "OS for restaurants" solving for procurement, inventory, recipe costing, and beyond.    Activity on InternshalaHiring since June 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    This role is part of our Igniting Pride Internship program, where diverse talent fuels business growth. For LGBTQIA+ professionals, this 6-month paid internship offers hands-on experience, mentorship, and the chance to make a real impact.The Corporate Booking Executive is responsible for end-to-end coordination of corporate travel bookings, ensuring timely confirmation, vehicle assignment, vendor coordination, and proactive trip tracking. This role demands meticulous execution, timely communication, and high responsiveness to meet service level agreements (SLAs) for corporate travel needs.Booking management:1. Confirm bookings within defined minutes of request.2. Accept booking requests in CRM/TravelsMate within defined TAT3. Share vehicle and driver details with travelers 6 hours prior to the trip.Vendor coordination1. Send booking requests to vendors within the defined TAT.2. Follow up for vendor acknowledgment within SLA timelines.3. Coordinate with vendors to ensure timely dispatch of vehicle details.Execution and trip tracking:1. Conduct driver tracking and complete the video audit as per the defined timeline prior to pickup.2. Ensure pickup reach is tracked and verified within the defined minutes before the scheduled time.Platform-specific responsibilities: Monitor and manage advance bookings on TravelsMate.Step up. Be seen. Be heard. Let's spark something extraordinary together.Skill(s) requiredAnalytical ThinkingData AnalysisEffective CommunicationEmployment engagementGoogle SheetsMS-ExcelProblem SolvingResearch and AnalyticsTime ManagementEarn certifications in these skillsLearn MS-ExcelLearn Research and AnalyticsLearn Statistical ModelingLearn TableauWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 10th Jul'25 and 28th Jul'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    1. Candidates who have completed graduation                                    1. Eye for detail to ensure accurate documentation                                    2. Analytical skills to interpret data and plan actions                                    3. Process-oriented for handling expiry and compliance                                    4. Proficient in Excel or Google Sheets                                    5. Basic knowledge of B2C logistics (preferred)                                    6. Good communication for team coordination                                    7. Problem-solving skills for quick issue resolution                Additional information                1. This opportunity is exclusively open to candidates who identify as members of the LGBTQIA+ community.2. This is an immediate joining opportunity, and the candidate must be available for a 6-month, in-office internship.                Number of openings        5                        About Mahindra Logistics Limited                        Our promoter, Mahindra, and Mahindra Limited, through its logistics division, Mahindra Logistics, undertook the business of providing logistics solutions, warehousing, freight forwarding, and supply chain services. Our technology enabled the asset-light business model allows for scalability of services as well as the flexibility to develop and offer customized logistics solutions across a diverse set of industries. Mahindra Logistics operates in two distinct business segments: Supply Chain Management (SCM) and corporate People Transport Solutions (PTS).    Activity on InternshalaHiring since June 202416 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,24 +786,24 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:58</t>
+          <t>2025-07-22 11:20:19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/sales-and-marketing-internship-in-chennai-at-restomart1752752843</t>
+          <t>https://internshala.com/internship/detail/corporate-booking-executive-oncall-internship-in-mumbai-at-mahindra-logistics-limited1749476423</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Video Editing/Making</t>
+          <t>Fundraising</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>About the internship    We are seeking a talented video editing expert who possesses advanced skills in utilizing the latest AI tools to create engaging short marketing videos. The ideal candidate should have a keen eye for detail, creativity, and proficiency in editing software.Selected intern's day-to-day responsibilities include: 1. Collaborate with the marketing team to understand project requirements and objectives.2. Utilize cutting-edge AI tools to enhance video content and create captivating marketing videos.3. Edit raw footage, adding effects, transitions, graphics, and sound to produce high-quality videos.4. Ensure videos align with brand guidelines and maintain consistency in style and tone.5. Optimize videos for various platforms, including social media channels, websites, and presentations.6. Stay updated on industry trends and emerging technologies to incorporate innovative techniques into video editing processes.7. Manage multiple projects simultaneously and adhere to deadlines.8. Provide constructive feedback and contribute to brainstorming sessions for creative ideas.Skill(s) requiredAdobe IllustratorAdobe PhotoshopVideo EditingVideo MakingEarn certifications in these skillsLearn Adobe PhotoshopLearn Adobe Premiere ProLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 3rd Jul'25 and 7th Aug'25                                    3. are available for duration of 3 months                                    4. are from Chennai only                                    5. have relevant skills and interests                    Other requirements                    1. Proficiency in video editing software such as Adobe Premiere Pro, Final Cut Pro, or similar tools.                                    2. Demonstrated expertise in using AI tools for video editing and enhancement.                                    3. Strong understanding of storytelling techniques and visual aesthetics..                                    4. Demonstrated expertise in using AI tools for video editing and enhancement.                                    5. Strong understanding of storytelling techniques and visual aesthetics.                                    6. A freelancer can also apply for the internship.                PerksCertificate Letter of recommendationAdditional information                1. Candidates may be required to provide a portfolio showcasing their previous work.2. The position offers opportunities for professional growth and development within the company.                Number of openings        1                        About MiTran Global                Website         We are a global organization focusing on delivering world-class tools to understand the mindset of students and provide them with appropriate training courses.    Activity on InternshalaHiring since October 202229 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Join Our Internship Program and Be a Changemaker! Are you ready to make a difference in the world? Tare Zameen Foundation invites passionate individuals like you to join our internship program and become part of a movement dedicated to creating positive change in society. As an intern with us, you'll have the opportunity to participate in meaningful projects and initiatives that address pressing issues facing our communities.Tasks that Transform Lives:1. Green Guardian: Plant a Tree - By becoming a Green Guardian2. Harmony Helper: Feed a Needy - In a world where millions go hungry every day, providing a meal to someone in need can make a world of difference.3. Stationery Samaritan: Give Tools for Tomorrow - Education is the key to unlocking opportunities and breaking the cycle of poverty. Let's support the next generation of changemakers by ensuring they have the tools they need to succeed.4. Fundraising Trailblazer: Raise Funds, Change Lives - Fundraising is more than just raising money; it's about mobilizing resources to create meaningful impact in the community. Be Recognized as a Changemaker.Those who complete these tasks will not only contribute to building a better society but also receive recognition for their efforts. Completing all tasks will earn you a Certificate of Completion of Internship. Achieve three tasks successfully, and you'll receive our prestigious Changemaker Award Certificate.Skill(s) requiredEffective CommunicationEnglish Proficiency (Spoken)English Proficiency (Written)Earn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 8th Jul'25 and 12th Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursAdditional informationStipend Structure:Fixed pay: ₹ 1,000 /month                    Incentive pay: ₹ 500 /month                     Number of openings        200                        About Tare Zameen Foundation                Website         Tare Zameen Foundation is a non-profit organization registered in the year 2018 in Delhi. Since its inception, the organization has been working for many causes like the upliftment of children, women, and the divyangjan. It has been reaching out to the unprivileged and underprivileged children by providing them with the means of education and has shown the women folk the way to empowerment through employment. It also has been campaigning for the 'Save Girl Child' program through awareness generation. It has also been engaged with the divyangjan and has been looking at connecting them with teachers and trainers to improve their skills and giving them a platform to share their achievements. Likewise, through its various activities, Tare Zameen Foundation is making a positive and lasting impact on their lives.    Activity on InternshalaHiring since May 2020547 opportunities posted73502 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -821,24 +821,24 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:59</t>
+          <t>2025-07-22 11:20:20</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-chennai-at-mitran-global1751542350</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-fundraising-internship-at-tare-zameen-foundation1751959813</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kannada Audio Recording Expert (Native Speakers)</t>
+          <t>Semi Qualified CA - ITR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    We are currently looking for fluent Kannada speakers to participate in an ongoing audio recording project. If you have strong verbal communication skills, a keen eye for detail, and are proficient in Kannada, this is a great opportunity for you.Selected intern's day-to-day responsibilities include:1. Recording audio on assigned topics with clear and fluent Kannada pronunciation.2. Speaking exclusively in Kannada throughout all recordings.3. Staying on topic and following the given subpoints without deviating from the script.4. Using the specified mobile application to complete recordings.5. Ensuring recordings are done in a quiet, noise-free environment for optimal audio quality.6. Maintaining a stable internet connection and staying fully focused   no multitasking during sessions.7. Adhering to professional standards: avoiding offensive, abusive, or discriminatory language, and refraining from sharing any personal information.Note: 1.  Each participant will record 220 short phrases provided on the platform.2. This is a one-time task, and all recordings will be completed through a mobile. Application.Skill(s) requiredCreative WritingEnglish Proficiency (Spoken)English Proficiency (Written)Kannada Proficiency (Spoken)Kannada Proficiency (Written)ProofreadingVoice-over artistEarn certifications in these skillsLearn Creative WritingLearn Business CommunicationLearn FrenchWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 20th Jul'25 and 24th Aug'25                                    3. are available for duration of 1 week                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Fluency in Kannada.                                    2. Excellent reading and speaking skills in the Kannada Language.                                    3. Ability to commit to a minimum of 3-4 hours per day.                                    4. Strong attention to detail and ability to meet project specifications.                PerksCertificate Flexible work hoursNumber of openings        20                        About Solvitude                LinkedIn page         Solvitude is a rapidly growing content service platform where users get various academic and content writing services like article writing, textbook solutions, essay writing, translations, and many more. Solvitude has the perfect team of experts for such work. The team adheres to and fulfills the needs of the clients. Various leading companies in the ed-tech industry outsource their writing requirements to us. By doing so, they get the benefits of one of the most capable content writing services online. Join our yoga centre team at Solvitude.    Activity on InternshalaHiring since April 2023370 opportunities posted84 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Are you a diligent and detail-oriented  CA with a passion for taxation and statutory compliance? Join ClearTax as a SEMI CA - ITR Filing intern and gain hands-on experience in preparing and filing income tax returns for our clients. Key responsibilities:1. Assist in reviewing and analyzing financial documents for accurate ITR filing2. Ensure compliance with tax laws and regulations3. Collaborate with team members to resolve any tax-related issues4. Prepare and maintain records of client information and transactions5. Communicate with clients to gather necessary information for filing6. Stay updated on changes in tax laws and regulations7. Provide support in other tax-related tasks as neededIf you are eager to learn and grow in the field of taxation, this internship is perfect for you. Apply now and kickstart your career with ClearTax!Skill(s) requiredIncome TaxStatutory compliancesTaxationEarn certifications in these skillsLearn Stock Market TradingLearn Business AnalyticsLearn TallyLearn Personal FinanceWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 30,000 /month                    Incentive pay: ₹ 5,000 /month                     Number of openings        10                        About ClearTax                Website         ClearTax is Asia's fastest-growing fin-tech and India's largest website to file income tax returns. ClearTax aims to simplify the tax filing process to empower millions of Indians and remove the fear of taxes.    Activity on InternshalaHiring since March 2022335 opportunities posted80 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -856,24 +856,24 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-07-20 10:40:59</t>
+          <t>2025-07-22 11:20:21</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-kannada-audio-recording-expert-native-speakers-internship-at-solvitude1752995847</t>
+          <t>https://internshala.com/internship/detail/semi-qualified-ca-itr-internship-in-bangalore-at-cleartax1753172022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UI/UX Design</t>
+          <t>AI Expert – NLP, Chatbot &amp; Predictive Systems</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Create low and high-fidelity wireframes and prototypes.2. Develop user flows and information architecture to enhance usability.3. Design responsive and adaptive UI for mobile and web applications.4. Work with typography, color theory, and visual hierarchy to create aesthetically pleasing designs.5. Utilize Figma for design systems, auto-layout, variants, and prototyping.6. Collaborate with developers and stakeholders to refine design solutionsSkill(s) requiredFigmaEarn certifications in these skillsLearn FigmaLearn UI &amp; UX DesignWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 20th Jul'25 and 24th Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Number of openings        10                        About EG Allied Private Limited                        Entire Globe Allied is in the IT services &amp; BPO industry. We offer our services globally and connect you to the world of innovation. We believe in providing the best solution to our clients by keeping the customer's satisfaction and the brand's reputation in mind. We frame our work with innovative ideas to get ahead of the global competition, which also helps us to provide our clients with high-quality services. We provide services in IT, customer engagement, accounting, and digital marketing.    Activity on InternshalaHiring since June 2021222 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Develop NLP pipelines for chatbot and conversational AI tools using LLMs (OpenAI, Hugging Face, etc.).2. Design recommendation engines tailored to user behavior, preferences, and astrology data.3. Build predictive models for life-event forecasting using historical user and astrology data.4. Experiment with and implement research-backed approaches for continuous model improvement.5. Deploy and manage AI models on cloud or custom servers with end-to-end hosting, monitoring, and scaling.6. Collaborate with developers and domain experts (astrologers, psychologists) to fine-tune and enhance AI systems.Skill(s) requiredAmazon Web Services (AWS)Artificial intelligenceNatural Language Processing (NLP)Earn certifications in these skillsLearn Machine LearningLearn Deep LearningLearn Artificial IntelligenceLearn Computer VisionLearn Neural NetworksWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    Other requirements                    - Solid understanding of Python and ML libraries (NumPy, pandas, scikit-learn).                                    - Hands-on experience or strong interest in deep learning frameworks (TensorFlow, PyTorch).                                    - Familiarity with NLP tools and APIs – Hugging Face Transformers, OpenAI, spaCy, etc.                                    -Knowledge of REST APIs and how to deploy ML models on cloud servers or with Docker.                                    -Ability to read and implement academic research papers into real-world code.                                    Good to Have:                                    -Experience working with LLMs (GPT, BERT, LLaMA, etc.).                                    -Knowledge of chatbot frameworks like Rasa or LangChain.                                    -Exposure to recommendation algorithms (collaborative filtering, content-based, hybrid).                                    -Experience with MLOps tools (like MLflow, FastAPI, Kubernetes) is a plus.                                    -A research mindset with the ability to explore, iterate, and test innovative ideas.                PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        2                        About Vedaz                        Vedaz is the world's smartest astrology platform that helps predict the future. The AI-based tool analyses millions of predictions of top astrologers from India and the world and fine-tunes its results to give personalized recommendations to users. These recommendations are in the form of charts and suggestions for a better life and pujas to be conducted for the holistic well-being of the individuals.    Activity on InternshalaHiring since February 202419 opportunities posted11 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -891,24 +891,24 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:00</t>
+          <t>2025-07-22 11:20:22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-jaipur-at-eg-allied-private-limited1752984633</t>
+          <t>https://internshala.com/internship/detail/work-from-home-ai-expert--nlp-chatbot-predictive-systems-internship-at-vedaz1753171906</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Content and Social Media Marketing</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>About the internship    Are you a creative individual with a passion for content creation and social media marketing? Homemade Love is seeking a talented Content and Social Media Marketing intern to join our team! As a key member of our marketing team, you will have the opportunity to showcase your skills in video editing, social media marketing, Instagram marketing, and videography. Key Responsibilities:1. Create engaging and visually appealing video content for our social media channels2. Develop and implement social media marketing strategies to increase brand awareness3. Manage and grow our Instagram presence through creative and innovative content4. Collaborate with the marketing team to brainstorm and execute new ideas for content5. Assist in capturing high-quality video footage for promotional purposes6. Analyze and report on social media performance metrics to optimize marketing efforts7. Stay up-to-date on industry trends and best practices to continuously improve our marketing strategies If you are a self-motivated individual with a strong eye for detail and a love for all things creative, we want to hear from you! Join us at Homemade Love and make a real impact on our brand's digital presence. Apply now and show us what you've got!Skill(s) requiredInstagram MarketingSocial Media MarketingVideo EditingVideographyEarn certifications in these skillsLearn Adobe Premiere ProLearn Facebook MarketingLearn Social Media MarketingLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 20th Jul'25 and 24th Aug'25                                    3. are available for duration of 3 months                                    4. are from Delhi only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksInformal dress codeNumber of openings        2                        About Homemade Love LLP                        We're a homegrown pickle, chutney, and traditional recipe brand. We are very particular about delivering quality products like a true Punjabi mom, and careful to make only small quantities of Jams and pickles, slow-cooked with love and perfectly simmered. Wanting to cater to all kinds of preferences, we laid a strong emphasis on producing only unadulterated all-natural pickles and jams, made from locally sourced vegetables, simmered in pure oils and vinegar. Only natural preservatives like lemon, mustard oil, vinegar, and sugar are used to create products that are made to last for 8-12 months with refrigeration and 6 months - without. Willing to ship fresh batches of pickles and jams to just about anywhere, we make sure that each bottle packed is filled to the brim with the product and the love.    Activity on InternshalaHiring since August 202210 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Create, edit, and publish engaging social media posts.2. Design eye-catching visuals and short-form video content.3. Contribute fresh, creative ideas for enhancing digital presence and running campaigns.4. Creating and posting content on LinkedIn.5. Collaborate with the team for brainstorming and planning weekly social media calendars.6. Track key trends and suggest content improvements.Skill(s) requiredCreative ThinkingCreative WritingFacebook MarketingGraphic DesignInstagram MarketingSearch Engine Optimization (SEO)Social Media MarketingVideo EditingEarn certifications in these skillsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Adobe Premiere ProLearn Creative WritingLearn Digital ArtLearn Facebook MarketingLearn SEOLearn Social Media MarketingLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Noida only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Resides within a 5km radius of Sector 62, Noida                                    2. Currently pursuing or recently graduated in Marketing, Media, Communications, or related fields.                                    3. Proactive, self-motivated, and eager to learn.                                    4. Ability to work full-time Monday to Saturday (10:00AM–6:30PM), with Saturdays as WFH.                                    5. Creative mindset, with a portfolio or samples in social media content or edits (preferred, not mandatory).                PerksCertificate Letter of recommendationNumber of openings        2                        About Kat &amp; Company                Website         Kat &amp; Company Charted Accountants / consultancy Firm located in Netaji Subhash place Pitampura new Delhi     Activity on InternshalaHiring since August 20172 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -926,24 +926,24 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:00</t>
+          <t>2025-07-22 11:20:22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/content-and-social-media-marketing-internship-in-delhi-at-homemade-love-llp1752989543</t>
+          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-noida-at-kat-company1753101085</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Graphic Design</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>About part time job/internship    Selected intern's day-to-day responsibilities include:1. Design the layout of essential business materials (e.g. business cards, presentations)2. Create infographics and presentation materials to simplify the communication of complex concepts and data3. Work on editing video clips for use on social media platformsNotes: 1. Windows is not accepted due to the nature of the work, you have to work on a MacBook.2. If you perform well, you might be working very closely with our marketing and founding teams to showcase your creativity at its best.Skill(s) requiredAdobe IllustratorAdobe PhotoshopCorelDRAWSketchEarn certifications in these skillsLearn Adobe PhotoshopLearn Graphic DesignLearn AnimationLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 3 months                                    4. are from Mohali only                                    5. have relevant skills and interests                    Other requirements                    1. The candidate should have a MacBook/Mac Mini (only Macintosh OS), which is required for internal processes.                                    2. The candidate should be eager to learn about creativity and test it within brand guidelines.                PerksCertificate Letter of recommendation Informal dress code 5 days a week Free snacks &amp; beverages Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 240000/year Number of openings        5                        About Alphanumeric Ideas Private Limited                        We deal in digital empowerment and promotion solutions and have been accredited as one of APAC's top digital marketing agencies. We are a Google premier partner agency listed among the top 3% of companies in the APAC region. We have been working with leading brands like The Whole Truth Foods, and Agarwal Packers &amp; Movers, to name a few.    Activity on InternshalaHiring since January 2020946 opportunities posted45 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Collect information, perform research, and analyze assets, such as stocks, mutual funds, etc.2. Present the research to portfolio managers, as part of a team in which experts in different fields get to weigh their insights3. Collaborate in preparing presentations and sharing information among peers4. Collect and interpret data, such as company financial statements, price developments, currency adjustments, and yield fluctuationsSkill(s) requiredMS-ExcelMS-WordEarn certifications in these skillsLearn MS-ExcelLearn Business CommunicationLearn Business AnalyticsLearn Statistics for Data ScienceLearn Deep LearningLearn TableauLearn SAS ProgrammingLearn SQL for Data AnalyticsLearn Clinical Trial Analysis &amp; ReportingLearn Natural Language ProcessingLearn Financial modeling valuationLearn Personal FinanceLearn Data ScienceWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 2 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours 5 days a week Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 800000 to 1100000/year Number of openings        20                        About Zean Lithos And Company Private Limited                        We understand that our clients are interested in measurable benefits. Whether it's running a finance transformation project, a training program, or seeking a new critical hire for a client, we always remember that successful delivery is what makes our clients come back for more. We work with exceptional people who do exceptional things. We're open, clear, direct, and honest in our communications. If something doesn't make sense, we ask questions. We work with open minds and no bias other than making our customers successful. Engaging a management consultant doesn't have to be daunting.    Activity on InternshalaHiring since August 2021381 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -961,24 +961,24 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:01</t>
+          <t>2025-07-22 11:20:23</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/part-time-graphic-design-internship-in-mohali-at-alphanumeric-ideas-private-limited1752900107</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-financial-analyst-internship-at-zean-lithos-and-company-private-limited1753172010</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Content and Social Media Marketing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities:1. Assist in integrating ERP platforms and professional service ecosystems to enhance compliance, tax intelligence, and reconciliation workflows2. Support the team in showcasing SaaS solutions for accounting, finance, tax compliance, and risk management3. Create engaging content for social media platforms (LinkedIn, Facebook, YouTube)4. Help with client connect initiatives (email campaigns, webinars, events)5. Assist in implementing SaaS tools to streamline client processes6. Collaborate with teams to support platform sales and handle routine platform-related queries7. Collect and share client feedback with product development teamsSkill(s) requiredDigital MarketingEmail MarketingEnglish Proficiency (Spoken)English Proficiency (Written)FinanceSales StrategySocial Media MarketingEarn certifications in these skillsLearn Business CommunicationLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingLearn Financial ModelingLearn TallyLearn Stocks and TradingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 4 months                                    4. are from Chennai only                                    5. have relevant skills and interests                    Other requirements                    1. Bachelor's degree in accounting, finance, law, business administration, or related fields                                    2. Strong interest in SaaS solutions, accounting, and finance                                    3. Good knowledge of social media platforms and content creation                PerksCertificate Letter of recommendationNumber of openings        1                        About Gigart Solutions Private Limited                        We are a freelancing marketplace focused on providing technology-enabled platform services that ensure the availability of professionals on a short-term basis. The service is expected to be offered to the right person at the right time and at the right cost. This service saves on employing such resources on a full-time basis.    Activity on InternshalaHiring since January 202143 opportunities posted8 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Content and Social Media Marketing Internship :Fashion Communication Internship :  - Location: Vishnu Garden, New Delhi (On-site only)- Type: Full-time Paid Internship- Duration: 6 Months  About Wear Believe :Are you passionate about brand communication and have a keen eye for detail? Join us on this super creative journey of building Wear Believe. Wear Believe is more than just a fashion brand, we are building a community-driven movement, inspiring self-love through style. We are now looking for a Fashion Communication Intern who shares the passion for creativity, design, marketing and innovation as much as we do.     What You'll Do:You'll work closely with the founder and support the brand across creative direction, storytelling, and brand communication. Key areas include:1. Creative Communication &amp; Brand Storytelling  Help conceptualise and draft powerful narratives for community building, product collections, social media, and website.Co-create engaging captions, campaign copy, and visual storytelling that reflects the brand voiceAssist in community building, packaging text, lookbook write-ups, and emotional campaign taglines2. Content &amp; Campaign DevelopmentBrainstorm and assist in planning seasonal campaign ideas, styling concepts, and product storytellingCreate mood boards, visual references, and content calendars to support brand visionContribute to ideating and scripting Instagram Reels and campaign visuals3. Visual Styling &amp; Shoot DirectionAssist in styling product shoots, and campaign visualsCoordinate photoshoots, props, models, and studio setups under guidanceEnsure consistent styling aligned with the "old money" and "quiet luxury" aesthetic of the brand.4. Influencer Marketing &amp; OutreachIdentify relevant micro and macro influencers aligned with the brandDraft outreach messages, gifting notes, and manage follow-upsMaintain influencer database and track deliverables    What We're Looking For:     Mindset &amp; PersonalityCreative thinker with a strong eye for aesthetics and details.Emotionally intelligent, self-motivated, and eager to learn.Passion for storytelling, fashion, and women-led brands.Aligned with our values of femininity, grace, personal growth, and inspiration.     Skills &amp; QualificationsStrong command of English - both written and spoken.Basic knowledge of fashion communication, journalism, or branding.Interest or experience in styling, visual culture, and luxury fashion is a plus.Basic understanding of Photoshop, Video Editing tools, Pinterest, Google Docs/Slides, Instagram trends, photography or video ideation skills.       What You'll Gain:Hands-on experience working directly with the founder on real-time brand building.A chance to shape the voice of a community-first, women-centric fashion brand.Exposure to all aspects of fashion branding   from communication to styling to PR.  Certificate, letter of recommendation, and opportunity for full-time hiring based on performance.     To Apply:If you're passionate about branding and want to be a part of our creative journey, we'd love to hear from you! Send your resume and portfolio to wearbelievecommunity@gmail.com with the subject line "Application - Fashion Communication Internship", or Whatsapp on +91 9999934449.  Skill(s) requiredContent MarketingContent WritingCopywritingFashion StylingMarketing Strategies Market researchPhotographySocial Media MarketingVideo EditingEarn certifications in these skillsLearn Adobe Premiere ProLearn Creative WritingLearn Email MarketingLearn Facebook MarketingLearn Market researchLearn PhotographyLearn Social Media MarketingLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. are from Delhi only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code Free snacks &amp; beverages Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 350000/year Number of openings        3                        About Aastha Bhasin                Instagram page         A community of people who love themselves and are a sucker for growth &amp; happiness. In a world that moves faster daily, it's easy to lose focus on the most important part of the equation: you. At Wear Believe, we are here to change that narrative. This is your safe space, a community designed for people who are on a mission to love themselves more, grow continuously, and embrace their power. Our mission is to create inspiring content. We aim to cultivate and grow a vibrant, organic social community across all social platforms. We believe that the strength of our brand lies in the genuine connections and meaningful interactions we foster with our audience.    Activity on InternshalaHiring since October 20244 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -996,24 +996,24 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:02</t>
+          <t>2025-07-22 11:20:24</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/marketing-internship-in-chennai-at-gigart-solutions-private-limited1752911509</t>
+          <t>https://internshala.com/internship/detail/content-and-social-media-marketing-internship-in-delhi-at-aastha-bhasin1753170651</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Business Development (Sales)</t>
+          <t>Regional Language Specialist</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>About the internship    Key responsibilities:1. Contact potential students and organizations via calls, emails, and social media to describe GradX programs and career opportunities2. Schedule and conduct counseling sessions or product demos with interested candidates online or in person as needed3. Track and manage a pipeline of leads using CRM tools or spreadsheets, ensuring regular follow-up and engagement4. Monitor progress towards weekly and monthly sales targets and adjust strategies to improve conversion rates5. Work consistently to achieve and exceed assigned weekly and monthly sales targets for enrollments and partnerships6. Collect insights and feedback from prospects and enrolled clients regarding course offerings and service quality to inform improvements7. Provide prompt support and ongoing communication to address queries and maintain strong follow-up throughout the enrollment cycle8. Collaborate with marketing, academic, and placement teams to ensure a seamless onboarding experience and alignment of objectives9. Maintain clear records of activity, customer interactions, and sales outcomes, and submit reports to team leaders10. Participate in team meetings, strategy sessions, and training programs to improve performance and enhance product knowledgeSkill(s) requiredClient Relationship Management (CRM)Effective CommunicationEnglish Proficiency (Spoken)English Proficiency (Written)Interpersonal skillsSalesSales StrategyEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 5 months                                    4. are from Pune only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Bachelor’s degree (business, marketing, or related field preferred)                                    2. Sales or business development experience (preferably EdTech)                                    3. Excellent communication and interpersonal skills                                    4. Experience with CRM tools and digital outreach                                    5. Strong organizational and multitasking abilities                                    6. Target-driven and self-motivated                                    7. Quick learner, adaptable to change                                    8. Customer-focused attitude                                    9. Team player                PerksCertificate Letter of recommendation Informal dress code Job offerAdditional informationStipend Structure:Fixed pay: ₹ 5,000 - 10,000 /month                    Incentive pay: ₹ 8,000 - 30,000 /month                     Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 600000/year Number of openings        6                        About GradX Academy                Website         GradX Academy is a next-generation EdTech platform on a mission to bridge the skill gap between traditional education and the real-world tech industry. We specialize in delivering high-impact training programs in salesforce, data cloud, marketing cloud, business development, and other in-demand technologies. Our courses are designed and delivered by industry experts with a focus on practical learning, real-time projects, and career transition support. We've helped hundreds of professionals and students land high-paying jobs and accelerate their careers in IT, even without prior tech backgrounds. At GradX Academy, we believe in "Learning by Doing." Join us to be part of a fast-growing team that's shaping the future of tech education and empowering the next generation of IT leaders.Activity on InternshalaHiring since July 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    We are looking to onboard enthusiastic individuals fluent in regional Indian languages to support our team in communication, content, and customer interaction across various geographies.Key Responsibilities:1. Provide verbal and written support in your native/regional language2. Assist in translating, localizing, or creating content in the required language3. Support internal teams with regional insights and communication4. Act as a cultural and linguistic bridge during outreach or onboarding activities5. Help with recruitment, feedback, and support operations related to your language groupSkill(s) requiredBengali Proficiency (Written)English Proficiency (Spoken)Gujarati Proficiency (Spoken)Hindi Proficiency (Spoken)Punjabi Proficiency (Spoken)Tamil Proficiency (Written)Telugu Proficiency (Written)Earn certifications in these skillsLearn Business CommunicationLearn FrenchWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 4 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Number of openings        10                        About EG Allied Private Limited                        Entire Globe Allied is in the IT services &amp; BPO industry. We offer our services globally and connect you to the world of innovation. We believe in providing the best solution to our clients by keeping the customer's satisfaction and the brand's reputation in mind. We frame our work with innovative ideas to get ahead of the global competition, which also helps us to provide our clients with high-quality services. We provide services in IT, customer engagement, accounting, and digital marketing.    Activity on InternshalaHiring since June 2021236 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1031,24 +1031,24 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:02</t>
+          <t>2025-07-22 11:20:25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-pune-at-gradx-academy1752919512</t>
+          <t>https://internshala.com/internship/detail/regional-language-specialist-internship-in-jaipur-at-eg-allied-private-limited1753160158</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Law/Legal</t>
+          <t>Technical Recruiter</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Conduct legal research and analysis on various matters2. Draft legal documents, contracts, and agreements3. Assist in preparing for court hearings and trials4. Review and analyze legal documents and correspondence5. Communicate with clients, attorneys, and other legal professionals6. Maintain and organize legal files and documentation7. Provide support to the legal team as neededAny other cross-functional team support if requiredSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-OfficeMS-WordEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    This role is not open to freshers; we require candidates with relevant experience.                                    The stipend will be based on the candidate’s skills and prior experience.                Number of openings        2                        About Movi Ecoserve Private Limited                        Movi Ecoserve works in sustainable technologies. We work majorly with the government and municipalities in pan India.     Activity on InternshalaHiring since February 202261 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Create clear, concise, and comprehensive technical documentation for software products, user manuals, and guides2. Collaborate with subject-matter experts and development teams to gather information and understand complex technical concepts3. Organize and present information in a user-friendly manner4. Edit and proofread content to ensure accuracy, consistency, and adherence to style guidelines5. Update and maintain existing documentation to reflect software updates and changes6. Continuously improve documentation processes and standards7. Adapt writing style to target different audiences effectivelySkill(s) requiredHuman ResourcesEarn certifications in these skillsLearn about RecruitmentLearn Human Resource ManagementWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 3 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Number of openings        10                        About EG Allied Private Limited                        Entire Globe Allied is in the IT services &amp; BPO industry. We offer our services globally and connect you to the world of innovation. We believe in providing the best solution to our clients by keeping the customer's satisfaction and the brand's reputation in mind. We frame our work with innovative ideas to get ahead of the global competition, which also helps us to provide our clients with high-quality services. We provide services in IT, customer engagement, accounting, and digital marketing.    Activity on InternshalaHiring since June 2021236 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1066,24 +1066,24 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:03</t>
+          <t>2025-07-22 11:20:26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/law-legal-internship-in-mumbai-at-movi-ecoserve-private-limited1752834353</t>
+          <t>https://internshala.com/internship/detail/technical-recruiter-internship-in-jaipur-at-eg-allied-private-limited1753160497</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Marketing &amp; Sales</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>About the internship    As a Project Management intern at VerboLabs, you will have the opportunity to work in a dynamic and fast-paced environment where your skills in Interpersonal communication, Effective Communication, and Time Management will be put to the test. Your role will involve collaborating with team members, clients, and vendors to ensure projects are completed successfully and on time. Key responsibilities:1. Assist in creating project plans and timelines2. Communicate project updates and progress to all stakeholders3. Coordinate with team members to delegate tasks and ensure deadlines are met4. Conduct research and analysis to support project objectives5. Assist in identifying potential risks and developing mitigation strategies6. Participate in meetings and provide input on project strategy and direction7. Maintain project documentation and ensure accuracy and completeness of recordsIf you are a proactive and driven individual looking to gain hands-on experience in project management, this internship is the perfect opportunity to expand your skills and make a real impact. Apply now and take the first step towards a rewarding career in project management at VerboLabs.Skill(s) requiredEffective CommunicationInterpersonal skillsTime ManagementEarn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Udaipur only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 240000 to 300000/year Number of openings        4                        About VerboLabs                LinkedIn page         VerboLabs is a leading language services company based in Bangalore, India. We are one of the top website &amp; human translation service providing agencies. Our great base of experienced native translators makes sure that every project is taken up sincerely and that the best efforts are put in to make it stand out in terms of quality.    Activity on InternshalaHiring since November 20227 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Reconnect with dormant leads through calls, emails, and WhatsApp2. Plan and execute simple email/WhatsApp campaigns to re-engage old leads3. Understand and log updated customer interest or reasons for inactivity4. Nurture and qualify leads using training and structured messaging guidelines5. Maintain accurate activity logs and notes in the CRM6. Collaborate with the sales team to pass on warm leads and insights7. Contribute creative ideas to improve follow-up communication and reactivation strategiesYou'll learn:1. Hands-on CRM usage and sales funnel management2. Planning and running targeted re-engagement campaigns3. Professional communication and strategic follow-up techniques4. Fundamentals of B2B sales and customer psychologyWho we're looking for:1. Strong written and verbal communication skills2. Interest in sales, digital marketing, or customer engagement3. Creative thinker with the ability to craft simple, effective messages4. Willingness to learn, take feedback, and work proactively5. Prior internship or campus experience in sales/marketing is a plusSkill(s) requiredClient Relationship Management (CRM)Digital MarketingEmail MarketingEnglish Proficiency (Spoken)English Proficiency (Written)Marketing Campaigns Marketing StrategySalesforceEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Informal dress codeNumber of openings        1                        About 32bytes                Website         32bytes is a leading multi-disciplined graphic design and communication studio providing both print and online solutions. It is a powerhouse of technical expertise, logical thinking, management skills as well as design excellence. Our handpicked team of young and talented designers and developers is being constantly trained to meet client demands in terms of schedules and quality of services rendered. We believe that the greatest success comes from solid designer-client collaboration, so everything we do for you will be based on discussion: we take the time to understand your business objectives and the motivations of your customers, because only then can we create a customized solution. We at 32bytes have a simple philosophy - We Deliver.    Activity on InternshalaHiring since September 202215 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1101,24 +1101,24 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:05</t>
+          <t>2025-07-22 11:20:26</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/project-management-internship-in-udaipur-at-verbolabs1752837603</t>
+          <t>https://internshala.com/internship/detail/marketing-sales-internship-in-kolkata-at-32bytes1753169618</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Human Resources (HR)</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>About the internship    Position: HR InternLocation: Jaipur (Onsite)Shift Timing: Day Shift (10:00 AM to 7:00 PM)Stipend:    15,000 per monthAbout the Role:We are looking for a motivated and enthusiastic HR Intern to join our team at our Jaipur office. This is a great opportunity for individuals who are passionate about building a career in human resources and wish to gain hands-on experience in a professional setting.Key Responsibilities:Assist in recruitment processes, including sourcing, screening, and scheduling interviews.Maintain and update employee records and HR databases.Support onboarding and orientation processes for new hires.Help in organizing employee engagement activities and events.Provide support for daily HR operations and administrative tasks.Handle documentation and assist in policy compliance.Requirements:Pursuing or recently completed a degree in Human Resources, Business Administration, or a related field.Strong communication and interpersonal skills.Proficiency in MS Office (Word, Excel, PowerPoint).Ability to multitask and prioritize tasks efficiently.Positive attitude and eagerness to learn.Skill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-WordRecruitmentEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn about RecruitmentWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 4 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        1                        About Softsensor.ai                Website         Softsensor.ai is a USA and India-based corporation focused on delivering outcomes to clients using data. Our expertise lies in a collection of people, methods, and accelerators to rapidly deploy solutions for our clients. Our principals have significant experience with leading global consulting firms &amp; corporations and delivering large-scale solutions. We are focused on data science and analytics for improving the process and organizational performance. We are working on cutting-edge data science technologies like NLP, CNN, and RNN and applying them in the business context.    Activity on InternshalaHiring since September 2019236 opportunities posted45 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    The selected intern's day-to-day responsibilities include:1. Create and manage engaging content across various social media platforms. Monitor and analyse social media trends to optimize campaigns.3. Create Google and FB Ads campaigns on display, search, and shopping networks.4. Plan and execute all marketing campaigns and contribute to revenue generation.5. Research and resolve HTML code and content, link architecture, and navigation issues6. Create copy for websites, marketing collateral, marketing blogs, marketing emails, etc.7. Organize and improve web-marketing initiatives &amp; content management using creative content writing, search engine-friendly copywriting, proofreading, and editing content rephrasing8. Analyze and maintain SERP positions for the keywords.9. Measure and report the performance of all digital marketing campaigns and assess against goals.10. Planning and monitoring the ongoing company presence on social media11. Launching optimized online advertisements to increase company and brand awareness.Skill(s) requiredDigital MarketingFacebook MarketingInstagram MarketingSearch Engine Marketing (SEM)Earn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Thane, Navi Mumbai, Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendationNumber of openings        2                        About BlueBit Systems                Website         Excellence, commitment, and transparency, these words aptly describe BlueBit Systems. We, at BlueBit Systems, endeavor to give you the world-class online marketing services for your business. We are a reservoir of young, smart, and hard-working professionals who share a common vision of growth with an immense sense of responsibility and bonding. We combine our experience with our creative skills and knowledge of the most updated technologies to provide solutions that meet our clients' needs.Our strength lies in digital marketing, search engine optimization (SEO), Google AdWords and Facebook ad campaigns, Google Analytics, reports and keyword ranking report generation, website development, designing, and maintenance, with a core focus on user-friendly, search engine friendly designs, and social media marketing.    Activity on InternshalaHiring since November 201663 opportunities posted19 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1136,24 +1136,24 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:05</t>
+          <t>2025-07-22 11:20:27</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-jaipur-at-softsensorai1752833768</t>
+          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-multiple-locations-at-bluebit-systems1753091557</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UI/UX Design</t>
+          <t>Campus Ambassador</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>About the internship    As a UI/UX Design intern, you will have the opportunity to work on cutting-edge projects and gain hands-on experience in the field. Your creativity and skills in Wireframing, UI and UX Design, Figma, Sketch, and Adobe Illustrator will be put to the test as you collaborate with our team to create user-friendly interfaces for our digital platforms.Key Responsibilities:1. Collaborate with the product officer to create wireframes and prototypes for new features and enhancements.2. Conduct user research and testing to gather insights and feedback for design improvements.3. Work closely with developers to ensure designs are implemented accurately and efficiently.4. Create visually appealing and intuitive designs that enhance the overall user experience.5. Stay up-to-date with the latest design trends and technologies to continually improve our products.6. Assist in the creation of design assets and style guides to maintain brand consistency.7. Participate in design reviews and provide constructive feedback to help refine design concepts. If you are a motivated and creative individual looking to jumpstart your career in UI/UX design, we want to hear from you! Join us and be part of a dynamic team that is shaping the future.Skill(s) requiredAdobe IllustratorFigmaSketchUI &amp; UX DesignWireframingEarn certifications in these skillsLearn FigmaLearn Rapid PrototypingLearn UI &amp; UX DesignLearn WireframingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 2 months                                    4. are from Coimbatore only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        1                        About HiFresh Agro Private Limited                        HiFresh Agro Private Limited is a startup focused on producing protein-rich food such as mushrooms and Spirulina, with strategic plans to expand into the export business of agricultural products such as millets, coir, and other agricultural produce where there is a demand.    Activity on InternshalaHiring since June 202416 opportunities posted8 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the Program    The Campus Ambassador will be responsible for communication, marketing, networking, and sales tasks on a day-to-day basis. The campus ambassador's day-to-day responsibilities include:1. Promotion and Outreach:- Share information about Gateway Abroad through word-of-mouth and digital platforms.- Utilize WhatsApp and other social media platforms to share information in college/school/university groups.2. Lead Generation:- Identify and engage with students interested in studying abroad.- Collect contact information and facilitate introductions to Gateway Abroad counselors.- Perform sales tasks assigned on a daily basis3. Event Coordination:- Collaborate with Gateway Abroad experts to organize workshops and seminars on study abroad processes.- Assist in coordinating logistics for events, including venue booking and attendee registration.- Be a crucial part of operations for setting up successful study abroad seminars in colleges.4. Feedback and Reporting:- Provide regular updates on promotional activities and their outcomes.- Gather feedback from students to help improve Gateway Abroad services.Learning opportunities        1. Gain experience in marketing, event planning, and public speaking.2. Receive guidance from Gateway Abroad professionals.3. Enhance your resume with leadership and outreach experience.4. Potential for performance-based incentives.    Skill(s) requiredDigital MarketingEffective CommunicationInterpersonal skillsMarketingMarketing Campaigns NetworkingSalesSocial Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. can start the part time job/internship between 21st Jul'25 and 25th Aug'25                                    2. are available for duration of 3 months                                    3. are from Ajmer, Jodhpur, Kota, Udaipur, Sikar, Jhunjhunu, Nagaur, Jaipur, Rajasthan only                                    4. have relevant skills and interests                    Other requirements                    1. Currently enrolled as a student at the college or university where you will serve as an ambassador.                                    2. Strong communication and interpersonal skills.                                    3. Experience or interest in marketing and sales                                    4. Active involvement in campus communities and organizations.                                    5. Passion for helping peers achieve their educational goals.                                    6. Ability to work independently and manage time effectively.                                    7. Convincing and marketing skills                                    8. Previous experience in a similar role is a plus                Rewards and incentives        1. An internship certificate will be provided - add weightage to your resume.2. Top performers will be considered for full-time roles.3. Exciting incentives upon reaching 10 conversions.    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekSelection procedure        Profile evaluation (Submission of resume and portfolio), following which interview will be conducted.    Number of openings        10                        About Gateway Abroad                Website         Gateway Abroad is managed by a team of British education consultants who have studied in various UK universities for several years. We maintain a robust network of overseas students and university staff across the UK. Leveraging this network and our extensive experience, we tailor solutions that best meet each student's specific requirements.Gateway Abroad serves as your direct gateway to British higher education. Choosing a university for postgraduate studies in a foreign country can be daunting. We assist you in selecting the right university based on your needs. Once you've made a preliminary choice, we handle all inquiries and admissions arrangements with the institutions on your behalf.    Activity on InternshalaHiring since November 202310 opportunities posted6 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1171,24 +1171,24 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:06</t>
+          <t>2025-07-22 11:20:28</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-coimbatore-at-hifresh-agro-private-limited1752838475</t>
+          <t>https://internshala.com/internship/detail/campus-ambassador-programme-at-gateway-abroad1753160731</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Search Engine Optimization (SEO)</t>
+          <t>Customer Success Associate Trainee</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Assist in creating backlinks through methods like citations, profile creation, classified ads, and blog commenting2. Conduct keyword research using SEO tools to identify high-performing search terms3. Perform competitor analysis to understand SEO strategies, backlink profiles, and keyword gaps4. Support in technical SEO audits and reporting5. Write and optimize meta titles and descriptions for improved CTR and SERP rankings6. Analyze website traffic and user behavior using tools like Google Analytics and Search Console7. Help in content optimization for blog posts, landing pages, and service pages based on SEO best practices8. Monitor and report daily/weekly keyword rankings and SEO performance metrics9. Research and list relevant directories and platforms for off-page SEO10. Stay updated with the latest SEO trends, Google algorithm updates, and industry tools11. Collaborate with the team to brainstorm and execute link-building strategies12. Support in on-page SEO elements such as header tags, image optimization, and internal linkingSkill(s) requiredComputer skillsEnglish Proficiency (Written)Google Keyword PlannerMicrosoft PowerAppsSearch Engine Optimization (SEO)Earn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn SEOWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Strong interest in digital marketing and content strategy                                    2. Ability to conduct online research and summarize findings clearly                                    3. Comfortable using spreadsheets (Google Sheets/Excel) for tracking SEO data                                    4. Eagerness to learn and stay updated on SEO trends and Google algorithm changes                                    5. Ability to follow instructions and meet deadlines                                    6. Self-motivated, proactive, and detail-oriented mindset                                    Bonus: Experience with WordPress or other CMS platforms                                    Bonus: Familiarity with ChatGPT or other AI tools for content ideation and SEO research                PerksCertificate Letter of recommendation Informal dress codeNumber of openings        5                        About Jaipur SEO Company                Website         We are a bunch of relentless tech nerds aiming to grow ahead of digital trends. Having served businesses in 15+ domain verticals and 40+ business niches serving a wide array of audiences, we have delivered top organic positions and paid leverages through result-focused search marketing and digital branding services. We have been a service trusted by local businesses and inventive brands. A 95% target-achievement rate and 80% business retention figures define the crux of it.    Activity on InternshalaHiring since September 202313 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Manage customer relationships to ensure successful product use, retention, and satisfaction.2. Guide and support customers in becoming strong advocates for our products.3. Assist customers in achieving their goals using our solutions.4. Proactively identify and resolve common customer issues.5. Advocate for customer needs across various departments.6. Spot and develop opportunities for up-selling our products.7. Respond to customer queries via email and telephone.Skill(s) requiredClient Relationship Management (CRM)Effective CommunicationEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Perks5 days a weekNumber of openings        10                        About Jungleworks                Website         Jungleworks is a tech-loaded solution for your on-demand business. From customer-facing to delivery management and customer engagement platforms, we provide a technology suite for everything. Our product list consists of Yelo, Tookan, Panther, and Hippo.    Activity on InternshalaHiring since November 202426 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1206,24 +1206,24 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:07</t>
+          <t>2025-07-22 11:20:29</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/search-engine-optimization-seo-internship-in-jaipur-at-jaipur-seo-company1752846589</t>
+          <t>https://internshala.com/internship/detail/customer-success-associate-trainee-internship-in-multiple-locations-at-jungleworks1753170148</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Flutter Development</t>
+          <t>Domestic Sales Associate Trainee</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Develop secure, scalable, and high-performance mobile applications using modern frameworks and best practices2. Collaborate with backend developers and designers to integrate APIs and deliver seamless user experiences3. Support and mentor teammates by reviewing code, sharing knowledge, and assisting with mobile development challengesSkill(s) requiredDartFlutterEarn certifications in these skillsLearn Andoid App DevelopementLearn Android App DevelopmentLearn Git &amp; GithubWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Ahmedabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Candidates currently pursuing a degree in computer science, information technology, or related fields are preferred                                    2. Must possess a strong willingness to learn and adapt in a fast-paced environment                                    3. Basic understanding of programming concepts, mobile app development (Flutter/React Native/Android/iOS), and UI/UX principles is a plus                                    4. Good communication skills and the ability to work collaboratively in a team                                    5. A proactive attitude with a problem-solving mindset is highly desirable                                    6. Eagerness to take on challenges and contribute to real-world projects                PerksCertificate Letter of recommendation Informal dress code Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 4,000 - 7,000 /month                    Incentive pay: ₹ 1,000 - 3,000 /month                     Number of openings        3                        About Arhant Solutions                Website         Arhant Solutions is an IT services company based in Ahmedabad. We offer expert solutions tailored to meet your business needs with cutting-edge technology and dedicated support.    Activity on InternshalaHiring since December 20245 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1.  Learn to identify and qualify potential leads under the guidance of experienced mentors2. Conduct market research and build a strong sales pipeline3. Develop effective communication and presentation skills to engage with potential clients4. Conduct product demos and address client queries5. Learn to negotiate deals, overcome objections, and close sales to achieve targets6. Build strong relationships with clients and foster long-term partnerships7. Utilize CRM tools to track sales activities, manage leads, and analyze performance metrics8. Stay updated with industry trends, product knowledge, and sales techniques through regular training and development programsRequirements:1. Hold a recent Bachelor's degree in any field2. Demonstrate strong communication and interpersonal skills3. Show enthusiasm for sales and a desire to learn4. Stay self-motivated and results-oriented5. Possess basic knowledge of Google SuiteSkill(s) requiredCustomer SupportEffective CommunicationSalesEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Perks5 days a weekNumber of openings        10                        About Jungleworks                Website         Jungleworks is a tech-loaded solution for your on-demand business. From customer-facing to delivery management and customer engagement platforms, we provide a technology suite for everything. Our product list consists of Yelo, Tookan, Panther, and Hippo.    Activity on InternshalaHiring since November 202426 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1241,24 +1241,24 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:08</t>
+          <t>2025-07-22 11:20:29</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/flutter-development-internship-in-ahmedabad-at-arhant-solutions1752899652</t>
+          <t>https://internshala.com/internship/detail/domestic-sales-associate-trainee-internship-in-multiple-locations-at-jungleworks1753169730</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Content Marketing</t>
+          <t>Partner Onboarding (Marketing)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Research &amp; trends: Conduct research on travel trends, destinations, and audience preferences to produce relevant and impactful content.2. Product content enhancement: Add engaging and persuasive content for our travel products, ensuring descriptions are compelling, informative, and aligned with our brand voice and marketing objectives.3. Content marketing: Assist in planning and implementing content marketing campaigns across digital platforms.4. SEO &amp; analytics: Learn and apply SEO best practices; monitor content performance and provide insights for optimization.5. Collaboration: Work closely with marketing, design, and product teams to ensure cohesive campaigns and messaging.6. Editing &amp; proofreading: Review and refine content to ensure accuracy, clarity, and consistency.Skill(s) requiredCreative WritingEffective CommunicationGoogle AdWordsMarketing Campaigns Search Engine Optimization (SEO)Earn certifications in these skillsLearn Creative WritingLearn Google AdWordsLearn SEOWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Other requirements                    1. Creative thinker with a passion for travel and digital storytelling.                                    2. Strong writing and communication skills in English.                                    3. Understanding of social media, digital marketing, and basic SEO principles.                                    4. Ability to research, analyze trends, and adapt content accordingly.                                    5. Team player with strong collaboration and organizational skills.                                    6. Currently pursuing or recently graduated in marketing, mass communication, Journalism, English, or related fields.                                    7. Familiarity with Google Workspace (Docs, Sheets) and basic knowledge of SEO is preferred.                                    8. Portfolio or writing samples showcasing your skills are a plus (optional but recommended).                PerksCertificateNumber of openings        1                        About Travel Lykke Private Limited                Website         We are a travel brand curating unique, experiential &amp; sustainable holidays for you. Our trips are not limited to usual travel arrangements. We design unique, immersive experiences that make their mark in your heart. We also believe in sustainable tourism. We try to make our trips as environmentally friendly as possible and engage local communities in the destinations. Other than the usual blah blah blah, we are a bunch of youngsters, insanely passionate about travel. We think of you as our future friends and not just customers.    Activity on InternshalaHiring since February 202527 opportunities posted13 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Assist in identifying and reaching out to potential B2B clients for facility management services.2. Support the onboarding process of service partners/vendors across various regions.3. Coordinate and follow up with partners throughout the documentation and activation stages.4. Conduct market research to analyze demand-supply gaps in the facility management sector.5. Collaborate with operations and marketing teams to ensure seamless partner onboarding.6. Maintain and update accurate data records and progress tracking using internal tools and systems.Skill(s) requiredClient Relationship Management (CRM)CollaborationEffective CommunicationLead GenerationMarketingMarket researchMS-ExcelProblem SolvingTime ManagementEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Market researchLearn MS-ExcelLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    Other requirements                    1. Available for a full-time, in-office internship in Pune.                                    2. Committed to a minimum duration of 3 to 6 months.                                    3. Holds a PGDM/MBA degree in marketing or is currently pursuing one.                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        1                        About Inspacco                LinkedIn page         Inspacco was founded in 2019 and is led by IIM alumni and armed forces professionals to provide affordable improvement and maintenance services. We are a one-stop solution for all residential, commercial, and industrial establishments. We gained the trust of more than 100+ large customers in the span of one year. Our mission is to provide the highest quality products and services in the improvement and maintenance portfolio for residential, commercial, and industrial spaces at affordable prices. Our vision is to become a leader in improvement and maintenance-related services by delivering superior value to our customers.    Activity on InternshalaHiring since December 202451 opportunities posted19 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1276,24 +1276,24 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:08</t>
+          <t>2025-07-22 11:20:30</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/content-marketing-internship-in-jaipur-at-travel-lykke-private-limited1752844515</t>
+          <t>https://internshala.com/internship/detail/partner-onboarding-marketing-internship-in-pune-at-inspacco1753169808</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Business Development (Sales)</t>
+          <t>Semi CA - Tax Advisory</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities:1. Generate leads and prospect potential clients2. Provide support to the sales team in daily operations3. Conduct market and competitor research to identify opportunities4. Interact with customers to understand their needs and build relationships5. Gain a thorough understanding of the product and its value propositionSkill(s) requiredE-commerceEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Palghar, Thane, Navi Mumbai, Mumbai only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress code Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 240000 to 300000/year Number of openings        2                        About Vamaship                Website         Vamaship is a tech-driven logistics aggregator that empowers e-commerce sellers across India. By partnering with leading courier services like BlueDart and Delhivery, Vamaship streamlines shipping through real-time tracking, delivery &amp; returns management, COD management, and timely communication at critical milestones. As an intern, you'll gain hands-on experience in a dynamic environment, learning about cutting-edge supply chain technology while helping create seamless shipping solutions for growing online businesses.    Activity on InternshalaHiring since July 20253 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Are you a semi-CA student with a passion for tax advisory and expertise in taxation? Join our team at ClearTax as a tax advisory intern and gain hands-on experience in tax planning and compliance. As an intern, you will work closely with our team of experts to provide valuable insights and solutions to our clients. Your role will be essential in ensuring that our clients are compliant with tax laws and regulations while maximizing their tax savings. Selected intern's day-to-day responsibilities include: 1. Conduct research on tax laws and regulations to provide accurate and timely advice to clients.2. Assist in preparing and reviewing tax returns for individuals and businesses.3. Collaborate with senior team members to analyze financial data and identify tax savings opportunities.4. Communicate effectively with clients to address their tax-related queries and concerns.5. Stay up-to-date on changes in tax laws and regulations to ensure compliance.6. Assist in the development of tax planning strategies for clients to minimize tax liabilities.7. Participate in training sessions and workshops to enhance your knowledge and skills in Tax Advisory. If you are looking for a challenging and rewarding internship opportunity in the field of Tax Advisory, apply now and take the first step towards a successful career in taxation with ClearTax.Skill(s) requiredTaxationEarn certifications in these skillsLearn Financial modeling valuationLearn Personal FinanceLearn Stock Market TradingLearn Business AnalyticsLearn TallyWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Free snacks &amp; beveragesNumber of openings        10                        About ClearTax                Website         ClearTax is Asia's fastest-growing fin-tech and India's largest website to file income tax returns. ClearTax aims to simplify the tax filing process to empower millions of Indians and remove the fear of taxes.    Activity on InternshalaHiring since March 2022335 opportunities posted80 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1311,24 +1311,24 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:09</t>
+          <t>2025-07-22 11:20:31</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-multiple-locations-at-vamaship1752924797</t>
+          <t>https://internshala.com/internship/detail/semi-ca-tax-advisory-internship-in-bangalore-at-cleartax1753169763</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Content Writing</t>
+          <t>Interior Design</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Crafting engaging, informative, and original content tailored to the target audience, ensuring it aligns with the brand's voice and messaging2. Reviewing and refining content for clarity, grammar, style, and coherence, ensuring all written materials adhere to established guidelines and are polished for accuracy and consistency3. Conducting thorough research on relevant topics to provide valuable insights and data to support content creation4. Analyzing audience engagement metrics to inform content strategy and improve future writing effortsSkill(s) requiredBloggingCreative WritingDigital MarketingEnglish Proficiency (Spoken)English Proficiency (Written)MS-OfficeSearch Engine Optimization (SEO)Social Media MarketingEarn certifications in these skillsLearn Creative WritingLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn MS-ExcelLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Ahmedabad, Gandhinagar only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        4                        About Even Insight Technology                Website         Even Insight Technology is expanding its reach into internet content creation and cybersecurity, recognizing the critical need for robust digital solutions in today's interconnected world. With a focus on innovative content strategies, the company aims to engage audiences while enhancing brand visibility across various platforms. Even Insight Technology is poised to lead in both realms, providing comprehensive services that meet the diverse needs of modern businesses.Activity on InternshalaHiring since October 20247 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. 2D Drafting: Prepare and update technical drawings, floor plans, and furniture layouts using AutoCAD or equivalent software.2. 3D Visualization: Create 3D models using our cloud-based interior design software to assist with client presentations and design development.3. Material Coordination: Assist in sourcing materials, maintaining sample libraries, and coordinating with vendors for finishes, furniture, and fittings.4. Client Interaction Support: Help in appointment rescheduling and maintaining communication logs with clients and vendors.5. Site Visits: Accompany project managers on site visits to understand project progress, execution challenges, and on-site design decisions.6. Documentation: Support the team with documentation, BOQs, mood boards, and site reports.Skill(s) requiredAutoCADEffective CommunicationMS-ExcelMS-WordEarn certifications in these skillsLearn AutoCADLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 28th Jun'25 and 21st Aug'25                                    3. are available for duration of 6 months                                    4. are from Noida, Delhi only                                    5. have relevant skills and interests                    Other requirements                    Interior design student or recent graduate.                                    Familiarity with AutoCAD and basic 3D tools; willing to learn our cloud-based platform.                                    Strong sense of design and keen attention to detail.                                    Good communication and organizational skills.                                    Eagerness to learn, take initiative, and adapt in a fast-paced environment                PerksCertificate Letter of recommendation Informal dress codeNumber of openings        1                        About Shivani Jain                        I am the founder and Interior designer at Artsy Corner studio, a boutique interior design practice where we transform everyday living into extraordinary experiences. With a passion for design that began in my childhood     sketching layouts and browsing d  cor magazines with my mother     I've nurtured this love into a profession that balances creativity, functionality, and personal expression.At Artsy Corner, we specialize in residential interiors, particularly for clients who value timeless aesthetics, thoughtful spatial planning, and a sense of warmth. Our work often blends global influences with rich, grounded palettes and sustainable materials. What sets us apart is our collaborative approach we listen intently, understand our clients' lifestyle aspirations, and design spaces that are deeply personal yet beautifully elevated.    Activity on InternshalaHiring since June 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1346,24 +1346,24 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:09</t>
+          <t>2025-07-22 11:20:32</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/content-writing-internship-in-multiple-locations-at-even-insight-technology1752818190</t>
+          <t>https://internshala.com/internship/detail/interior-design-internship-in-multiple-locations-at-shivani-jain1751425437</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Front End Development</t>
+          <t>Football Coaching</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1.Ensuring the technical feasibility of UI/UX designs and optimizing applications for speed and scalability2.Debugging and resolving frontend issues and browser compatibility problems3.Developing user-facing features using HTML, CSS, JavaScript, and modern frameworks like React.js or Vue.jsSkill(s) requiredCSSHTMLJavaScriptNext.jsReactEarn certifications in these skillsLearn AngularLearn CSSLearn HTMLLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn Node.JSLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 360000/year Number of openings        2                        About Gurucool                Instagram page         Gurucool is an online platform for astrology and Kundli predictions from the best astrologers in India. Users can talk to astrologers on call or live chat. They can also opt for a complete annual astrological report or post a question on astrology. Astrology questions could be on any subject, from marriage and love life to career or health.    Activity on InternshalaHiring since April 2019751 opportunities posted90 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About part time job/internship    Selected intern's day-to-day responsibilities include:1. Working with kids aged 18 months - 5 years2. Working with the Head Coach to regularly improve your level of coaching3. Assisting the lead coach in taking sessions4. Ensuring the kids are actively participating in the games5. Observing and learning how the lead coach takes sessions6. Speaking to the parents about their child's performance7. Starting to lead sessions once you're ready8. Assisting/Leading 1 to 2 sessions per day (duration of each session will be 1 hour) between 5 to 7pm, Monday to Friday.Skill(s) requiredEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationLearn Creative WritingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Good English communication skills                                    2. Animated and expressive                                    3. Good level of fitness                                    4. Highly energetic                PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        4                        About Little Kickers India                Website         Little Kickers started in the UK in 2002. We have two core beliefs that we take into every session. Firstly, we believe in something we call "play not push". It means teaching football in a fun, pressure-free environment. We want to give children a positive introduction to sports as a whole, not just football, so they're more likely to stay healthy and active throughout their lives.Secondly, we believe football can be educational. Coached in the right way, it can stimulate imagination and aid early development skills such as learning colors and numbers, following instructions and playing as a team. With a network of 2250 coaches and over 300 franchises in 31 countries, we're now the world's biggest and most successful pre-school football academy and there's plenty more to come.    Activity on InternshalaHiring since November 201838 opportunities posted37 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1381,24 +1381,24 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:10</t>
+          <t>2025-07-22 11:20:33</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/front-end-development-internship-in-jaipur-at-gurucool1752902543</t>
+          <t>https://internshala.com/internship/detail/part-time-football-coaching-internship-in-mumbai-at-little-kickers-india1753160916</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Company Secretary (CS)</t>
+          <t>Accounts &amp; Operations</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Assisting with MCA-related tasks, including company incorporation, amendment of AOA/MOA, charge filing, and annual return and accounts filing2. Performing accounting work using accounting software3. Liaisoning with clients for documentation and compliance coordinationSkill(s) requiredAccountingEnglish Proficiency (Spoken)English Proficiency (Written)MS-ExcelMS-OfficeEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn TallyWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Number of openings        4                        About KNSG &amp; CO LLP                        The CA firm has 10 years of experience and works on all kinds of audit-related work, taxation work (income tax, GST, etc.), banking-related work like stock audits, and MCA-related work. We are offering the opportunity to work directly with CA Naman Singla (ex-KPMG) and CA Ripika Gupta (ex-ICICI) as a risk analyst.    Activity on InternshalaHiring since January 202316 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1408,32 +1408,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Data &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:11</t>
+          <t>2025-07-22 11:20:33</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/company-secretary-cs-internship-in-delhi-at-knsg-co-llp1752824459</t>
+          <t>https://internshala.com/internship/detail/accounts-operations-internship-in-mumbai-at-chefyside-llp1753158845</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Business Development (Sales)</t>
+          <t>Python Development</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities: 1. Research and identify potential colleges and institutions for program partnerships2. Approach college principals, HODs, and management to present Tutorac's offerings3. Conduct in-person or virtual meetings to pitch the Career Advancement Program4. Clearly explain program benefits and address any questions/objections from college management5. Get approvals and assist in signing MoUs and onboarding colleges6. Coordinate with Tutorac's central team for seminar scheduling and student engagement activities7. Maintain a database of colleges approached and prepare weekly progress reportsSkill(s) requiredBusiness DevelopmentClient RelationshipComputer skillsEnglish Proficiency (Spoken)English Proficiency (Written)MarketingSalesTelugu Proficiency (Spoken)Web developmentEarn certifications in these skillsLearn BootstrapLearn Business CommunicationLearn CSSLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn HTMLLearn MS-ExcelLearn PHPLearn Search Engine MarketingLearn SEOLearn Social Media MarketingLearn AngularJSLearn AngularLearn Node.JSLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 18th Jul'25 and 22nd Aug'25                                    3. are available for duration of 3 months                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    Other requirements                    1. Demonstrate excellent communication and persuasion skills in English and regional languages                                    2. Exhibit confidence while speaking to senior decision-makers like principals or directors                                    3. Show enthusiasm for career counseling, EdTech, and student empowerment                                    4. Display willingness to travel locally for college visits                                    5. Maintain self-motivation, target orientation, and eagerness to learn                PerksCertificate Letter of recommendation Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 480000/year Number of openings        4                        About Request IT Support                Website         Request IT Support is a national mid-sized consulting firm positioned between the small boutiques and the big six   big enough for great opportunities and small enough for your accomplishments to be noticed and recognized. We specialize in delivering superior-quality consulting and staffing solutions to our client partners, enabling them to compete in today's competitive and dynamic business environment.     Activity on InternshalaHiring since August 2024138 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    We're looking for a Python Developer Intern who's passionate about writing clean, scalable code and building backend systems that power real-world applications. As a Python intern, you'll work closely with the backend and product teams to build APIs, manage databases, and integrate with AI-driven features.This is a hands-on, in-office internship for 6 months with a strong possibility of a full-time PPO based on your performance.Key Responsibilities:1. Write and maintain scalable, reusable code using Python2. Assist in building and managing REST APIs to power product features3. Work with databases like MongoDB for storing and querying structured/unstructured data4. Collaborate with the backend team to integrate AI models and automation workflows5. Support basic infrastructure setup using tools like Docker6. Participate in code reviews, internal testing, and debugging7. Document functionality and contribute to improving development workflowsSkill(s) requiredDjangoGitPythonSQLEarn certifications in these skillsLearn Git SVNLearn GitLearn MS SQL ServerLearn MySQLLearn PostgreSQLLearn PythonLearn Voice App DevelopmentLearn SQLWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Thane, Navi Mumbai, Mumbai, Panvel only                                    5. have relevant skills and interests                    PerksCertificate Flexible work hours Informal dress code 5 days a weekNumber of openings        1                        About Grexa AI Private Limited                Website         Empowering growth for local businesses. Grexa AI is building AI business assistants to help local businesses leverage the latest technology.    Activity on InternshalaHiring since April 202457 opportunities posted30 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1451,24 +1463,24 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:11</t>
+          <t>2025-07-22 11:20:34</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-request-it-support1752898271</t>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-multiple-locations-at-grexa-ai-private-limited1753160574</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Social Media Assistance</t>
+          <t>Dietetics/Nutrition</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Post daily stories to engage the audience2. Publish content on the grid every day3. Brainstorm and create fresh, engaging content4. Edit videos to enhance quality and impactSkill(s) requiredCanvaEffective CommunicationVideo MakingEarn certifications in these skillsLearn Adobe Premiere ProLearn Video EditingLearn Creative WritingLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 3 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Someone who loves posting on social media                                    2. Someone who understands how social media works and audience preferences                                    3. Someone who understands Instagram and how to work the algorithm                PerksCertificate Letter of recommendationNumber of openings        1                        About The Mould Story                Website         We are a D2C brand that sells silicone molds to artists and creators. Our e-commerce website is www.themouldstory.com. Our goal is to help our customers grow their businesses by creating wonderful products that appeal to a range of customers. Our company is only 2 years old but leads the way in the manufacture and supply of quality molds for resin art, and our range is soon going to expand to other mediums as well.     Activity on InternshalaHiring since August 202324 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Develop and implement customized nutrition plans based on Ayurvedic principles2. Conduct nutritional assessments and provide dietary guidance3. Research and create educational materials on nutrition and Ayurveda4. Collaborate with the wellness team for comprehensive client care5. Monitor and document client progressSkill(s) requiredDietetics/NutritionEnglish Proficiency (Written)MS-ExcelEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    Other requirements                    1. Currently pursuing or recently completing a degree in nutrition, dietetics, or a related field                                    2. Possess an interest in holistic health and Ayurveda is preferred                                    3. Strong communication and interpersonal skills                                    4. Possess the ability to work independently and in a team                PerksCertificate Informal dress codeNumber of openings        3                        About Ayurveda House Private Limited                Website         Ayurveda is committed to enhancing holistic health and wellness through traditional Ayurvedic practices and products. Our mission is to provide natural and effective solutions for a healthier lifestyle by blending the ancient wisdom of Ayurveda with contemporary wellness needs. Discover the benefits of 100% genuine Ayurvedic health and personal care products from Ayuvya. We are dedicated to bringing the richness of Ayurvedic tradition into the modern world, offering quality products through our Ayuvya app, your one-stop destination for all Ayurvedic health and beauty needs.    Activity on InternshalaHiring since June 2023888 opportunities posted10 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1486,24 +1498,24 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:12</t>
+          <t>2025-07-22 11:20:34</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/social-media-assistance-internship-in-mumbai-at-the-mould-story1752925393</t>
+          <t>https://internshala.com/internship/detail/dietetics-nutrition-internship-in-delhi-at-ayurveda-house-private-limited1753165488</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UI/UX Design</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Co-create user flows and interfaces for real entertainment products, web experiences, and story-first platforms2. Assist with wireframing, prototyping, and interaction design in Figma (and beyond)3. Help shape gamified UX concepts that mix storytelling, animation, and feedback loops4. Collaborate with storytellers, strategists, devs, and weird creatives to bring new digital formats to life5. Research player psychology, web mechanics, and the fine line between joy and rage-quit6. Bring structure to creative chaos     and chaos to creative structureSkill(s) requiredCreative ThinkingDesign ThinkingTechnical AnalysisTime ManagementUI &amp; UX DesignEarn certifications in these skillsLearn FigmaLearn Rapid PrototypingLearn UI &amp; UX DesignLearn WireframingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 19th Jul'25 and 23rd Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Are graduating in 2025 or 2026 (design school, bootcamp, or self-taught — we care about your mindset, not your certificate)                                    2. Are fluent in UI/UX building tools                                    3. Are excited about interactive storytelling, user behavior, and playful design thinking                PerksCertificate Letter of recommendation Informal dress code Free snacks &amp; beveragesNumber of openings        3                        About OI Communications                        Opinion Incubator (OI) is not a production house. It's a beautifully weaponized idea factory. Born from the mischievous minds behind Red Ice Films, OI marries award-winning storytelling with devilishly precise production craft. We don't chase trends, we seduce them. In a world drowning in content, we create stories that slap, sting, and stay. We don't just make shows; we stage revolutions, irresistible frames at a time.    Activity on InternshalaHiring since July 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Collaborate with our experienced founder, who has over 8 years of freelancing experience, on developing cutting-edge web tools with a focus on AI.2. Assist in the design, development, and deployment of responsive and user-friendly web applications.3. Take part in brainstorming sessions, contribute creative ideas, and help shape the direction of our projects.4. Conduct research and stay up-to-date with the latest web development trends, tools, and technologies.Requirements:1. A passion for web development and a strong desire to learn and grow in a startup environment.2. Familiarity with modern JavaScript frameworks like ReactJS or VueJS.3. Basic knowledge of HTML, CSS, and JavaScript.4. Good problem-solving skills and a willingness to tackle challenges head-on.5. Excellent communication skills and the ability to work collaboratively as part of a team.6. Self-motivated with the ability to work independently and manage time effectively.Perks and Benefits:1. Gain invaluable hands-on experience and learn from an experienced founder who has worked with various companies and startups.2. Collaborate with a diverse and passionate team of professionals.3. Opportunity for a full-time role with Blaziken Technologies if the internship is successful.Skill(s) requiredCSSHTMLJavaScriptPythonEarn certifications in these skillsLearn CSSLearn HTMLLearn PythonLearn AngularLearn Node.JSLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn Voice App DevelopmentLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Free snacks &amp; beveragesNumber of openings        2                        About Blaziken Technologies Private Limited                        We are a software development agency that builds websites, applications, and automation for firms and businesses, while also working on new innovative AI products.    Activity on InternshalaHiring since July 20239 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1521,24 +1533,24 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:12</t>
+          <t>2025-07-22 11:20:35</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-mumbai-at-oi-communications1752919460</t>
+          <t>https://internshala.com/internship/detail/software-development-internship-in-mumbai-at-blaziken-technologies-private-limited1753160552</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Industrial And Production Engineering</t>
+          <t>Graphic Designing &amp; Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Learn the manufacturing setup2. Work on production management and planning3. Work on research and development activitiesSkill(s) requiredIndustrial automationMechanical &amp; Electrical Product DesignEarn certifications in these skillsLearn CATIALearn Industrial Automation using PLCSolidWorksWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 17th Jul'25 and 21st Aug'25                                    3. are available for duration of 3 months                                    4. are from Ujjain only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About Rock Engines Private Limited                        Rock Engines Private Limited is a pioneer in the manufacturing of quick oil chamber clean machines and a leading supplier to PSUs, PAN India.     Activity on InternshalaHiring since March 20216 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About part time job/internship    Intern's Day-to-Day Responsibilities Include:     Graphic Design &amp; Content CreationDesign engaging graphics for our brand and client projects - including social media posts, packaging, website assets, and ad creativesEdit and produce promotional videos and reels for digital campaigns and product marketingCome up with trendy, visually appealing design concepts based on market research and brand goalsSupport visual consistency across all platforms and assist in refreshing brand aesthetics as needed     Digital Marketing &amp; Social MediaManage brand and client social media pages (Instagram, Facebook, Pinterest), including scheduling posts, replying to messages, and maintaining engagementReach out to influencers for barter deals and collaborationsStrategically grow pages and keep them active with engaging and consistent contentHandle basic post automation and performance tracking using tools like Meta Business Suite, Canva Scheduler, or LaterConduct research on trends, competitors, and audience behavior to optimize content strategy        E-commerce, Listings &amp; Client CoordinationWork on setting up and optimizing Shopify or Wix websites for our brand and clients     layout design, SEO basics, mobile responsiveness, etc.Optimize Amazon listings     from product titles, bullet points, and A+ content to visualsTalk to clients directly to understand their design and marketing needsAssist in executing marketing campaigns across email, Meta Ads, and Amazon AdsContribute to brainstorming and execution of innovative campaigns and strategiesWhat We're Looking For:Strong visual eye and familiarity with Canva, Photoshop, or IllustratorInterest in e-commerce, social media, and digital brandingBasic understanding of website platforms like Shopify or WixStrong communication skills and the ability to manage multiple prioritiesA go-getter mindset     someone who can take initiative, learn quickly, and deliver creativelySkill(s) requiredAdobe IllustratorGraphic DesignSocial Media MarketingEarn certifications in these skillsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Digital ArtLearn Facebook MarketingLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 5 months                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 600000/year Number of openings        1                        About Chaitanya Chaudhary                        Koozy Up is India's first beverage fabric company. We build Koozy's/holders for beverages and glassware. We are currently a young company and engaging merchandising for bars is our next endeavour.    Activity on InternshalaHiring since October 20239 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1556,12 +1568,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:13</t>
+          <t>2025-07-22 11:20:36</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/industrial-and-production-engineering-internship-in-ujjain-at-rock-engines-private-limited1752747981</t>
+          <t>https://internshala.com/internship/detail/part-time-graphic-designing-digital-marketing-specialist-internship-in-faridabad-at-chaitanya-chaudhary1753167776</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1599,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1618,7 +1630,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1649,7 +1661,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1680,7 +1692,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1711,7 +1723,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1742,7 +1754,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1773,7 +1785,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1804,7 +1816,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1835,7 +1847,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1866,7 +1878,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1897,7 +1909,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1928,7 +1940,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1959,7 +1971,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -1990,7 +2002,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2021,7 +2033,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:26</t>
+          <t>2025-07-22 11:20:49</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2048,7 +2060,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2075,7 +2087,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2102,7 +2114,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2129,7 +2141,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2156,7 +2168,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2183,7 +2195,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2210,7 +2222,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2237,7 +2249,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2264,7 +2276,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2291,7 +2303,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2322,7 +2334,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2353,7 +2365,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2384,7 +2396,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2415,7 +2427,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2446,7 +2458,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-07-20 10:41:40</t>
+          <t>2025-07-22 11:21:03</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">

--- a/internships.xlsx
+++ b/internships.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Business Analysis</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Connect with the leads/clients. Gather the requirements from the Client and Create a detailed business analysis, abstract the problems, opportunities, and solutions for a business.2. Gather the requirements from the Client and Implement competitive analysis for clients to identify both offensive and defensive opportunities within the industry and thereby develop a sound strategy to enhance growth3. Capture the opportunities while dealing with threats in any sized market space4. Analyze and translate the client's requirements distinctly5. Stay updated with the latest processes and trends in the market6. Conduct meetings and presentations to share ideas and findings with the stakeholders7. Gather critical information to produce useful reports through these meetings8. Allocate resources and maintain cost efficiencyRequirements:1. Good communication, interpersonal skills, and confidence2. Strong decision-making skills3. Able to comprehend an organization's goals and problems and come up with the most suited solutionSkill(s) requiredBusiness AnalysisBusiness ResearchDigital MarketingEmail MarketingSocial Media MarketingUser Interface (UI) DevelopmentWindows Mobile Application DevelopmentEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 11th Jul'25 and 15th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours Job offerAdditional informationStipend Structure:Fixed pay: ₹ 2,500 - 10,000 /month                    Incentive pay: ₹ 100 - 2,500 /month                     Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 400000 to 700000/year Number of openings        10                        About Across The Globe (ATG)                        Across The Globe (ATG) connects students and professionals worldwide. We are a startup based in Bangalore and aim to assist individuals in excelling in their careers, professional endeavors, and personal lives. We have a product that meets the current demand and is valued at a billion dollars. It has the potential to benefit millions by enhancing career opportunities, providing direction, and building networks for those in need.    Activity on InternshalaHiring since January 20163479 opportunities posted783 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Are you a finance enthusiast with a knack for research and analytics? Are you proficient in financial modeling and MS-Excel? If so, BPlan Advisors Private Limited is looking for you to join our team as a Finance intern!1. Conduct in-depth financial research and analysis to support investment decisions2. Assist in developing financial models for forecasting and budgeting purposes3. Prepare detailed reports and presentations for clients and senior management4. Collaborate with team members to optimize financial strategies and improve business performance5. Utilize MS-Excel to organize and analyze large datasets efficiently6. Stay up-to-date on market trends and industry developments to provide informed recommendations7. Take on ad-hoc projects and tasks to support the overall finance teamIf you are a proactive and driven individual with a passion for finance, we want to hear from you! Join us at BPlan Advisors Private Limited and gain valuable hands-on experience in the finance industry. Apply now!Skill(s) requiredFinancial ModelingMS-ExcelResearch and AnalyticsEarn certifications in these skillsLearn Financial ModelingLearn MS-ExcelLearn Research and AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. are from Raipur only                                    5. have relevant skills and interests                    PerksCertificateNumber of openings        4                        About BPlan Advisors Private Limited                Website         BPlan Advisors is a strategic and investment consulting firm that has been actively working in the space for more than 5 years. We have deep expertise in industry insights, marketing, sector research, start-up advisory, technical collaborations, and building new businesses.    Activity on InternshalaHiring since January 202315 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,12 +506,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:12</t>
+          <t>2025-07-23 14:10:23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-business-analysis-internship-at-across-the-globe-atg1752251275</t>
+          <t>https://internshala.com/internship/detail/finance-internship-in-raipur-at-bplan-advisors-private-limited1753171420</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Are you a digital marketing enthusiast with a passion for SEM, SEO, Instagram, Facebook, and social media marketing? Join us at Across The Globe (ATG) as a Digital Marketing intern, where you'll have the opportunity to sharpen your skills and make a real impact on our global campaigns. Key Responsibilities:1. Collaborate with the marketing team to create and implement SEM strategies to drive website traffic and conversions.2. Optimize website content and metadata for SEO to improve search engine rankings and visibility.3. Create engaging Reels and UGC-style content for Instagram, TikTok, and other platforms4. Support social media advertising campaigns on Meta (Facebook &amp; Instagram) and YouTube5. Assist in SEO tasks such as keyword research, on-page optimization, and performance analysis6. Coordinate and track marketing projects, ensuring timelines and deliverables are met7. Collaborate with content, design, and ad teams for campaign execution8. Monitor campaign results and contribute to performance reports with actionable insightsSkill(s) requiredDigital MarketingEnglish Proficiency (Spoken)English Proficiency (Written)Facebook MarketingInstagram MarketingSearch Engine Marketing (SEM)Search Engine Optimization (SEO)Social Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 14th Jul'25 and 18th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Flexible work hoursNumber of openings        5                        About Across The Globe (ATG)                        Across The Globe (ATG) connects students and professionals worldwide. We are a startup based in Bangalore and aim to assist individuals in excelling in their careers, professional endeavors, and personal lives. We have a product that meets the current demand and is valued at a billion dollars. It has the potential to benefit millions by enhancing career opportunities, providing direction, and building networks for those in need.    Activity on InternshalaHiring since January 20163479 opportunities posted783 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Design a website2. Write blogs and create engaging content3. Execute email and calling-based marketing campaignsSkill(s) requiredBloggingContent WritingCreative WritingDigital MarketingEmail MarketingFacebook MarketingInstagram MarketingSearch Engine Optimization (SEO)Social Media MarketingEarn certifications in these skillsLearn Creative WritingLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 25th Jun'25 and 8th Aug'25                                    3. are available for duration of 6 months                                    4. are from Navi Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. BBA, BCom, BSc, BA, BCA, BTech or equivalent                PerksCertificateNumber of openings        5                        About YOURS FAITHFULLY ADVISORS LLP                Website         YF Advisors is a professional consulting and advisory firm offering a comprehensive range of financial, strategic, and business advisory services. Our team of experts is dedicated to guiding startups, SMEs, and large enterprises through complex financial landscapes, ensuring sustainable growth and compliance. With a client-centric approach, we specialize in tax advisory, corporate finance, investment planning, and regulatory support tailored to the evolving needs of modern businesses.    Activity on InternshalaHiring since June 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -541,24 +541,24 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:13</t>
+          <t>2025-07-23 14:10:24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-digital-marketing-internship-at-across-the-globe-atg1752515054</t>
+          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-navi-mumbai-at-yours-faithfully-advisors-llp1750842293</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>International Customer Service: The Coolest Weekend Internship</t>
+          <t>Fashion &amp; Design Coordination</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>About the internship    The coolest weekend internship is here!Get a chance to work with one of the most iconic brands, interact with international customers, and earn a prestigious certificate and a stipend of    13,000/- that turns heads. And yes, free food, snacks, and beverages too!All of this in a 8-day weekend internship as per the following schedule:Onboarding &amp; training (can be in any shift - day shift or the evening shift): 1. 28th July/13th August (Mon - Friday, onboarding)2. 17th August (Sun, training)3. 24th August (Sun, training)3. 30th &amp; 31st August (Sat &amp; Sun, training)Production i.e. actual working (night shift):1. 7th September (Sun)2. 14th September(Sun)3. 21st September (Sun)What will you do in the internship: 1. Provide excellent customer service over the phone.2. Adhere to program-defined quality standards.3. Stay informed about the latest information and updates.4. Perform tasks related to voice profiles.Since the internship requires interacting with international clients, you must possess excellent English-speaking skills. You must be comfortable with either the day shift or the evening shift on the training and onboarding dates and night shifts (only) on the production dates. Also, you would need to clear the training to proceed further with the production phase.The internship location would be in Bangalore. Please apply to this internship ONLY if you are available on the above dates and shifts and can arrange for your own transport to the office. Other than the stipend, no cab allowance would be provided. Free food/snacks and beverages would be available during cafeteria operating hours.Skill(s) requiredClient RelationshipEffective CommunicationEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 16th Jul'25 and 20th Aug'25                                    3. are available for duration of 1 week                                    4. are from Bangalore only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Graduate/Undergraduate.                                    2. Fresher/Experienced (any experience).                                    3. Should be comfortable working rotational day and night shifts on weekends.                                    4. Should be able to commute on their own.                PerksCertificate Free snacks &amp; beveragesAdditional information                The selection process would consist of 2 steps:1. Online application on Internshala 2. Face-to-face in-office assessment and interview for shortlisted candidates                Number of openings        130                        About Concentrix                Website         Concentrix Corporation (NASDAQ: CNXC), a Fortune 500 company, is the global technology and services leader that powers the world's best brands with their human-centered, tech-powered, intelligence-fueled approach. Every day, they help over 2,000 of the world's best brands across 70+ global markets . They design, build, and run fully integrated, end-to-end solutions at speed and scale across the entire enterprise, designing game-changing brand experiences, building, and scaling secure AI technologies, or running digital operations that deliver global consistency with a local touch.    Activity on InternshalaHiring since July 20248 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Key Responsibilities:1. Coordinate with designers and vendors for events and pop-ups2. Assist in curating collections or concepts in line with brand aesthetics3. Plan and execute mini fashion showcases and collaborations4. Support in styling and visual merchandising for shoots or displays5. Maintain effective communication and follow-up with design partnersCelebrity Secrets (our sister concern) is inviting interns with a background in fashion design and a flair for creativity to join our team as Fashion &amp; Design Coordination Interns. This role combines creativity with communication, offering a unique opportunity to work closely with designers and plan fashion-related pop-ups and events.Skill(s) requiredCollaborationCoordinationDesign ThinkingEffective CommunicationFashion DesigningFashion illustrationFashion StylingMarket researchMultitaskingTime ManagementVendor ManagementVisual DesignEarn certifications in these skillsLearn Market researchLearn Graphic DesignWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Have completed or are pursuing a degree/diploma in fashion design                                    2. Have a natural sense of style and creativity                                    3. Possess excellent English communication and interpersonal skills                                    4. Are well-organized and can manage coordination tasks smoothly                                    5. Are available for the full 6-month duration                                    6. Are based in or willing to relocate to Hyderabad                PerksCertificate Letter of recommendationNumber of openings        2                        About Edge &amp; Essence                Website         Welcome to Edge &amp; Essence, your ultimate lifestyle guide featuring trends in People, Health &amp; Wellness, Food, Beauty &amp; Fashion, Entertainment, Travel, and Art &amp; Culture. As a premium lifestyle monthly magazine, we invite forward-thinking businesses, brands, and innovators to collaborate with us. Together, we can captivate a highly engaged audience and make your brand stand out in the competitive marketplace.    Activity on InternshalaHiring since July 20256 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,24 +576,24 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:14</t>
+          <t>2025-07-23 14:10:25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/international-customer-service-the-coolest-weekend-internship-internship-in-bangalore-at-concentrix1752652254</t>
+          <t>https://internshala.com/internship/detail/fashion-design-coordination-internship-in-hyderabad-at-edge-essence1753252255</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>International Customer Service: The Coolest Weekend Internship</t>
+          <t>Photographer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>About the internship    The coolest weekend internship is here!Get a chance to work with one of the most iconic brands, interact with international customers, and earn a prestigious certificate and a stipend of    13,000/- that turns heads. And yes, free food, snacks, and beverages too!All of this in a 8-day weekend internship as per the following schedule:Onboarding &amp; training (can be in any shift - day shift or the evening shift): 1. 28th July /13th August (Mon - Fri, onboarding)2. 17th August (Sun, training)3. 24th  August (Sun, training)4. 30th &amp; 31st August (Sat &amp; Sun, training)Production i.e. actual working (night shift):1. 7th September (Sun)2. 14th September(Sun)3. 21st September (Sun)What will you do in the internship: 1. Provide excellent customer service over the phone.2. Adhere to program-defined quality standards.3. Stay informed about the latest information and updates.4. Perform tasks related to voice profiles.Since the internship requires interacting with international clients, you must possess excellent English-speaking skills. You must be comfortable with either the day shift or the evening shift on the training and onboarding dates and night shifts (only) on the production dates. Also, you would need to clear the training to proceed further with the production phase.The internship location would be in Hyderabad. Please apply to this internship ONLY if you are available on the above dates and shifts and can arrange for your own transport to the office. Other than the stipend, no cab allowance would be provided. Free food/snacks and beverages would be available during cafeteria operating hours.Skill(s) requiredClient RelationshipEffective CommunicationEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 16th Jul'25 and 20th Aug'25                                    3. are available for duration of 1 week                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Graduate/Undergraduate.                                    2. Fresher/Experienced (any experience).                                    3. Should be comfortable working rotational day and night shifts on weekends.                                    4. Should be able to commute on their own.                PerksCertificate Free snacks &amp; beveragesAdditional information                The selection process would consist of 2 steps:1. Online application on Internshala 2. Face-to-face in-office assessment and interview for the shortlisted candidates                Number of openings        50                        About Concentrix                Website         Concentrix Corporation (NASDAQ: CNXC), a Fortune 500 company, is the global technology and services leader that powers the world's best brands with their human-centered, tech-powered, intelligence-fueled approach. Every day, they help over 2,000 of the world's best brands across 70+ global markets . They design, build, and run fully integrated, end-to-end solutions at speed and scale across the entire enterprise, designing game-changing brand experiences, building, and scaling secure AI technologies, or running digital operations that deliver global consistency with a local touch.    Activity on InternshalaHiring since July 20248 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Capture high-quality photos of treatments, products, and behind-the-scenes content2. Assist in organizing and executing photo shoots for in-clinic and social media use3. Edit and retouch images for web and promotional purposes4. Collaborate with the design and marketing teams to align on visual content needs5. Maintain an organized photo archiveCelebrity Secrets is seeking a creative and detail-oriented Photography Intern to support our content and marketing team. This is a great opportunity for budding photographers to build their portfolio while gaining hands-on experience in a dynamic beauty and wellness environment.Skill(s) requiredAdobe Photoshop Lightroom CCCollaborationCreative DirectionCreative ThinkingEffective CommunicationFile ManagementImage EditingPhotographyPlanningStorytellingTeam ManagementVideographyEarn certifications in these skillsLearn PhotographyLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Have a good eye for aesthetics and composition                                    2. Possess basic knowledge of photography equipment and editing tools                                    3. Are passionate about beauty, fashion, and lifestyle content                                    4. Are available for the full duration of 6 months                                    5. Are based in or willing to relocate to Hyderabad                PerksCertificate Letter of recommendationNumber of openings        1                        About Edge &amp; Essence                Website         Welcome to Edge &amp; Essence, your ultimate lifestyle guide featuring trends in People, Health &amp; Wellness, Food, Beauty &amp; Fashion, Entertainment, Travel, and Art &amp; Culture. As a premium lifestyle monthly magazine, we invite forward-thinking businesses, brands, and innovators to collaborate with us. Together, we can captivate a highly engaged audience and make your brand stand out in the competitive marketplace.    Activity on InternshalaHiring since July 20256 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,24 +611,24 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:15</t>
+          <t>2025-07-23 14:10:26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/international-customer-service-the-coolest-weekend-internship-internship-in-hyderabad-at-concentrix1752652388</t>
+          <t>https://internshala.com/internship/detail/photographer-internship-in-hyderabad-at-edge-essence1753253671</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>International Customer Service: The Coolest Weekend Internship</t>
+          <t>Digital Marketing - Internship Program</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>About the internship    The coolest weekend internship is here!Get a chance to work with one of the most iconic brands, interact with international customers, and earn a prestigious certificate and a stipend of    13,000/- that turns heads. And yes, free food, snacks, and beverages too!All of this in a 8-day weekend internship as per the following schedule:Onboarding &amp; training (can be in any shift - day shift or the evening shift): 1. 28th July /13th August (Mon - Fri, onboarding)2. 17th August (Sun, training)3. 24th  August (Sun, training)4. 30th &amp; 31st August (Sat &amp; Sun, training)Production i.e. actual working (night shift):1. 7th September (Sun)2. 14th September(Sun)3. 21st September (Sun)What will you do in the internship: 1. Provide excellent customer service over the phone.2. Adhere to program-defined quality standards.3. Stay informed about the latest information and updates.4. Perform tasks related to voice profiles.Since the internship requires interacting with international clients, you must possess excellent English-speaking skills. You must be comfortable with either the day shift or the evening shift on the training and onboarding dates and night shifts (only) on the production dates. Also, you would need to clear the training to proceed further with the production phase.The internship location would be in Gurgaon. Please apply to this internship ONLY if you are available on the above dates and shifts and can arrange for your own transport to the office. Other than the stipend, no cab allowance would be provided. Free food/snacks and beverages would be available during cafeteria operating hours.Skill(s) requiredClient RelationshipEffective CommunicationEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 16th Jul'25 and 20th Aug'25                                    3. are available for duration of 1 week                                    4. are from Gurgaon only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Graduate/Undergraduate.                                    2. Fresher/Experienced (any experience).                                    3. Should be comfortable working rotational day and night shifts on weekends.                                    4. Should be able to commute on their own.                PerksCertificate Free snacks &amp; beveragesAdditional information                The selection process would consist of 2 steps:1. Online application on Internshala 2. Face-to-face in-office assessment and interview for shortlisted candidates                Number of openings        150                        About Concentrix                Website         Concentrix Corporation (NASDAQ: CNXC), a Fortune 500 company, is the global technology and services leader that powers the world's best brands with their human-centered, tech-powered, intelligence-fueled approach. Every day, they help over 2,000 of the world's best brands across 70+ global markets . They design, build, and run fully integrated, end-to-end solutions at speed and scale across the entire enterprise, designing game-changing brand experiences, building, and scaling secure AI technologies, or running digital operations that deliver global consistency with a local touch.    Activity on InternshalaHiring since July 20248 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    About UsAt BIIT Recruitment, we fuse specialist expertise with cutting-edge AI solutions to match high-calibre tech professionals with top employers across the UK and Europe. With a strong focus on SAP, IT, and project management roles, we help both SMEs and large organisations close talent gaps rapidly and effectively. Our efficient recruitment model ensures clients hire the right people to accelerate innovation and business success.We're currently seeking a Programme Internship for Digital Marketing who is creative, proactive, and excited to help build our brand presence, grow engagement, and drive inbound interest. Internship Overview-This internship offers hands-on exposure to AI-enabled marketing strategies and digital platforms. You'll collaborate with marketing and recruitment teams to design, develop, and execute campaigns across a range of channels. Key Responsibilities:1. Social Media: Plan, create, and schedule engaging posts for LinkedIn, Instagram, Twitter, and other platforms2. SEO &amp; Website Optimisation: Conduct keyword research, optimise website content, analyse traffic, and enhance organic reach3. WordPress &amp; Web Development: Maintain and update the website; familiarity with HTML, CSS, or JavaScript is a bonus4. Graphic Design: Produce visual assets using tools like Canva, Photoshop, or Illustrator5. Video Editing: Create short-form videos and explainers using Premiere Pro, CapCut, or similar software6. AI Marketing: Use platforms such as Instantly, ChatGPT, Jasper, and SurferSEO to streamline and strengthen campaigns7. Content Creation: Write blog articles, email newsletters, and content for recruitment campaigns8. Analytics &amp; Reporting: Monitor and report performance using Google Analytics, Meta Business Suite, and other tools9. Email Marketing: Assist in building and managing email marketing campaigns and automations Requirements:1. Currently pursuing or recently completed a degree in MBA, Marketing, IT, Computing, BCA, MCA, BE, BTECH, BBA, BSc Computer Science or related field.2. Familiar with SEO, website content management, and WordPress3. Experience with social media content creation and community engagement4. Proficient with design tools such as Canva, Photoshop, or Illustrator5. Basic understanding of video editing tools and formats6. Exposure to AI marketing platforms such as Jasper, make.com/n8n, SurferSEO, or 7. Strong writing and verbal communication skills8. Excellent organisational skills and attention to detail9. Creative thinker with a proactive, can-do attitude10. Bonus: Experience with Notion, Trello, Slack, Google Workspace or marketing automation toolsWhat You'll Gain:1. Real-world marketing experience in a fast-paced tech branding environment within UK and Europe markets 2. Practical training on AI-powered marketing tools and systems3. A diverse and professional digital marketing portfolio4. Certificate upon internship completion5. Performance-based incentives6. Potential full-time offer for exceptional performanceTraining &amp; Opportunities:We offer thorough training covering digital marketing, web development, and automation tools. This is a performance-based internship with no fixed stipend, though incentives may be earned throughout the training period. Top performers may be offered full-time positions with competitive compensation aligned to industry standards.Who Should Apply:This opportunity is ideal for individuals who are genuinely passionate about digital marketing, web technologies, and automation. We're looking for motivated learners eager to gain experience and contribute meaningfully.Skill(s) requiredDigital MarketingEnglish Proficiency (Spoken)English Proficiency (Written)Instagram MarketingSearch Engine Marketing (SEM)Search Engine Optimization (SEO)Social Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    PerksLetter of recommendationAdditional informationStipend Structure:Fixed pay: ₹ 15,000 - 30,000 /month                    Incentive pay: ₹ 10,000 - 15,000 /month                     Number of openings        3                        About BIIT                Website         We are a leading job agency that connects talented professionals with top companies. We specialize in matching skilled candidates with rewarding career opportunities and facilitating successful employment journeys.    Activity on InternshalaHiring since March 20247 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,24 +646,24 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:16</t>
+          <t>2025-07-23 14:10:27</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/international-customer-service-the-coolest-weekend-internship-internship-in-gurgaon-at-concentrix1752652486</t>
+          <t>https://internshala.com/internship/detail/work-from-home-digital-marketing-internship-program-internship-at-biit1753104648</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Travel &amp; Tourism</t>
+          <t>Video Editing/Making</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Assisting in preparing domestic and international tour itineraries and quotations2. Handling client inquiries via email, phone, and WhatsApp with prompt and professional communication3. Coordinating with airlines, hotels, and transport partners for bookings and follow-ups4. Supporting the visa documentation process for travelers5. Creating and posting engaging content on social media platforms for travel promotions6. Maintaining records of bookings, client details, and lead conversions7. Researching trending destinations and updating internal knowledge base8. Participating in internal meetings and training sessions9. Assisting walk-in clients at the office and providing information about available packages10. Preparing travel brochures and presentation materials for corporate clientsSkill(s) requiredEnglish Proficiency (Spoken)English Proficiency (Written)Holiday Package DesignInterpersonal skillsMS-ExcelTravel Itinerary MakingTravel ManagementEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelLearn Digital MarketingLearn PhotographyLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 12th Jul'25 and 16th Aug'25                                    3. are available for duration of 3 months                                    4. are from Uttar Pradesh only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Candidates pursuing or holding a degree/diploma in travel &amp; tourism, hospitality, or business administration will be preferred                                    2. Strong communication skills in English and Hindi                                    3. Basic knowledge of MS Office (Word, Excel, PowerPoint) is essential                                    4. Passion for travel, tourism, and customer service                                    5. Familiarity with travel portals, GDS systems, or ticketing platforms will be an added advantage                                    6. Candidates from or near Gorakhpur or willing to relocate will be preferred                                    7. Should be enthusiastic, punctual, and eager to learn                                    8. Preferably available for a full-time in-office internship (10 AM to 7 PM)                PerksCertificate Letter of recommendation Informal dress code Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 8,000 - 14,000 /month                    Incentive pay: ₹ 2,000 - 8,000 /month                     Number of openings        15                        About Royal Tour &amp; Travel India Private Limited                Website         Royal Tour &amp; Travel India Pvt Ltd is one of India's leading travel management companies, headquartered in Gorakhpur (U.P.), with branch offices in Lucknow, Delhi, Dubai, London, and New York. With over 15 years of experience in the travel and tourism industry, we specialize in outbound, inbound, and MICE travel, offering tailor-made travel experiences worldwide.We are an IATA-approved agency and proudly recognized by the Ministry of Tourism, Government of India. Our company is also affiliated with the major tourism industry, we are registered with Uttar Pradesh Tourism and actively promote regional tourism, especially the Buddhist Circuit, given our proximity to Kushinagar, the sacred land of Lord Buddha. We work closely with 15+ international tourism boards such as Visit Britain, Dubai Tourism, Switzerland Tourism, Malaysia Tourism, Oman Tourism, and Spain Tourism, delivering high-quality travel solutions for corporate clients, family vacations, group tours, and educational trips.    Activity on InternshalaHiring since July 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include: 1. Edit high-quality 1-2 Instagram Reels/shorts.2. Be responsive and stick to deadlines. 3. Create a storyboard for the edit and actually bring it to life.Skill(s) requiredAdobe After EffectsAdobe Premiere ProCreative ThinkingCreativityDaVinci ResolveFinal Cut ProVideo EditingEarn certifications in these skillsLearn Adobe After EffectsLearn Adobe Premiere ProLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 30th Jun'25 and 6th Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Extremely creative individuals.                                    2. Not afraid to share fresh ideas.                                    3. Open to experimentation with different styles of edit.                PerksFlexible work hours 5 days a weekNumber of openings        1                        About Hunny Singh                Instagram page         I run a creative agency, focused on Instagram content and growth. We help creators and entrepreneurs blow up on Instagram with catchy scripts, clean edits, and content that actually works.    Activity on InternshalaHiring since June 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -681,24 +681,24 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:17</t>
+          <t>2025-07-23 14:10:28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/travel-tourism-internship-in-multiple-locations-at-royal-tour-travel-india-private-limited1752467136</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-video-editing-making-internship-at-hunny-singh1751274475</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Auditing &amp; Accounting</t>
+          <t>Dietetics/Nutrition</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>About the internship    As an auditing &amp; accounting intern at GPMJ AND ASSOCIATES, you will have the opportunity to apply your knowledge of Tally, GST, MS-Excel, and Income Tax in a dynamic and fast-paced environment. Join our team and gain practical experience while working on real-world projects.Selected intern's day-to-day responsibilities include:1. Assist in auditing financial statements and conducting internal audits.2. Prepare and maintain financial records using Tally software.3. Assist in the preparation of GST returns and compliance documents.4. Analyze and reconcile financial data in MS Excel.5. Assist in the preparation of income tax returns for clients.6. Participate in meetings with clients and provide support on accounting and auditing matters.7. Stay up-to-date on accounting regulations and industry trends to ensure compliance and accuracy in financial reporting.If you are a detail-oriented and driven individual looking to kickstart your career in auditing and accounting, apply now to become a valuable member of our team at GPMJ AND ASSOCIATES.Requirements:    B. Com/BBA/BMS student planning to enroll Articleship immediately    Strong grasp of accounting principles, Tally, MS Excel    Excellent written and verbal communication skills    Detail-oriented, proactive, and eager to learn    Team player with a positive, professional attitude    Available to work full-time from our Indore officeSkill(s) requiredAccountingAccounting SoftwareAuditingBank ReconciliationFinancial AnalysisFinancial literacyFinancial ModelingFinancial ReportingGSTMS-ExcelTallyEarn certifications in these skillsLearn Stocks and TradingLearn Financial ModelingLearn MS-ExcelLearn TallyWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 8th Jul'25 and 12th Aug'25                                    3. are available for duration of 6 months                                    4. are from Indore only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours Informal dress codeAdditional information                • Hands-on training under experienced Chartered Accountants• Exposure to diverse assignments across audit, tax, and consultancy• Opportunity for career growth and potential pre-qualification employment                Number of openings        4                        About GPMJ AND ASSOCIATES                        GPMJ &amp; Associates is a leading chartered accountancy firm founded by seven experienced partners united by a shared vision of delivering trusted, comprehensive financial and compliance solutions. Established in 2013, we pride ourselves on integrity, excellence, and personalized service, helping businesses and individuals navigate accounting, audits, taxation, corporate finance, and advisory needs seamlessly under one roof.Our proven track record includes winning complex tax cases and providing strategic financial guidance that empowers our clients to grow confidently. With offices in Neemuch, Indore, and Rajasthan, we're your dependable partner for smart, reliable, and confidential professional services.    Activity on InternshalaHiring since May 20252 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Engage with clients via WhatsApp groups2. Conduct multiple daily check-ins to monitor their progress, moods, and challenges3. Respond promptly to their queries and concerns4. Help them make better food choices when dining out5. Offer gentle motivation and support through their health journeys6. Convert dietary guidelines into personalized weekly client plans7. Assist in preparing food swaps and healthy suggestions8. Track daily adherence and provide encouraging nudges where needed9. Manage call schedules with clients10. Send timely reminders and follow-ups11. Ensure all weekly and monthly check-ins are organized and on time12. Help with planning, creating, and scheduling Instagram posts13. Promptly respond to DMs and community queries14. Brainstorm wellness-focused content ideas15. Compile weekly/monthly client reports as needed16. Research updated strategies and tools to improve client progress17. Stay current with evolving trends in nutrition, gut health, hormones, and moreWhat You'll Gain:1. A strong foundation in holistic and practical health coaching2. Exposure to the real-world rhythm of client care and daily support systems3. Mentorship and learning directly under a practicing health coach4. A collaborative, high-integrity work culture5. A chance to contribute meaningfully and creatively6. Long-term growth opportunities if you shine Please include a short note on why you'd like to intern with us.Let's make health personal, powerful, and prompt     togetherSkill(s) requiredDietetics/NutritionEnglish Proficiency (Spoken)English Proficiency (Written)Social Media MarketingEarn certifications in these skillsLearn Business CommunicationLearn Facebook MarketingLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Fresh graduates or final-year students in Nutrition, Health Sciences, Psychology, Wellness, or related fields                                    2. Someone punctual, responsible, and proactive                                    3. Willing to go the extra mile with daily check-ins and client support                                    4. Excellent communicator who’s calm, empathetic, and clear                                    5. Familiarity with Canva, Instagram, Excel/Google Sheets is a bonus                                    6. A deep desire to make people feel seen, heard, and supported                PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        2                        About Inshaa Arora                Website         Inshaa graduated from the Institute for Integrative Nutrition where she learned innovative coaching methods, practical lifestyle management techniques, and over 100 dietary theories - Ayurveda, gluten-free, Paleo, raw, vegan, macrobiotics, and everything in between. She studied with the world's top health and wellness experts including Joshua Rosenthal - founder and director of the Institute for Integrative Nutrition, and Andrew Weil - MD, director of the Arizona Center for Integrative Medicine, etc.Inshaa's education has equipped her with extensive, cutting-edge knowledge in holistic nutrition, health coaching, and prevention. Drawing on her expertise, she works with her clients closely to help them make lifestyle changes and choose health-promoting ways that produce real and lasting results. You will develop a deeper understanding of food and lifestyle choices that work best for you, improving your energy, balance, health, and happiness.    Activity on InternshalaHiring since March 20217 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,24 +716,24 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:18</t>
+          <t>2025-07-23 14:10:28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/ca-articleship-internship-in-indore-at-gpmj-and-associates1751952926</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-dietetics-nutrition-internship-at-inshaa-arora1753248848</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Partnerships &amp; Outreach Associate - NGO Internship</t>
+          <t>Front End Development</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Research and identify government departments, education institutions, or NGOs aligned with our mission2. Reach out to relevant officials, educators, or partners via email/phone3. Schedule and coordinate meetings with potential collaborators4. Maintain follow-up records and action items5. Assist in documenting progress and preparing basic reports6. Support internal team operations and event planning (if any)Skill(s) requiredEffective CommunicationGoogle WorkspaceMS-OfficeTeam ManagementEarn certifications in these skillsLearn MS-ExcelLearn Business CommunicationLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 15th Jul'25 and 19th Aug'25                                    3. are available for duration of 2 months                                    4. are from Bangalore only                                    5. have relevant skills and interests                    Other requirements                    1. Strong communication skills (English + any local language preferred)                                    2. Curious, self-driven, and well-organized                                    3. Comfortable using Google Workspace (Docs, Sheets, Calendar)                                    4. Interest in social causes, public systems, or education reform                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeAdditional information                Company offers fuel allowance for roles requiring                Number of openings        2                        About United Angels                        United Angels India is a purpose-driven NGO committed to serving anyone in need regardless of category, cause, or background. We believe that compassion shouldn't be limited. From urgent interventions to ongoing community support, we act with heart, timing, and responsibility not just as a charity, but as a movement."If it affects a life, it matters to us."About NGO: https://www.instagram.com/unitedangelsindia?igsh=ODV0MDNqdW1zbmJt&amp;utm_source=qr    Activity on InternshalaHiring since July 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    This is a hands-on, in-office role where you will be a core part of our development team. Selected intern's day-to-day responsibilities include:1. Develop and maintain the front-end of our web application using React.js and Vanilla JS2. Collaborate with AI, leverage agentic workflows, and tackle real-world challenges3. Self-learn and implement the learning on real-world projects based on the guidance of the founding team4. Work with version control systems like Git in a collaborative team environmentSkill(s) requiredCSSHTMLJavaScriptNode.jsReactEarn certifications in these skillsLearn AngularLearn CSSLearn HTMLLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn Node.JSLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 16th Jul'25 and 21st Aug'25                                    3. are available for duration of 3 months                                    4. are from Bharuch, Bharuch INA only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Informal dress code Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 600000/year Number of openings        2                        About MileWeb                        We are a stealth-mode software company poised to revolutionize the intersection of artificial intelligence and user analytics. While we can't unveil all the details publicly just yet, you'll be joining us on the ground floor of building something truly innovative. As a core team member, you will be privy to our vision and product strategy after signing an NDA. This is a unique opportunity to be part of a forward-thinking team and to make a significant impact from the very beginning.    Activity on InternshalaHiring since July 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -751,24 +751,24 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:18</t>
+          <t>2025-07-23 14:10:29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/partnerships-outreach-associate-ngo-internship-internship-in-bangalore-at-united-angels1752754544</t>
+          <t>https://internshala.com/internship/detail/front-end-development-internship-in-multiple-locations-at-mileweb1752729475</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Customer Service Executive</t>
+          <t>Social Entrepreneurship</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>About the internship    This role is part of our Igniting Pride Internship program, where diverse talent fuels business growth. For LGBTQIA+ professionals, this 6-month paid internship offers hands-on experience, mentorship, and the chance to make a real impact.The Corporate Booking Executive is responsible for end-to-end coordination of corporate travel bookings, ensuring timely confirmation, vehicle assignment, vendor coordination, and proactive trip tracking. This role demands meticulous execution, timely communication, and high responsiveness to meet service level agreements (SLAs) for corporate travel needs.Booking management:1. Confirm bookings within defined minutes of request.2. Accept booking requests in CRM/TravelsMate within defined TAT3. Share vehicle and driver details with travelers 6 hours prior to the trip.Vendor coordination1. Send booking requests to vendors within the defined TAT.2. Follow up for vendor acknowledgment within SLA timelines.3. Coordinate with vendors to ensure timely dispatch of vehicle details.Execution and trip tracking:1. Conduct driver tracking and complete the video audit as per the defined timeline prior to pickup.2. Ensure pickup reach is tracked and verified within the defined minutes before the scheduled time.Platform-specific responsibilities: Monitor and manage advance bookings on TravelsMate.Step up. Be seen. Be heard. Let's spark something extraordinary together.Skill(s) requiredAnalytical ThinkingData AnalysisEffective CommunicationEmployment engagementGoogle SheetsMS-ExcelProblem SolvingResearch and AnalyticsTime ManagementEarn certifications in these skillsLearn MS-ExcelLearn Research and AnalyticsLearn Statistical ModelingLearn TableauWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 10th Jul'25 and 28th Jul'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    1. Candidates who have completed graduation                                    1. Eye for detail to ensure accurate documentation                                    2. Analytical skills to interpret data and plan actions                                    3. Process-oriented for handling expiry and compliance                                    4. Proficient in Excel or Google Sheets                                    5. Basic knowledge of B2C logistics (preferred)                                    6. Good communication for team coordination                                    7. Problem-solving skills for quick issue resolution                Additional information                1. This opportunity is exclusively open to candidates who identify as members of the LGBTQIA+ community.2. This is an immediate joining opportunity, and the candidate must be available for a 6-month, in-office internship.                Number of openings        5                        About Mahindra Logistics Limited                        Our promoter, Mahindra, and Mahindra Limited, through its logistics division, Mahindra Logistics, undertook the business of providing logistics solutions, warehousing, freight forwarding, and supply chain services. Our technology enabled the asset-light business model allows for scalability of services as well as the flexibility to develop and offer customized logistics solutions across a diverse set of industries. Mahindra Logistics operates in two distinct business segments: Supply Chain Management (SCM) and corporate People Transport Solutions (PTS).    Activity on InternshalaHiring since June 202416 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    As a social entrepreneurship intern, you will be working at the NayePankh Foundation, a non-profit organization dedicated to fostering economic, educational, and leadership opportunities for marginalized women and girls. You will be a key member of the team, working closely with the foundation's leadership to identify and develop social enterprise initiatives that will create a lasting positive impact on the target population.Selected intern's day-to-day responsibilities include:1. Working on social media campaigning - study our ongoing projects campaigning on social media2. Helping us in creating a bigger impact by coordinating awareness activities for our projects and ongoing initiative3. Conducting research and handling email work for proposals for fundraising4. Approaching social media influencers about our work5. Raising funds for the project to ensure continuity of our programs6. Reaching out to donors7. Maintaining a relationship with our already existing donorsSkill(s) requiredEffective CommunicationEarn certifications in these skillsLearn Creative WritingLearn Digital MarketingLearn Human Resource ManagementLearn Business CommunicationLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursNumber of openings        1000                        About NayePankh Foundation                        NayePankh Foundation is a UP government, 80G &amp; 12A registered NGO. Featured in The Pioneer, Dainik Jagran, Hindustan, and many more, we are also one of the biggest student-led organizations, working towards the uplifting of the underprivileged &amp; striving to support underprivileged people by all means. We also want to bring a change in society.    Activity on InternshalaHiring since November 20221611 opportunities posted38113 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,24 +786,24 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:19</t>
+          <t>2025-07-23 14:10:30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/corporate-booking-executive-oncall-internship-in-mumbai-at-mahindra-logistics-limited1749476423</t>
+          <t>https://internshala.com/internship/detail/work-from-home-part-time-social-entrepreneurship-internship-at-nayepankh-foundation1753179622</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fundraising</t>
+          <t>AI Vibe Marketing Manager</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Join Our Internship Program and Be a Changemaker! Are you ready to make a difference in the world? Tare Zameen Foundation invites passionate individuals like you to join our internship program and become part of a movement dedicated to creating positive change in society. As an intern with us, you'll have the opportunity to participate in meaningful projects and initiatives that address pressing issues facing our communities.Tasks that Transform Lives:1. Green Guardian: Plant a Tree - By becoming a Green Guardian2. Harmony Helper: Feed a Needy - In a world where millions go hungry every day, providing a meal to someone in need can make a world of difference.3. Stationery Samaritan: Give Tools for Tomorrow - Education is the key to unlocking opportunities and breaking the cycle of poverty. Let's support the next generation of changemakers by ensuring they have the tools they need to succeed.4. Fundraising Trailblazer: Raise Funds, Change Lives - Fundraising is more than just raising money; it's about mobilizing resources to create meaningful impact in the community. Be Recognized as a Changemaker.Those who complete these tasks will not only contribute to building a better society but also receive recognition for their efforts. Completing all tasks will earn you a Certificate of Completion of Internship. Achieve three tasks successfully, and you'll receive our prestigious Changemaker Award Certificate.Skill(s) requiredEffective CommunicationEnglish Proficiency (Spoken)English Proficiency (Written)Earn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 8th Jul'25 and 12th Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hoursAdditional informationStipend Structure:Fixed pay: ₹ 1,000 /month                    Incentive pay: ₹ 500 /month                     Number of openings        200                        About Tare Zameen Foundation                Website         Tare Zameen Foundation is a non-profit organization registered in the year 2018 in Delhi. Since its inception, the organization has been working for many causes like the upliftment of children, women, and the divyangjan. It has been reaching out to the unprivileged and underprivileged children by providing them with the means of education and has shown the women folk the way to empowerment through employment. It also has been campaigning for the 'Save Girl Child' program through awareness generation. It has also been engaged with the divyangjan and has been looking at connecting them with teachers and trainers to improve their skills and giving them a platform to share their achievements. Likewise, through its various activities, Tare Zameen Foundation is making a positive and lasting impact on their lives.    Activity on InternshalaHiring since May 2020547 opportunities posted73502 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include: 1. Develop and implement a comprehensive social media strategy to increase brand visibility and engagement through AI content.2. Create and curate engaging content for various social media platforms, including Instagram, Facebook, and YouTube.3. Manage and monitor all social media accounts, responding to comments and messages on time.4. Collaborate with the marketing team to create and execute social media campaigns that align with overall brand objectives.5. Utilize data and analytics to track social media performance and optimize content for maximum reach and engagement.6. Stay up-to-date on industry trends and best practices in social media marketing to continuously improve strategies.7. Collaborate with influencers and partners to expand brand reach and grow the social media following.Skill(s) requiredAI Image GenerationAI Video GenerationDigital MarketingFacebook MarketingGoogle AdWordsInstagram MarketingMarketing Campaigns Search Engine Marketing (SEM)Social Media MarketingYouTube AdsEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 24th Jun'25 and 20th Aug'25                                    3. are available for duration of 1 month                                    4. have relevant skills and interests                    Other requirements                    Bonus points if you have already worked at a media agency, ad agency, digital marketing agency, or led social media marketing and community building at another company successfully.                PerksFlexible work hoursAdditional informationStipend Structure:Fixed pay: ₹ 5,000 /month                    Incentive pay: ₹ 1,000 - 5,000 /month                                                         As an AI vibe marketing manager at Pave, you will have the exciting opportunity to lead our social media presence and engage with our audience through captivating content purely generated with AI. Your role will involve utilizing your expertise in AI image generation, AI video generation, Instagram marketing, digital marketing, YouTube ads, video making, and social media marketing to drive brand awareness and engagement.If you are a creative and strategic thinker with a passion for social media and digital marketing using AI, we want you to join our team at Pave. Apply now to take your career to the next level!                Number of openings        1                        About Pave                        Pave helps generate brand videos using AI within 5 minutes. No need to hire photographers or pay for expensive video shoots - zero shots, zero crew, only stunning videos purely using AI.    Activity on InternshalaHiring since December 20246 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -821,24 +821,24 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:20</t>
+          <t>2025-07-23 14:10:31</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-fundraising-internship-at-tare-zameen-foundation1751959813</t>
+          <t>https://internshala.com/internship/detail/work-from-home-ai-vibe-marketing-manager-internship-at-pave1750828324</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Semi Qualified CA - ITR</t>
+          <t>Mobile App Development</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>About the internship    Are you a diligent and detail-oriented  CA with a passion for taxation and statutory compliance? Join ClearTax as a SEMI CA - ITR Filing intern and gain hands-on experience in preparing and filing income tax returns for our clients. Key responsibilities:1. Assist in reviewing and analyzing financial documents for accurate ITR filing2. Ensure compliance with tax laws and regulations3. Collaborate with team members to resolve any tax-related issues4. Prepare and maintain records of client information and transactions5. Communicate with clients to gather necessary information for filing6. Stay updated on changes in tax laws and regulations7. Provide support in other tax-related tasks as neededIf you are eager to learn and grow in the field of taxation, this internship is perfect for you. Apply now and kickstart your career with ClearTax!Skill(s) requiredIncome TaxStatutory compliancesTaxationEarn certifications in these skillsLearn Stock Market TradingLearn Business AnalyticsLearn TallyLearn Personal FinanceWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 30,000 /month                    Incentive pay: ₹ 5,000 /month                     Number of openings        10                        About ClearTax                Website         ClearTax is Asia's fastest-growing fin-tech and India's largest website to file income tax returns. ClearTax aims to simplify the tax filing process to empower millions of Indians and remove the fear of taxes.    Activity on InternshalaHiring since March 2022335 opportunities posted80 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Mobile Development</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -856,24 +856,24 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:21</t>
+          <t>2025-07-23 14:10:32</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/semi-qualified-ca-itr-internship-in-bangalore-at-cleartax1753172022</t>
+          <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-gurgaon-at-bvr-technosoft-solution1753268064</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AI Expert – NLP, Chatbot &amp; Predictive Systems</t>
+          <t>Google Ad Specialist</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Develop NLP pipelines for chatbot and conversational AI tools using LLMs (OpenAI, Hugging Face, etc.).2. Design recommendation engines tailored to user behavior, preferences, and astrology data.3. Build predictive models for life-event forecasting using historical user and astrology data.4. Experiment with and implement research-backed approaches for continuous model improvement.5. Deploy and manage AI models on cloud or custom servers with end-to-end hosting, monitoring, and scaling.6. Collaborate with developers and domain experts (astrologers, psychologists) to fine-tune and enhance AI systems.Skill(s) requiredAmazon Web Services (AWS)Artificial intelligenceNatural Language Processing (NLP)Earn certifications in these skillsLearn Machine LearningLearn Deep LearningLearn Artificial IntelligenceLearn Computer VisionLearn Neural NetworksWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    Other requirements                    - Solid understanding of Python and ML libraries (NumPy, pandas, scikit-learn).                                    - Hands-on experience or strong interest in deep learning frameworks (TensorFlow, PyTorch).                                    - Familiarity with NLP tools and APIs – Hugging Face Transformers, OpenAI, spaCy, etc.                                    -Knowledge of REST APIs and how to deploy ML models on cloud servers or with Docker.                                    -Ability to read and implement academic research papers into real-world code.                                    Good to Have:                                    -Experience working with LLMs (GPT, BERT, LLaMA, etc.).                                    -Knowledge of chatbot frameworks like Rasa or LangChain.                                    -Exposure to recommendation algorithms (collaborative filtering, content-based, hybrid).                                    -Experience with MLOps tools (like MLflow, FastAPI, Kubernetes) is a plus.                                    -A research mindset with the ability to explore, iterate, and test innovative ideas.                PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        2                        About Vedaz                        Vedaz is the world's smartest astrology platform that helps predict the future. The AI-based tool analyses millions of predictions of top astrologers from India and the world and fine-tunes its results to give personalized recommendations to users. These recommendations are in the form of charts and suggestions for a better life and pujas to be conducted for the holistic well-being of the individuals.    Activity on InternshalaHiring since February 202419 opportunities posted11 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Create and manage Google Ads campaigns (Search, Display, and Video).2. Track, analyse, and optimise campaigns for best performance.3.  Monitor key performance metrics like CTR, CPC, CPA, and ROAS.4. Conduct keyword research and competitor analysis.5.  Write compelling ad copies tailored to the target audience.6.  Coordinate with the design team for banners and visual creatives.7.  Generate weekly performance reports and suggest action plans.8. Suggest improvements for landing pages to improve conversions.9. Other responsibilities may be assigned from time to time as needed.Skill(s) requiredCopywritingCreative WritingEffective CommunicationEarn certifications in these skillsLearn Creative WritingLearn Business CommunicationLearn Business AnalyticsLearn Digital MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Basic knowledge of the Google Ads platform (Search, Display, YouTube).                                    2. Analytical mindset with a focus on ROI-driven performance.                                    3. Strong communication and copywriting skills.                                    4. Familiarity with tools like Google Analytics, Keyword Planner, Ubersuggest, etc.                                    5. Certification in Google Ads (preferred, not mandatory).                                    6. Good communication skills for internal coordination.                PerksCertificateNumber of openings        4                        About N D Savla &amp; Associates                Website         We at N D Savla &amp; Associates aim to establish a personal and long-term relationship with each client with a view to tailoring our services to their individual needs. We take pride in our ability to deal not only in a professional manner but also on a qualitative and timely basis with any assignments that we undertake. Clients value our collaborative and hand-holding approach. We focus on solutions that are innovative, yet practical and can be easily implemented. As a solution provider, we step into our client's shoes to understand their business and address their challenges as our own.Our approach towards clients is simple - we look at ourselves as their partners and not just service providers. This frame of mind allows us to work in their best interests, leaving no stone unturned in ensuring that even the most complex assignment is handled as seamlessly as possible.    Activity on InternshalaHiring since March 202422 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -891,24 +891,24 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:22</t>
+          <t>2025-07-23 14:10:33</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-ai-expert--nlp-chatbot-predictive-systems-internship-at-vedaz1753171906</t>
+          <t>https://internshala.com/internship/detail/google-ad-specialist-internship-in-mumbai-at-n-d-savla-associates1753266210</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Human Resource Trainee</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Create, edit, and publish engaging social media posts.2. Design eye-catching visuals and short-form video content.3. Contribute fresh, creative ideas for enhancing digital presence and running campaigns.4. Creating and posting content on LinkedIn.5. Collaborate with the team for brainstorming and planning weekly social media calendars.6. Track key trends and suggest content improvements.Skill(s) requiredCreative ThinkingCreative WritingFacebook MarketingGraphic DesignInstagram MarketingSearch Engine Optimization (SEO)Social Media MarketingVideo EditingEarn certifications in these skillsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Adobe Premiere ProLearn Creative WritingLearn Digital ArtLearn Facebook MarketingLearn SEOLearn Social Media MarketingLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Noida only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Resides within a 5km radius of Sector 62, Noida                                    2. Currently pursuing or recently graduated in Marketing, Media, Communications, or related fields.                                    3. Proactive, self-motivated, and eager to learn.                                    4. Ability to work full-time Monday to Saturday (10:00AM–6:30PM), with Saturdays as WFH.                                    5. Creative mindset, with a portfolio or samples in social media content or edits (preferred, not mandatory).                PerksCertificate Letter of recommendationNumber of openings        2                        About Kat &amp; Company                Website         Kat &amp; Company Charted Accountants / consultancy Firm located in Netaji Subhash place Pitampura new Delhi     Activity on InternshalaHiring since August 20172 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Provide support in a variety of HR functions such as talent acquisition, performance appraisal, attendance and leave management, and rewards and recognition programmes, but not limited to these.  2. Assist in day-to-day HR operations, including handling employee queries, maintaining documentation, and supporting policy implementation.3. Leverage HRMS, ATS, and AI tools to streamline HR processes and stay updated with best practices.4. Assist in organizing employee engagement, trainings, and recognition events.5. Support policy drafting and internal communications.6. Maintain HR systems and ensure data integrity.What You'll Gain1. Comprehensive, hands-on mentorship from experienced HR professionals.2. Training and real-world experience with leading HRMS, ATS, and AI-based HR tools.3. Opportunity to develop practical and strategic HR skills across multiple functions.4. An environment that ensures you are always at the leading edge of technology adoption in HR.5. Opportunity for conversion to a full-time HR Generalist role, based on performance.6. The chance to make a real impact on people, culture, and organizational success at 8 Views.Skill(s) requiredAttendance ManagementHuman Resource Information System (HRIS)Interpersonal skillsRecruitmentEarn certifications in these skillsLearn about RecruitmentLearn Human Resource ManagementWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 6 months                                    4. are from Secunderabad, Hyderabad, Telangana only                                    5. have relevant skills and interests                    Other requirements                    Who Should Apply                                    1. Recent graduates or postgraduates (bachelor’s/master’s) in Human Resources, Business Administration, Psychology, or related fields.                                    2. Individuals excited to explore and grow as versatile HR professionals.                                    3. Strong problem solvers with great attention to detail, who show initiative, proactiveness, and a go-getter attitude.                                    4. Quick learners with a passion for technology and a commitment to both personal and organizational growth.                                    5. Candidates ready to take on the challenge and rigor of a traineeship before progressing to a full-time HR role.                                    6. Candidates available for a dedicated 6 month full-time traineeship.                PerksCertificate Letter of recommendation Informal dress code 5 days a week Free snacks &amp; beverages Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 300000 to 400000/year Number of openings        3                        About 8Views                Website         8Views is a fast-paced, end-to-end digital marketing company providing solutions across digital platforms. The core focus of the company is to help brands meet their business goals through the rapidly growing online space. Our solutions include search engine optimization, social media marketing, email marketing, ad campaigns, content marketing, analytics, and more.    Activity on InternshalaHiring since March 202390 opportunities posted2 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -926,24 +926,24 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:22</t>
+          <t>2025-07-23 14:10:33</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-noida-at-kat-company1753101085</t>
+          <t>https://internshala.com/internship/detail/human-resource-trainee-internship-in-multiple-locations-at-8views1753263670</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Social Media Marketing (Female)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>About the work from home job/internship    Selected intern's day-to-day responsibilities include:1. Collect information, perform research, and analyze assets, such as stocks, mutual funds, etc.2. Present the research to portfolio managers, as part of a team in which experts in different fields get to weigh their insights3. Collaborate in preparing presentations and sharing information among peers4. Collect and interpret data, such as company financial statements, price developments, currency adjustments, and yield fluctuationsSkill(s) requiredMS-ExcelMS-WordEarn certifications in these skillsLearn MS-ExcelLearn Business CommunicationLearn Business AnalyticsLearn Statistics for Data ScienceLearn Deep LearningLearn TableauLearn SAS ProgrammingLearn SQL for Data AnalyticsLearn Clinical Trial Analysis &amp; ReportingLearn Natural Language ProcessingLearn Financial modeling valuationLearn Personal FinanceLearn Data ScienceWho can applyOnly those candidates can apply who:                1. are available for the work from home job/internship                                    2. can start the work from home job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 2 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours 5 days a week Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 800000 to 1100000/year Number of openings        20                        About Zean Lithos And Company Private Limited                        We understand that our clients are interested in measurable benefits. Whether it's running a finance transformation project, a training program, or seeking a new critical hire for a client, we always remember that successful delivery is what makes our clients come back for more. We work with exceptional people who do exceptional things. We're open, clear, direct, and honest in our communications. If something doesn't make sense, we ask questions. We work with open minds and no bias other than making our customers successful. Engaging a management consultant doesn't have to be daunting.    Activity on InternshalaHiring since August 2021381 opportunities posted3 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    As the social media intern, you'll be responsible for creating content and managing the company's social media strategy to build brand awareness, drive engagement, and promote the company's services.Selected intern's day-to-day responsibilities include: 1. Social media strategy: Develop, implement, and manage a comprehensive social media strategy.2. Content creation: Create engaging text, images, and videos that align with overall marketing efforts.3. Platform management: Manage the company's social accounts on platforms like Instagram, Twitter, Facebook, and LinkedIn. Optimize content for trends and algorithm changes.4. Community engagement: Actively engage with the audience and respond to customer inquiries in a timely and professional manner.5. Campaign development: Plan, execute, and monitor social media campaigns to promote products, services, or other marketing initiatives.6. Social listening: Monitor competitor activities and industry trends and adjust the social media strategy accordingly.7. Analytics and reporting: Regularly analyze social media metrics and performance. Provide insights and recommendations for continuous improvement.Benefits: 5-day work week.Skill(s) requiredCanvaCommunity ManagementContent MarketingGraphic DesignSocial Media MarketingEarn certifications in these skillsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Digital ArtLearn Email MarketingLearn Facebook MarketingLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Other requirements                    1. In-depth knowledge of social media platforms and best practices.                                    2. Experience with graphic design and/or video editing tools.                                    3. Excellent written and verbal communication skills.                                    4. Creative thinking and the ability to generate innovative ideas.                                    5. Strong organizational and time-management skills.                PerksCertificate Informal dress code 5 days a week Free snacks &amp; beveragesNumber of openings        2                        About Zenius                Website         Zenius builds talented outsourced teams for businesses worldwide. Our top-notch virtual talents are professional, efficient, and experienced. Whether our clients need a virtual assistant or an offshore dev team, our handpicked remote talents are always ready to produce quality work. Founded in 2023, Zenius is a rapidly growing outsourcing company. Most of our employees work remotely in India. Our company is committed to integrity, diversity, service, and collaboration. We pride ourselves on setting high standards and exceeding them every time.At Zenius, we believe your growth is our growth. We provide rigorous in-house training, so you're confident in every aspect of your role. We encourage initiative and continuous learning. Our benefits include a five-day workweek and paid leave. We also offer fully remote work for some job profiles. Join us for a positive and collaborative work environment!    Activity on InternshalaHiring since June 2022195 opportunities posted49 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -961,24 +961,24 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:23</t>
+          <t>2025-07-23 14:10:34</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-financial-analyst-internship-at-zean-lithos-and-company-private-limited1753172010</t>
+          <t>https://internshala.com/internship/detail/social-media-marketing-female-internship-in-jaipur-at-zenius1753263756</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Content and Social Media Marketing</t>
+          <t>Mathematics Tutor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>About the internship    Content and Social Media Marketing Internship :Fashion Communication Internship :  - Location: Vishnu Garden, New Delhi (On-site only)- Type: Full-time Paid Internship- Duration: 6 Months  About Wear Believe :Are you passionate about brand communication and have a keen eye for detail? Join us on this super creative journey of building Wear Believe. Wear Believe is more than just a fashion brand, we are building a community-driven movement, inspiring self-love through style. We are now looking for a Fashion Communication Intern who shares the passion for creativity, design, marketing and innovation as much as we do.     What You'll Do:You'll work closely with the founder and support the brand across creative direction, storytelling, and brand communication. Key areas include:1. Creative Communication &amp; Brand Storytelling  Help conceptualise and draft powerful narratives for community building, product collections, social media, and website.Co-create engaging captions, campaign copy, and visual storytelling that reflects the brand voiceAssist in community building, packaging text, lookbook write-ups, and emotional campaign taglines2. Content &amp; Campaign DevelopmentBrainstorm and assist in planning seasonal campaign ideas, styling concepts, and product storytellingCreate mood boards, visual references, and content calendars to support brand visionContribute to ideating and scripting Instagram Reels and campaign visuals3. Visual Styling &amp; Shoot DirectionAssist in styling product shoots, and campaign visualsCoordinate photoshoots, props, models, and studio setups under guidanceEnsure consistent styling aligned with the "old money" and "quiet luxury" aesthetic of the brand.4. Influencer Marketing &amp; OutreachIdentify relevant micro and macro influencers aligned with the brandDraft outreach messages, gifting notes, and manage follow-upsMaintain influencer database and track deliverables    What We're Looking For:     Mindset &amp; PersonalityCreative thinker with a strong eye for aesthetics and details.Emotionally intelligent, self-motivated, and eager to learn.Passion for storytelling, fashion, and women-led brands.Aligned with our values of femininity, grace, personal growth, and inspiration.     Skills &amp; QualificationsStrong command of English - both written and spoken.Basic knowledge of fashion communication, journalism, or branding.Interest or experience in styling, visual culture, and luxury fashion is a plus.Basic understanding of Photoshop, Video Editing tools, Pinterest, Google Docs/Slides, Instagram trends, photography or video ideation skills.       What You'll Gain:Hands-on experience working directly with the founder on real-time brand building.A chance to shape the voice of a community-first, women-centric fashion brand.Exposure to all aspects of fashion branding   from communication to styling to PR.  Certificate, letter of recommendation, and opportunity for full-time hiring based on performance.     To Apply:If you're passionate about branding and want to be a part of our creative journey, we'd love to hear from you! Send your resume and portfolio to wearbelievecommunity@gmail.com with the subject line "Application - Fashion Communication Internship", or Whatsapp on +91 9999934449.  Skill(s) requiredContent MarketingContent WritingCopywritingFashion StylingMarketing Strategies Market researchPhotographySocial Media MarketingVideo EditingEarn certifications in these skillsLearn Adobe Premiere ProLearn Creative WritingLearn Email MarketingLearn Facebook MarketingLearn Market researchLearn PhotographyLearn Social Media MarketingLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. are from Delhi only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code Free snacks &amp; beverages Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 350000/year Number of openings        3                        About Aastha Bhasin                Instagram page         A community of people who love themselves and are a sucker for growth &amp; happiness. In a world that moves faster daily, it's easy to lose focus on the most important part of the equation: you. At Wear Believe, we are here to change that narrative. This is your safe space, a community designed for people who are on a mission to love themselves more, grow continuously, and embrace their power. Our mission is to create inspiring content. We aim to cultivate and grow a vibrant, organic social community across all social platforms. We believe that the strength of our brand lies in the genuine connections and meaningful interactions we foster with our audience.    Activity on InternshalaHiring since October 20244 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Are you passionate about mathematics and love teaching? Join us as a Mathematics Tutor intern at Budding Mariners and help shape the future of aspiring mariners. As a part of our dynamic team, you will have the opportunity to enhance your teaching skills while making a positive impact on students' learning journey. Selected intern's day-to-day responsibilities include:1. Conduct group tutoring sessions in mathematics for students2. Create engaging lesson plans tailored to students' needs and learning styles3. Provide feedback and support to help students improve their mathematical skills4. Communicate effectively with students and parents to track progress and address any concerns5. Assist in developing educational materials and resources for tutoring sessions6. Collaborate with fellow tutors and mentors to ensure a cohesive learning experience for students7. Uphold a positive and encouraging learning environment to inspire students to excel in mathematics. If you have a strong foundation in mathematics, excellent communication skills, and a passion for teaching, we want to hear from you! Apply now and be a part of our mission to empower the next generation of mariners through quality education.Skill(s) requiredEffective CommunicationEnglish Proficiency (Spoken)English Proficiency (Written)Hindi Proficiency (Spoken)MathematicsTeachingEarn certifications in these skillsLearn Business CommunicationLearn Creative WritingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 6 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    PerksCertificateNumber of openings        2                        About Budding Mariners                Instagram page         Budding Mariners is an innovative educational platform that caters to aspiring mariners looking to make a career in the merchant navy. With a focus on preparing candidates for IMU-CET and company sponsorship, Budding Mariners has successfully trained and assisted over a thousand aspirants from all over India. Our expert trainers and mentors provide comprehensive training and guidance to help candidates excel in the highly competitive merchant navy selection process. Budding Mariners is committed to providing a world-class education that empowers candidates with the skills and knowledge required to succeed in their chosen profession.    Activity on InternshalaHiring since May 2023635 opportunities posted291 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -996,24 +996,24 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:24</t>
+          <t>2025-07-23 14:10:35</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/content-and-social-media-marketing-internship-in-delhi-at-aastha-bhasin1753170651</t>
+          <t>https://internshala.com/internship/detail/mathematics-tutor-internship-in-jaipur-at-budding-mariners1753258165</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Regional Language Specialist</t>
+          <t>CA Articleship</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>About the internship    We are looking to onboard enthusiastic individuals fluent in regional Indian languages to support our team in communication, content, and customer interaction across various geographies.Key Responsibilities:1. Provide verbal and written support in your native/regional language2. Assist in translating, localizing, or creating content in the required language3. Support internal teams with regional insights and communication4. Act as a cultural and linguistic bridge during outreach or onboarding activities5. Help with recruitment, feedback, and support operations related to your language groupSkill(s) requiredBengali Proficiency (Written)English Proficiency (Spoken)Gujarati Proficiency (Spoken)Hindi Proficiency (Spoken)Punjabi Proficiency (Spoken)Tamil Proficiency (Written)Telugu Proficiency (Written)Earn certifications in these skillsLearn Business CommunicationLearn FrenchWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 4 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Number of openings        10                        About EG Allied Private Limited                        Entire Globe Allied is in the IT services &amp; BPO industry. We offer our services globally and connect you to the world of innovation. We believe in providing the best solution to our clients by keeping the customer's satisfaction and the brand's reputation in mind. We frame our work with innovative ideas to get ahead of the global competition, which also helps us to provide our clients with high-quality services. We provide services in IT, customer engagement, accounting, and digital marketing.    Activity on InternshalaHiring since June 2021236 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    We are looking for a dedicated CA Articleship intern to join our team at Ashish Rana &amp; Company. If you have a passion for M&amp;A, Audit, accounting, taxation, and are proficient in MS-Office, then this is the perfect opportunity for you to gain hands-on experience in a fast-paced environment. Selected intern's day-to-day responsibilities include:1. Assisting in the preparation of financial statements and reports2. Conducting tax research and assisting with tax planning3. Performing audits and ensuring compliance with regulatory requirements4. Assisting with client meetings and communication5. Managing and organizing financial data in MS-Office6. Collaborating with team members on various projects7. Making financial model and doing due diligence8. Continuing to expand your knowledge and skills in the accounting field If you are a motivated and detail-oriented individual looking to kickstart your career in accounting, then apply now to be a part of our dynamic team.Skill(s) requiredAccountingMS-OfficeTaxationEarn certifications in these skillsLearn MS-ExcelLearn TallyLearn Stock Market TradingLearn Business AnalyticsLearn Personal FinanceWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 24 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Informal dress code 5 days a week Free snacks &amp; beveragesAdditional informationStipend Structure:Fixed pay: ₹ 10,000 - 15,000 /month                    Incentive pay: ₹ 1,000 - 3,000 /month                     Number of openings        2                        About Ashish Rana                        Ashish Rana &amp; Company is a dynamic, two-partner Chartered Accountancy firm based in Gurgaon, delivering top-notch financial and compliance solutions. With a dedicated team of under five professionals, we pride ourselves on our personalized approach, fostering a collaborative environment where every team member's contribution matters. We offer a comprehensive range of services, including FEMA Compliance &amp; Advisory: Guiding businesses through complex foreign exchange regulations, Mergers &amp; Acquisitions: Providing strategic support for seamless business transactions, Audit Services: Ensuring accuracy and compliance through meticulous audits, and Income Tax &amp; GST: Offering expert tax planning, filing, and advisory services.    Activity on InternshalaHiring since July 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1031,24 +1031,24 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:25</t>
+          <t>2025-07-23 14:10:36</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/regional-language-specialist-internship-in-jaipur-at-eg-allied-private-limited1753160158</t>
+          <t>https://internshala.com/internship/detail/ca-articleship-internship-in-gurgaon-at-ashish-rana-company1753255960</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Technical Recruiter</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Create clear, concise, and comprehensive technical documentation for software products, user manuals, and guides2. Collaborate with subject-matter experts and development teams to gather information and understand complex technical concepts3. Organize and present information in a user-friendly manner4. Edit and proofread content to ensure accuracy, consistency, and adherence to style guidelines5. Update and maintain existing documentation to reflect software updates and changes6. Continuously improve documentation processes and standards7. Adapt writing style to target different audiences effectivelySkill(s) requiredHuman ResourcesEarn certifications in these skillsLearn about RecruitmentLearn Human Resource ManagementWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 3 months                                    4. are from Jaipur only                                    5. have relevant skills and interests                    Number of openings        10                        About EG Allied Private Limited                        Entire Globe Allied is in the IT services &amp; BPO industry. We offer our services globally and connect you to the world of innovation. We believe in providing the best solution to our clients by keeping the customer's satisfaction and the brand's reputation in mind. We frame our work with innovative ideas to get ahead of the global competition, which also helps us to provide our clients with high-quality services. We provide services in IT, customer engagement, accounting, and digital marketing.    Activity on InternshalaHiring since June 2021236 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Are you a Full Stack Development enthusiast looking to kickstart your career with a dynamic tech company? BVR Technosoft Solution is seeking a talented intern who is proficient in Node.js, React, MongoDB, MySQL, HTML, CSS, JavaScript, AngularJS, and PHP. As a key member of our team, you will have the opportunity to work on exciting projects and gain hands-on experience in the world of technology.Key Responsibilities:1. Collaborate with the development team to design and implement new features for web applications using Node.js, React, and AngularJS.2. Develop and maintain databases using MongoDB and MySQL to ensure optimal performance and data integrity.3. Create responsive and visually appealing user interfaces using HTML, CSS, and JavaScript.4. Troubleshoot and debug issues to improve usability and functionality of web applications.5. Stay up-to-date on industry trends and best practices to enhance your skills and contribute innovative ideas to the team.6. Assist in testing and quality assurance processes to ensure the delivery of high-quality products.7. Participate in team meetings and contribute to brainstorming sessions for project planning and execution.Join us at BVR Technosoft Solution and take your Full Stack Development skills to the next level!Skill(s) requiredAngularJSCSSHTMLJavaScriptMongoDBMySQLNode.jsPHPReactEarn certifications in these skillsLearn AngularLearn AngularJSLearn CSSLearn HTMLLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn MySQLLearn Node.JSLearn PHPLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Informal dress codeNumber of openings        5                        About BVR Technosoft Solution                        BVR Technosoft Solution is a software development company registered in 2017. We work on the web, Android, iOS, etc.    Activity on InternshalaHiring since April 202078 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1066,24 +1066,24 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:26</t>
+          <t>2025-07-23 14:10:37</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/technical-recruiter-internship-in-jaipur-at-eg-allied-private-limited1753160497</t>
+          <t>https://internshala.com/internship/detail/full-stack-development-internship-in-gurgaon-at-bvr-technosoft-solution1753266015</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Marketing &amp; Sales</t>
+          <t>Law/Legal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Reconnect with dormant leads through calls, emails, and WhatsApp2. Plan and execute simple email/WhatsApp campaigns to re-engage old leads3. Understand and log updated customer interest or reasons for inactivity4. Nurture and qualify leads using training and structured messaging guidelines5. Maintain accurate activity logs and notes in the CRM6. Collaborate with the sales team to pass on warm leads and insights7. Contribute creative ideas to improve follow-up communication and reactivation strategiesYou'll learn:1. Hands-on CRM usage and sales funnel management2. Planning and running targeted re-engagement campaigns3. Professional communication and strategic follow-up techniques4. Fundamentals of B2B sales and customer psychologyWho we're looking for:1. Strong written and verbal communication skills2. Interest in sales, digital marketing, or customer engagement3. Creative thinker with the ability to craft simple, effective messages4. Willingness to learn, take feedback, and work proactively5. Prior internship or campus experience in sales/marketing is a plusSkill(s) requiredClient Relationship Management (CRM)Digital MarketingEmail MarketingEnglish Proficiency (Spoken)English Proficiency (Written)Marketing Campaigns Marketing StrategySalesforceEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Informal dress codeNumber of openings        1                        About 32bytes                Website         32bytes is a leading multi-disciplined graphic design and communication studio providing both print and online solutions. It is a powerhouse of technical expertise, logical thinking, management skills as well as design excellence. Our handpicked team of young and talented designers and developers is being constantly trained to meet client demands in terms of schedules and quality of services rendered. We believe that the greatest success comes from solid designer-client collaboration, so everything we do for you will be based on discussion: we take the time to understand your business objectives and the motivations of your customers, because only then can we create a customized solution. We at 32bytes have a simple philosophy - We Deliver.    Activity on InternshalaHiring since September 202215 opportunities posted4 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Legal InternLocation: On-site - Andheri East, MumbaiType: Internship (3-6 Months) | Paid | 6 Days a Week | High Involvement in FieldworkPay Range- 8 to 12k/ per monthAbout RentkarRentkar is a fast-scaling startup enabling access over ownership. We make it easy to rent trending products and reduce waste. Our legal team handles more than paperwork - we deal with recoveries, police complaints, court cases, and urgent escalations that affect real people and real products. As a legal intern, you'll learn the frontlines of how criminal, civil, and operational law intersects with business.Selected intern's day-to-day responsibilities include:1. Drafting notices, complaints, affidavits, and contracts2. Supporting ongoing litigation - documentation, case prep, coordination3. Accompanying the legal executive to police stations, courts, recovery meetings4. Preparing and maintaining legal trackers, case files, and escalation records5. Researching case law, procedures, and legal strategies for product recovery and dispute resolution6. Assisting in maintaining compliance with rental terms and contractsYou Are:\1. A law student or recent graduate eager to explore real-world legal operations2. Strong in research, detail-oriented, and confident working under tight deadlines3. Comfortable navigating field visits, documentation, and legal admin4. Excellent communicator (written and verbal) in English + Hindi / MarathiBonus:1. Past experience working under a practicing lawyer / firm2. Exposure to litigation or criminal/civil casework3. Comfortable working in high-urgency startup environmentsSkill(s) requiredField WorkLegal DraftingLegal ResearchLitigationWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    The individual should be an outgoing individual who has previously handled court + police negotiations and is comfortable with recovery tasks for rental items as well as creating case files for defaulters and cordinate with police + authorities to get our item/money back.                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        1                        About Rentkar-Switch To Share                Instagram page         Rentkar-Switch To Share is a start-up that connects people and lets them share and rent their goods within the community. Here, you can rent almost anything from gaming gear to musical instruments and much more.    Activity on InternshalaHiring since October 20191310 opportunities posted39 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1101,24 +1101,24 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:26</t>
+          <t>2025-07-23 14:10:37</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/marketing-sales-internship-in-kolkata-at-32bytes1753169618</t>
+          <t>https://internshala.com/internship/detail/law-legal-internship-in-mumbai-at-rentkar-switch-to-share1753248335</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Campus Ambassador</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>About the internship    The selected intern's day-to-day responsibilities include:1. Create and manage engaging content across various social media platforms. Monitor and analyse social media trends to optimize campaigns.3. Create Google and FB Ads campaigns on display, search, and shopping networks.4. Plan and execute all marketing campaigns and contribute to revenue generation.5. Research and resolve HTML code and content, link architecture, and navigation issues6. Create copy for websites, marketing collateral, marketing blogs, marketing emails, etc.7. Organize and improve web-marketing initiatives &amp; content management using creative content writing, search engine-friendly copywriting, proofreading, and editing content rephrasing8. Analyze and maintain SERP positions for the keywords.9. Measure and report the performance of all digital marketing campaigns and assess against goals.10. Planning and monitoring the ongoing company presence on social media11. Launching optimized online advertisements to increase company and brand awareness.Skill(s) requiredDigital MarketingFacebook MarketingInstagram MarketingSearch Engine Marketing (SEM)Earn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Thane, Navi Mumbai, Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendationNumber of openings        2                        About BlueBit Systems                Website         Excellence, commitment, and transparency, these words aptly describe BlueBit Systems. We, at BlueBit Systems, endeavor to give you the world-class online marketing services for your business. We are a reservoir of young, smart, and hard-working professionals who share a common vision of growth with an immense sense of responsibility and bonding. We combine our experience with our creative skills and knowledge of the most updated technologies to provide solutions that meet our clients' needs.Our strength lies in digital marketing, search engine optimization (SEO), Google AdWords and Facebook ad campaigns, Google Analytics, reports and keyword ranking report generation, website development, designing, and maintenance, with a core focus on user-friendly, search engine friendly designs, and social media marketing.    Activity on InternshalaHiring since November 201663 opportunities posted19 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the Program    As a Campus Ambassador, you will play a pivotal role in strengthening the movement for curiosity-driven, AI-ready learning across your city. This opportunity allows you to directly engage with schools, champion innovative pedagogy, and help shape India's National Curiosity Index by bringing real value to students, educators, and the broader learning community. Your work will help students unlock their potential.Your responsibilities -1. Advocate for curiosity, AI readiness, and inquiry-driven learning in schools, helping build a community of future-ready thinkers across the outreach region.2. Connect with school principals, teachers, and administrators to introduce and explain the Qriosity Quest program.3. Build and maintain positive relationships with school leadership and staff to ensure smooth program implementation.4. Serve as the primary liaison between Edjuvenate and partner schools.Learning opportunities        Mentoring Provided -1.Onboarding &amp; Training:Comprehensive orientation sessions familiarize students with Edjuvenate’s mission, goals, and communication best practices.2. Regular Check-ins:Scheduled mentoring calls or webinars with Edjuvenate’s Strategy and Operations team offer guidance and answer questions.3. Resource Library:Digital toolkits, pitch decks, and activity guides to support day-to-day ambassador tasks and skill development.    Skill(s) requiredEffective CommunicationInterpersonal skillsEarn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. can start the part time job/internship between 22nd Jul'25 and 26th Aug'25                                    2. are available for duration of 2 months                                    3. are from Visakhapatnam, Vijayawada only                                    4. have relevant skills and interests                    Other requirements                    1. Currently enrolled in or a recent graduate of a bachelor's or master's degree program.                                    2. A strong passion for education and a belief in the power of curiosity-driven learning.                                    3. Excellent communication, interpersonal, and presentation skills.                                    4. Highly motivated, proactive, and goal-oriented.                                    5. Ability to work independently and as part of a team.                                    6. Strong organizational and time-management skills.                                    7. Familiarity with the local education landscape in your city is a plus.                Rewards and incentives        Fixed Monthly Stipend: ₹1,000 per month Travel &amp; Expense Support: 100% reimbursement of actual travel expenses incurred for official school visits.Performance-Based Rewards: Incentive Per Student: Earn ₹10 for every student who participates in the Qriosity Quest Assessment as a direct result of your outreach.With successful outreach, overall monthly earnings can easily reach ₹15,000 -₹25,000+ depending on your performance and number of students brought in.    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekSelection procedure        Step-by-Step Selection Process1. Application SubmissionInterested students fill out an online application form via Internshala.2. Screening &amp; ShortlistingApplications are reviewed based on role alignment,.Shortlisted candidates receive an invitation for the next stage over call/text.3. Assessment Task (if applicable)Candidates may be given a short task such as:Preparing a mock pitch to Principal of a school.4. Interview RoundShortlisted candidates participate in a brief telephonic and video interview.The interview assesses:Communication skills.Alignment with Edjuvenate’s mission.5. Final Selection &amp; OnboardingSelected candidates receive offer letters and onboarding details.Mandatory orientation/training sessions introduce them to program expectations, resources, and mentoring structure.    Number of openings        2                        About Edjuvenate Learnings Private Limited                Website         We are a pioneering educational platform dedicated to nurturing the next generation of creative and curious thinkers. We believe that in today's rapidly evolving AI-driven world, fostering curiosity and creativity is essential for unlocking the full potential of young minds.    Activity on InternshalaHiring since January 202520 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1136,12 +1136,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:27</t>
+          <t>2025-07-23 14:10:38</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-multiple-locations-at-bluebit-systems1753091557</t>
+          <t>https://internshala.com/internship/detail/campus-ambassador-programme-at-edjuvenate-learnings-private-limited1753192201</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>About the Program    The Campus Ambassador will be responsible for communication, marketing, networking, and sales tasks on a day-to-day basis. The campus ambassador's day-to-day responsibilities include:1. Promotion and Outreach:- Share information about Gateway Abroad through word-of-mouth and digital platforms.- Utilize WhatsApp and other social media platforms to share information in college/school/university groups.2. Lead Generation:- Identify and engage with students interested in studying abroad.- Collect contact information and facilitate introductions to Gateway Abroad counselors.- Perform sales tasks assigned on a daily basis3. Event Coordination:- Collaborate with Gateway Abroad experts to organize workshops and seminars on study abroad processes.- Assist in coordinating logistics for events, including venue booking and attendee registration.- Be a crucial part of operations for setting up successful study abroad seminars in colleges.4. Feedback and Reporting:- Provide regular updates on promotional activities and their outcomes.- Gather feedback from students to help improve Gateway Abroad services.Learning opportunities        1. Gain experience in marketing, event planning, and public speaking.2. Receive guidance from Gateway Abroad professionals.3. Enhance your resume with leadership and outreach experience.4. Potential for performance-based incentives.    Skill(s) requiredDigital MarketingEffective CommunicationInterpersonal skillsMarketingMarketing Campaigns NetworkingSalesSocial Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. can start the part time job/internship between 21st Jul'25 and 25th Aug'25                                    2. are available for duration of 3 months                                    3. are from Ajmer, Jodhpur, Kota, Udaipur, Sikar, Jhunjhunu, Nagaur, Jaipur, Rajasthan only                                    4. have relevant skills and interests                    Other requirements                    1. Currently enrolled as a student at the college or university where you will serve as an ambassador.                                    2. Strong communication and interpersonal skills.                                    3. Experience or interest in marketing and sales                                    4. Active involvement in campus communities and organizations.                                    5. Passion for helping peers achieve their educational goals.                                    6. Ability to work independently and manage time effectively.                                    7. Convincing and marketing skills                                    8. Previous experience in a similar role is a plus                Rewards and incentives        1. An internship certificate will be provided - add weightage to your resume.2. Top performers will be considered for full-time roles.3. Exciting incentives upon reaching 10 conversions.    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekSelection procedure        Profile evaluation (Submission of resume and portfolio), following which interview will be conducted.    Number of openings        10                        About Gateway Abroad                Website         Gateway Abroad is managed by a team of British education consultants who have studied in various UK universities for several years. We maintain a robust network of overseas students and university staff across the UK. Leveraging this network and our extensive experience, we tailor solutions that best meet each student's specific requirements.Gateway Abroad serves as your direct gateway to British higher education. Choosing a university for postgraduate studies in a foreign country can be daunting. We assist you in selecting the right university based on your needs. Once you've made a preliminary choice, we handle all inquiries and admissions arrangements with the institutions on your behalf.    Activity on InternshalaHiring since November 202310 opportunities posted6 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the Program    As a Campus Ambassador, you will play a pivotal role in strengthening the movement for curiosity-driven, AI-ready learning across your city. This opportunity allows you to directly engage with schools, champion innovative pedagogy, and help shape India's National Curiosity Index by bringing real value to students, educators, and the broader learning community. Your work will help students unlock their potential.Your responsibilities -1. Advocate for curiosity, AI readiness, and inquiry-driven learning in schools, helping build a community of future-ready thinkers across the outreach region.2. Connect with school principals, teachers, and administrators to introduce and explain the Qriosity Quest program.3. Build and maintain positive relationships with school leadership and staff to ensure smooth program implementation.4. Serve as the primary liaison between Edjuvenate and partner schools.Learning opportunities        Mentoring Provided -1.Onboarding &amp; Training:Comprehensive orientation sessions familiarize students with Edjuvenate’s mission, goals, and communication best practices.2. Regular Check-ins:Scheduled mentoring calls or webinars with Edjuvenate’s Strategy and Operations team offer guidance and answer questions.3. Resource Library:Digital toolkits, pitch decks, and activity guides to support day-to-day ambassador tasks and skill development.    Skill(s) requiredEffective CommunicationInterpersonal skillsEarn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. can start the part time job/internship between 22nd Jul'25 and 26th Aug'25                                    2. are available for duration of 2 months                                    3. are from Mangalore, Mysuru, Tumakuru only                                    4. have relevant skills and interests                    Other requirements                    1. Currently enrolled in or a recent graduate of a bachelor's or master's degree program.                                    2. A strong passion for education and a belief in the power of curiosity-driven learning.                                    3. Excellent communication, interpersonal, and presentation skills.                                    4. Highly motivated, proactive, and goal-oriented.                                    5. Ability to work independently and as part of a team.                                    6. Strong organizational and time-management skills.                                    7. Familiarity with the local education landscape in your city is a plus.                Rewards and incentives        Fixed Monthly Stipend: ₹1,000 per month Travel &amp; Expense Support: 100% reimbursement of actual travel expenses incurred for official school visits.Performance-Based Rewards: Incentive Per Student: Earn ₹10 for every student who participates in the Qriosity Quest Assessment as a direct result of your outreach.With successful outreach, overall monthly earnings can easily reach ₹15,000 -₹25,000+ depending on your performance and number of students brought in.    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekSelection procedure        Step-by-Step Selection Process1. Application SubmissionInterested students fill out an online application form via Internshala.2. Screening &amp; ShortlistingApplications are reviewed based on role alignment,.Shortlisted candidates receive an invitation for the next stage over call/text.3. Assessment Task (if applicable)Candidates may be given a short task such as:Preparing a mock pitch to Principal of a school.4. Interview RoundShortlisted candidates participate in a brief telephonic and video interview.The interview assesses:Communication skills.Alignment with Edjuvenate’s mission.5. Final Selection &amp; OnboardingSelected candidates receive offer letters and onboarding details.Mandatory orientation/training sessions introduce them to program expectations, resources, and mentoring structure.    Number of openings        1                        About Edjuvenate Learnings Private Limited                Website         We are a pioneering educational platform dedicated to nurturing the next generation of creative and curious thinkers. We believe that in today's rapidly evolving AI-driven world, fostering curiosity and creativity is essential for unlocking the full potential of young minds.    Activity on InternshalaHiring since January 202520 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1171,24 +1171,24 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:28</t>
+          <t>2025-07-23 14:10:39</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/campus-ambassador-programme-at-gateway-abroad1753160731</t>
+          <t>https://internshala.com/internship/detail/campus-ambassador-programme-at-edjuvenate-learnings-private-limited1753191777</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Customer Success Associate Trainee</t>
+          <t>Campus Ambassador</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Manage customer relationships to ensure successful product use, retention, and satisfaction.2. Guide and support customers in becoming strong advocates for our products.3. Assist customers in achieving their goals using our solutions.4. Proactively identify and resolve common customer issues.5. Advocate for customer needs across various departments.6. Spot and develop opportunities for up-selling our products.7. Respond to customer queries via email and telephone.Skill(s) requiredClient Relationship Management (CRM)Effective CommunicationEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Perks5 days a weekNumber of openings        10                        About Jungleworks                Website         Jungleworks is a tech-loaded solution for your on-demand business. From customer-facing to delivery management and customer engagement platforms, we provide a technology suite for everything. Our product list consists of Yelo, Tookan, Panther, and Hippo.    Activity on InternshalaHiring since November 202426 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the Program    As a Campus Ambassador, you will play a pivotal role in strengthening the movement for curiosity-driven, AI-ready learning across your city. This opportunity allows you to directly engage with schools, champion innovative pedagogy, and help shape India's National Curiosity Index by bringing real value to students, educators, and the broader learning community. Your work will help students unlock their potential.Your responsibilities -1. Advocate for curiosity, AI readiness, and inquiry-driven learning in schools, helping build a community of future-ready thinkers across the outreach region.2. Connect with school principals, teachers, and administrators to introduce and explain the Qriosity Quest program.3. Build and maintain positive relationships with school leadership and staff to ensure smooth program implementation.4. Serve as the primary liaison between Edjuvenate and partner schools.Learning opportunities        Mentoring Provided -1.Onboarding &amp; Training:Comprehensive orientation sessions familiarize students with Edjuvenate’s mission, goals, and communication best practices.2. Regular Check-ins:Scheduled mentoring calls or webinars with Edjuvenate’s Strategy and Operations team offer guidance and answer questions.3. Resource Library:Digital toolkits, pitch decks, and activity guides to support day-to-day ambassador tasks and skill development.    Skill(s) requiredEffective CommunicationInterpersonal skillsEarn certifications in these skillsLearn Business CommunicationWho can applyOnly those candidates can apply who:                1. can start the part time job/internship between 22nd Jul'25 and 26th Aug'25                                    2. are available for duration of 2 months                                    3. are from Coimbatore, Madurai, Tiruppur only                                    4. have relevant skills and interests                    Other requirements                    1. Currently enrolled in or a recent graduate of a bachelor's or master's degree program.                                    2. A strong passion for education and a belief in the power of curiosity-driven learning.                                    3. Excellent communication, interpersonal, and presentation skills.                                    4. Highly motivated, proactive, and goal-oriented.                                    5. Ability to work independently and as part of a team.                                    6. Strong organizational and time-management skills.                                    7. Familiarity with the local education landscape in your city is a plus.                Rewards and incentives        Fixed Monthly Stipend: ₹1,000 per month Travel &amp; Expense Support: 100% reimbursement of actual travel expenses incurred for official school visits.Performance-Based Rewards: Incentive Per Student: Earn ₹10 for every student who participates in the Qriosity Quest Assessment as a direct result of your outreach.With successful outreach, overall monthly earnings can easily reach ₹15,000 -₹25,000+ depending on your performance and number of students brought in.    PerksCertificate Letter of recommendation Flexible work hours 5 days a weekSelection procedure        Step-by-Step Selection Process1. Application SubmissionInterested students fill out an online application form via Internshala.2. Screening &amp; ShortlistingApplications are reviewed based on role alignment,.Shortlisted candidates receive an invitation for the next stage over call/text.3. Assessment Task (if applicable)Candidates may be given a short task such as:Preparing a mock pitch to Principal of a school.4. Interview RoundShortlisted candidates participate in a brief telephonic and video interview.The interview assesses:Communication skills.Alignment with Edjuvenate’s mission.5. Final Selection &amp; OnboardingSelected candidates receive offer letters and onboarding details.Mandatory orientation/training sessions introduce them to program expectations, resources, and mentoring structure.    Number of openings        3                        About Edjuvenate Learnings Private Limited                Website         We are a pioneering educational platform dedicated to nurturing the next generation of creative and curious thinkers. We believe that in today's rapidly evolving AI-driven world, fostering curiosity and creativity is essential for unlocking the full potential of young minds.    Activity on InternshalaHiring since January 202520 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1206,24 +1206,24 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:29</t>
+          <t>2025-07-23 14:10:40</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/customer-success-associate-trainee-internship-in-multiple-locations-at-jungleworks1753170148</t>
+          <t>https://internshala.com/internship/detail/campus-ambassador-programme-at-edjuvenate-learnings-private-limited1753191308</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Domestic Sales Associate Trainee</t>
+          <t>Video Editing/Making</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1.  Learn to identify and qualify potential leads under the guidance of experienced mentors2. Conduct market research and build a strong sales pipeline3. Develop effective communication and presentation skills to engage with potential clients4. Conduct product demos and address client queries5. Learn to negotiate deals, overcome objections, and close sales to achieve targets6. Build strong relationships with clients and foster long-term partnerships7. Utilize CRM tools to track sales activities, manage leads, and analyze performance metrics8. Stay updated with industry trends, product knowledge, and sales techniques through regular training and development programsRequirements:1. Hold a recent Bachelor's degree in any field2. Demonstrate strong communication and interpersonal skills3. Show enthusiasm for sales and a desire to learn4. Stay self-motivated and results-oriented5. Possess basic knowledge of Google SuiteSkill(s) requiredCustomer SupportEffective CommunicationSalesEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. have relevant skills and interests                    Perks5 days a weekNumber of openings        10                        About Jungleworks                Website         Jungleworks is a tech-loaded solution for your on-demand business. From customer-facing to delivery management and customer engagement platforms, we provide a technology suite for everything. Our product list consists of Yelo, Tookan, Panther, and Hippo.    Activity on InternshalaHiring since November 202426 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About part time job/internship    Selected intern's day-to-day responsibilities include: 1. Recording and shooting the content in-house.2. Editing the content.3. Making content aesthetic and appealing.Skill(s) requiredCapcutContent EditingDigital MarketingSocial Media MarketingVideo EditingVideographyEarn certifications in these skillsLearn Adobe Premiere ProLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 20th Jul'25 and 24th Aug'25                                    3. are available for duration of 3 months                                    4. are from Chandigarh, Zirakpur, Panchkula, Mohali, Punjab, Haryana only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendationAdditional informationStipend Structure:Fixed pay: ₹ 8,000 /month                    Incentive pay: ₹ 10,000 /month                     Number of openings        2                        About Shruti Pandey                LinkedIn profile         I am a dynamic social media marketer with expertise in influencer collaborations, content creation, and brand engagement. I have successfully managed social media accounts, boosted engagement, and executed strategic campaigns across platforms. With experience in graphic design, PR initiatives, and mentorship, I blend creativity with data-driven strategies to enhance brand presence.     Activity on InternshalaHiring since February 20253 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1241,24 +1241,24 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:29</t>
+          <t>2025-07-23 14:10:41</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/domestic-sales-associate-trainee-internship-in-multiple-locations-at-jungleworks1753169730</t>
+          <t>https://internshala.com/internship/detail/part-time-video-editing-making-internship-in-multiple-locations-at-shruti-pandey1753085390</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Partner Onboarding (Marketing)</t>
+          <t>Lead Generation Specialist</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Assist in identifying and reaching out to potential B2B clients for facility management services.2. Support the onboarding process of service partners/vendors across various regions.3. Coordinate and follow up with partners throughout the documentation and activation stages.4. Conduct market research to analyze demand-supply gaps in the facility management sector.5. Collaborate with operations and marketing teams to ensure seamless partner onboarding.6. Maintain and update accurate data records and progress tracking using internal tools and systems.Skill(s) requiredClient Relationship Management (CRM)CollaborationEffective CommunicationLead GenerationMarketingMarket researchMS-ExcelProblem SolvingTime ManagementEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Market researchLearn MS-ExcelLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    Other requirements                    1. Available for a full-time, in-office internship in Pune.                                    2. Committed to a minimum duration of 3 to 6 months.                                    3. Holds a PGDM/MBA degree in marketing or is currently pursuing one.                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        1                        About Inspacco                LinkedIn page         Inspacco was founded in 2019 and is led by IIM alumni and armed forces professionals to provide affordable improvement and maintenance services. We are a one-stop solution for all residential, commercial, and industrial establishments. We gained the trust of more than 100+ large customers in the span of one year. Our mission is to provide the highest quality products and services in the improvement and maintenance portfolio for residential, commercial, and industrial spaces at affordable prices. Our vision is to become a leader in improvement and maintenance-related services by delivering superior value to our customers.    Activity on InternshalaHiring since December 202451 opportunities posted19 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Evaluate and monitor sales discovery meetings (demos), calls, emails, and SMS interactions for quality and compliance. 2.  Audit closed deals to ensure accurate documentation, ethical practices, and proper sales process adherence. 3.  Identify and report gaps (AFIs - Areas for Improvement) to enhance team performance and training initiatives. 4.  Collaborate with sales leadership to develop and refine QA processes, benchmarks, and performance metrics. 5.  Deliver ongoing feedback to the sales team, highlighting strengths and actionable growth opportunities. 6.  Work alongside sales managers to identify training needs and implement targeted development programs. 7.  Conduct data-driven analysis to track trends and recommend strategic improvements. 8.  Audit sales workflows to ensure consistency, compliance, and regulatory adherence. 9.  Stay updated on QA best practices, compliance regulations, and evolving sales techniques. 10. Support post-sale feedback initiatives such as customer satisfaction surveys to assess sales experience. 11. Cultivate a culture of continuous improvement, knowledge-sharing, and quality awareness.Perks &amp; Benefits:1. Stipend:    10,000/month2. Work from our vibrant office3. Pre-Placement Offer (PPO) for top performers4. Learn B2B tech sales from an experienced founding team5. Certificate and LOR6. Access to startup events, learning sessions, and a high-growth networkSkill(s) requiredEffective CommunicationEnglish Proficiency (Spoken)English Proficiency (Written)Lead GenerationSalesStrategyEarn certifications in these skillsLearn Business CommunicationLearn Business AnalyticsLearn Digital MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Bachelor’s degree in marketing, business, communications, or a related field.                                    2. Experience in lead generation, sales development, or inside sales.                                    3. Familiarity with CRM systems and lead generation tools.                                    4. Excellent written and verbal communication skills.                                    5. Strong analytical and research skills.                                    6. Ability to work independently and as part of a team.                                    7. Goal-oriented with a strong work ethic and high attention to detail.                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        4                        About Apport Software Solutions Private Limited                        Apport Software Solutions Private Limited is a dynamic and innovative SAAS-based product company offering conversational commerce and empowering global brands with scalable personal commerce and relationship-led sales on WhatsApp.  QuickSell is a sales acceleration commerce suite started in 2017 with the vision to empower businesses to translate conversations into conversions on customer-first channels like WhatsApp through assisted personal commerce. For more details, check out our website: https://quicksell.co/DoubleClick is a mobile-first conversational CRM built on top of WhatsApp     Business API to unlock WhatsApp's marketing and sales capabilities. It offers top-notch features, including a central team inbox, bulk broadcasting, and analytics, a bot studio, commerce and cataloging, chatbots, and role-based access. For more details, check out our website: https://doubletick.io/    Activity on InternshalaHiring since April 202455 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1276,24 +1276,24 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:30</t>
+          <t>2025-07-23 14:10:41</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/partner-onboarding-marketing-internship-in-pune-at-inspacco1753169808</t>
+          <t>https://internshala.com/internship/detail/lead-generation-specialist-internship-in-mumbai-at-apport-software-solutions-private-limited1753257509</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Semi CA - Tax Advisory</t>
+          <t>Sales Development Representative</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>About the internship    Are you a semi-CA student with a passion for tax advisory and expertise in taxation? Join our team at ClearTax as a tax advisory intern and gain hands-on experience in tax planning and compliance. As an intern, you will work closely with our team of experts to provide valuable insights and solutions to our clients. Your role will be essential in ensuring that our clients are compliant with tax laws and regulations while maximizing their tax savings. Selected intern's day-to-day responsibilities include: 1. Conduct research on tax laws and regulations to provide accurate and timely advice to clients.2. Assist in preparing and reviewing tax returns for individuals and businesses.3. Collaborate with senior team members to analyze financial data and identify tax savings opportunities.4. Communicate effectively with clients to address their tax-related queries and concerns.5. Stay up-to-date on changes in tax laws and regulations to ensure compliance.6. Assist in the development of tax planning strategies for clients to minimize tax liabilities.7. Participate in training sessions and workshops to enhance your knowledge and skills in Tax Advisory. If you are looking for a challenging and rewarding internship opportunity in the field of Tax Advisory, apply now and take the first step towards a successful career in taxation with ClearTax.Skill(s) requiredTaxationEarn certifications in these skillsLearn Financial modeling valuationLearn Personal FinanceLearn Stock Market TradingLearn Business AnalyticsLearn TallyWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Free snacks &amp; beveragesNumber of openings        10                        About ClearTax                Website         ClearTax is Asia's fastest-growing fin-tech and India's largest website to file income tax returns. ClearTax aims to simplify the tax filing process to empower millions of Indians and remove the fear of taxes.    Activity on InternshalaHiring since March 2022335 opportunities posted80 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    We are looking for a dynamic and motivated Sales Development Representative (SDR) to join our growing team at QuickSell &amp; DoubleTick. The SDR will play a key role in our sales process by prospecting potential clients, initiating conversations, and setting up meetings for the sales team.This is an entry-level position that offers the opportunity for growth within the company.  Selected intern's day-to-day responsibilities include:1. Prospecting: Identify, research, and qualify potential leads through various channels such as LinkedIn, cold calling, email outreach, and other sales prospecting tools.2. Lead Generation: Generate and maintain a healthy pipeline of prospects by initiating conversations and identifying potential customers' needs.  3. Cold Calling: Make outbound calls to potential clients.  4. Email Outreach: Write and send compelling outreach emails to engage prospects.5. Qualification: Work closely with the sales team to ensure that all leads are accurately qualified and passed to the appropriate account executive.  6. Scheduling Meetings: Set up and schedule product demos and meetings between potential customers and the sales team.  7. CRM Management: Maintain accurate and up-to-date records of all interactions with leads in the CRM.  8. Collaboration: Work closely with the marketing team to ensure alignment between inbound and outbound sales activities.  9. Continuous Learning: Stay updated on the product offerings and competitive landscape to better understand customer needs.Perks &amp; Benefits:Stipend:    10,000/monthWork from our vibrant officePre-Placement Offer (PPO) for top performersLearn B2B tech sales from an experienced founding teamCertificate and LORAccess to startup events, learning sessions, and a high-growth networkSkill(s) requiredCold CallingEffective CommunicationEnglish Proficiency (Spoken)Lead GenerationSalesSales StrategyTime ManagementEarn certifications in these skillsLearn Business CommunicationLearn Digital MarketingLearn Business AnalyticsWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Educational Background: Bachelor’s degree in any discipline.                                    2. Experience: 0-2 years of experience in sales, lead generation, or customer service                                    roles. Freshers with strong communication skills are encouraged to apply.                                    3. Communication: Excellent verbal and written communication skills.                                    4. Cold Calling Skills: Ability to engage with prospects over the phone and handle                                    objections.                                    5. Self-Motivation: Highly driven and self-motivated with a passion for sales.                                    6. Tech-Savvy: Familiarity with sales prospecting tools (e.g., LinkedIn Sales Navigator,                                    CRM systems).                                    7. Team Player: Ability to work collaboratively with the sales and marketing teams.                                    8. Time Management: Strong organizational and time management skills.                PerksCertificate Letter of recommendation Flexible work hours Informal dress codeNumber of openings        10                        About Apport Software Solutions Private Limited                        Apport Software Solutions Private Limited is a dynamic and innovative SAAS-based product company offering conversational commerce and empowering global brands with scalable personal commerce and relationship-led sales on WhatsApp.  QuickSell is a sales acceleration commerce suite started in 2017 with the vision to empower businesses to translate conversations into conversions on customer-first channels like WhatsApp through assisted personal commerce. For more details, check out our website: https://quicksell.co/DoubleClick is a mobile-first conversational CRM built on top of WhatsApp     Business API to unlock WhatsApp's marketing and sales capabilities. It offers top-notch features, including a central team inbox, bulk broadcasting, and analytics, a bot studio, commerce and cataloging, chatbots, and role-based access. For more details, check out our website: https://doubletick.io/    Activity on InternshalaHiring since April 202455 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1311,24 +1311,24 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:31</t>
+          <t>2025-07-23 14:10:42</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/semi-ca-tax-advisory-internship-in-bangalore-at-cleartax1753169763</t>
+          <t>https://internshala.com/internship/detail/sales-development-representative-internship-in-mumbai-at-apport-software-solutions-private-limited1753256306</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Interior Design</t>
+          <t>Content Writing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. 2D Drafting: Prepare and update technical drawings, floor plans, and furniture layouts using AutoCAD or equivalent software.2. 3D Visualization: Create 3D models using our cloud-based interior design software to assist with client presentations and design development.3. Material Coordination: Assist in sourcing materials, maintaining sample libraries, and coordinating with vendors for finishes, furniture, and fittings.4. Client Interaction Support: Help in appointment rescheduling and maintaining communication logs with clients and vendors.5. Site Visits: Accompany project managers on site visits to understand project progress, execution challenges, and on-site design decisions.6. Documentation: Support the team with documentation, BOQs, mood boards, and site reports.Skill(s) requiredAutoCADEffective CommunicationMS-ExcelMS-WordEarn certifications in these skillsLearn AutoCADLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 28th Jun'25 and 21st Aug'25                                    3. are available for duration of 6 months                                    4. are from Noida, Delhi only                                    5. have relevant skills and interests                    Other requirements                    Interior design student or recent graduate.                                    Familiarity with AutoCAD and basic 3D tools; willing to learn our cloud-based platform.                                    Strong sense of design and keen attention to detail.                                    Good communication and organizational skills.                                    Eagerness to learn, take initiative, and adapt in a fast-paced environment                PerksCertificate Letter of recommendation Informal dress codeNumber of openings        1                        About Shivani Jain                        I am the founder and Interior designer at Artsy Corner studio, a boutique interior design practice where we transform everyday living into extraordinary experiences. With a passion for design that began in my childhood     sketching layouts and browsing d  cor magazines with my mother     I've nurtured this love into a profession that balances creativity, functionality, and personal expression.At Artsy Corner, we specialize in residential interiors, particularly for clients who value timeless aesthetics, thoughtful spatial planning, and a sense of warmth. Our work often blends global influences with rich, grounded palettes and sustainable materials. What sets us apart is our collaborative approach we listen intently, understand our clients' lifestyle aspirations, and design spaces that are deeply personal yet beautifully elevated.    Activity on InternshalaHiring since June 20251 opportunity posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Write and craft well-researched content for publication online, on websites, and in print2. Communicate and collaborate with a writing team, including a content manager, editors, and web publishers3. Follow and adhere to an editorial calendar, collaborating with other members of the content production team to ensure timely delivery of materials within deadlines4. Develop and create related content for multiple platforms, such as websites, email marketing, product descriptions, videos, and blogs for branding5. Use and apply search engine optimization (SEO) strategies in writing to maximize the online visibility of a website in search results6. Engage and participate in corporate communicationsSkill(s) requiredCreative WritingEnglish Proficiency (Spoken)English Proficiency (Written)Google AdWordsGoogle AnalyticsSearch Engine Optimization (SEO)Earn certifications in these skillsLearn Creative WritingLearn Business CommunicationLearn Google AdWordsLearn Google AnalyticsLearn SEOWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. are from Ahmedabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Skills required: Google Analytics, Google Adwords, SEO and keyword research                PerksCertificate Informal dress codeNumber of openings        1                        About STEMpedia                Website         Founded in 2016 by IITK alumni, STEMpedia envisions transforming AI and robotics, an emerging technology education space in the world, through its real-life application-driven approach to curriculum, unique teacher training program, and international events and competitions. We lead the AI and robotics education market in India with our holistic learning ecosystem for kids aged 7+ years. With our curated packages for schools, educational institutions, and activity centers, we have delivered our AI &amp; robotics lab to 400+ schools across 50+ countries.    Activity on InternshalaHiring since May 2017430 opportunities posted135 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1346,24 +1346,24 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:32</t>
+          <t>2025-07-23 14:10:43</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/interior-design-internship-in-multiple-locations-at-shivani-jain1751425437</t>
+          <t>https://internshala.com/internship/detail/content-writing-internship-in-ahmedabad-at-stempedia1753247812</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Football Coaching</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>About part time job/internship    Selected intern's day-to-day responsibilities include:1. Working with kids aged 18 months - 5 years2. Working with the Head Coach to regularly improve your level of coaching3. Assisting the lead coach in taking sessions4. Ensuring the kids are actively participating in the games5. Observing and learning how the lead coach takes sessions6. Speaking to the parents about their child's performance7. Starting to lead sessions once you're ready8. Assisting/Leading 1 to 2 sessions per day (duration of each session will be 1 hour) between 5 to 7pm, Monday to Friday.Skill(s) requiredEnglish Proficiency (Spoken)Earn certifications in these skillsLearn Business CommunicationLearn Creative WritingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Good English communication skills                                    2. Animated and expressive                                    3. Good level of fitness                                    4. Highly energetic                PerksCertificate Letter of recommendation Flexible work hours 5 days a weekNumber of openings        4                        About Little Kickers India                Website         Little Kickers started in the UK in 2002. We have two core beliefs that we take into every session. Firstly, we believe in something we call "play not push". It means teaching football in a fun, pressure-free environment. We want to give children a positive introduction to sports as a whole, not just football, so they're more likely to stay healthy and active throughout their lives.Secondly, we believe football can be educational. Coached in the right way, it can stimulate imagination and aid early development skills such as learning colors and numbers, following instructions and playing as a team. With a network of 2250 coaches and over 300 franchises in 31 countries, we're now the world's biggest and most successful pre-school football academy and there's plenty more to come.    Activity on InternshalaHiring since November 201838 opportunities posted37 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Assist in creating and managing content for our website and social media platforms.2. Conduct keyword research and support SEO initiatives to improve organic traffic.3. Help manage and optimize Google Ads campaigns, including monitoring performance and making recommendations for improvement.4. Analyse campaign performance using tools like Google Analytics and prepare reports on key metrics.5. Collaborate with the marketing team to brainstorm and implement new marketing strategies.6. Stay updated on digital marketing trends and best practices.Skill(s) requiredDigital MarketingEnglish Proficiency (Spoken)English Proficiency (Written)Google AdWordsGoogle AnalyticsSearch Engine Marketing (SEM)Search Engine Optimization (SEO)Social Media MarketingEarn certifications in these skillsLearn Email MarketingLearn Business CommunicationLearn Facebook MarketingLearn Google AdWordsLearn Google AnalyticsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. are from Ahmedabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Currently pursuing or recently completed a degree in marketing, business, communications, or a related field.                                    2. Basic understanding of digital marketing concepts, including SEO and paid advertising.                                    3. Familiarity with tools like Google Analytics, Google Ads, or social media platforms is a plus.                                    4. Strong written and verbal communication skills.                                    5. Ability to work independently and collaboratively in a team environment.                PerksCertificate Informal dress codeNumber of openings        1                        About STEMpedia                Website         Founded in 2016 by IITK alumni, STEMpedia envisions transforming AI and robotics, an emerging technology education space in the world, through its real-life application-driven approach to curriculum, unique teacher training program, and international events and competitions. We lead the AI and robotics education market in India with our holistic learning ecosystem for kids aged 7+ years. With our curated packages for schools, educational institutions, and activity centers, we have delivered our AI &amp; robotics lab to 400+ schools across 50+ countries.    Activity on InternshalaHiring since May 2017430 opportunities posted135 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1381,24 +1381,24 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:33</t>
+          <t>2025-07-23 14:10:44</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/part-time-football-coaching-internship-in-mumbai-at-little-kickers-india1753160916</t>
+          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-ahmedabad-at-stempedia1753247766</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Accounts &amp; Operations</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>About the internship    We are looking for a talented Web Development intern to join our team at Infits. If you have experience with Django, Django Rest Framework, HTML 5, CSS3, Bootstrap, jQuery, JavaScript, and WordPress, then we want to hear from you!Key Responsibilities:1. Collaborate with our development team to create and maintain web applications using Django and Django Rest Framework.2. Design and develop responsive websites using HTML 5, CSS3, and Bootstrap to ensure a seamless user experience.3. Implement interactive features and functionality on websites using jQuery and JavaScript.4. Customize and optimize WordPress websites to meet client requirements.5. Test and debug code to ensure the highest level of performance and security.6. Stay updated on industry trends and best practices to enhance our web development strategies.7. Assist in troubleshooting and resolving technical issues as they arise to ensure smooth operation of websites. If you are passionate about web development and eager to learn and grow in a fast-paced environment, then apply now to become a valuable member of our team!Skill(s) requiredBootstrapCSS3DjangoDjango Rest FrameworkHTML 5JavaScriptjQueryWordPressEarn certifications in these skillsLearn AngularLearn BootstrapLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn Node.JSLearn ReactJSLearn WordPressWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 3 months                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    PerksCertificate Letter of recommendationNumber of openings        5                        About Infits                Website         At Infits, we are passionate about harnessing the power of artificial intelligence to transform the world of nutrition and dietetics. Our mission is to empower nutritionists, dieticians, and fitness trainers with our AI-based CRM products that enhance personalized health management.    Activity on InternshalaHiring since April 202452 opportunities posted27 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1408,44 +1408,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:33</t>
+          <t>2025-07-23 14:10:45</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/accounts-operations-internship-in-mumbai-at-chefyside-llp1753158845</t>
+          <t>https://internshala.com/internship/detail/web-development-internship-in-hyderabad-at-infits1753260883</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Python Development</t>
+          <t>Founders Office</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>About the internship    We're looking for a Python Developer Intern who's passionate about writing clean, scalable code and building backend systems that power real-world applications. As a Python intern, you'll work closely with the backend and product teams to build APIs, manage databases, and integrate with AI-driven features.This is a hands-on, in-office internship for 6 months with a strong possibility of a full-time PPO based on your performance.Key Responsibilities:1. Write and maintain scalable, reusable code using Python2. Assist in building and managing REST APIs to power product features3. Work with databases like MongoDB for storing and querying structured/unstructured data4. Collaborate with the backend team to integrate AI models and automation workflows5. Support basic infrastructure setup using tools like Docker6. Participate in code reviews, internal testing, and debugging7. Document functionality and contribute to improving development workflowsSkill(s) requiredDjangoGitPythonSQLEarn certifications in these skillsLearn Git SVNLearn GitLearn MS SQL ServerLearn MySQLLearn PostgreSQLLearn PythonLearn Voice App DevelopmentLearn SQLWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Thane, Navi Mumbai, Mumbai, Panvel only                                    5. have relevant skills and interests                    PerksCertificate Flexible work hours Informal dress code 5 days a weekNumber of openings        1                        About Grexa AI Private Limited                Website         Empowering growth for local businesses. Grexa AI is building AI business assistants to help local businesses leverage the latest technology.    Activity on InternshalaHiring since April 202457 opportunities posted30 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Collaborate with the Founders Office on high-impact strategic and operational initiatives across departments. 2. Drive cross-functional projects in areas such as marketing, retail, product, and operations to support brand growth.3. Conduct research and analysis on market trends, competitors, and consumers to inform business decisions. 4. Coordinate key meetings and support process improvements through workflow documentation and team collaboration.Skill(s) requiredEffective CommunicationInterpersonal skillsEarn certifications in these skillsLearn Business CommunicationLearn Business AnalyticsLearn Digital MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 3 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    Other requirements                    1. Currently pursuing a Bachelor's or Master’s degree, preferably in BBA/MBA or a related                                    field.                                    2. Strong interpersonal skills; comfortable  communicating  with multiple  stakeholders.                                    3. Quick thinker, resourceful, and able to adapt in a fast-paced environment.                                    4.  Capable of executing and supporting multiple projects simultaneously.                                    5. Willingness to work from the Mumbai office 5 days a week.                                    6.  Sharp, driven, and eager to learn.                PerksCertificate Letter of recommendation Informal dress code 5 days a week Free snacks &amp; beveragesNumber of openings        1                        About The Souled Store                Website         The Souled Store is a youth lifestyle brand that started in 2013. Over the last 8 years, we have carved a niche in the pop culture and licensed merchandise space. With properties like Disney, Warner Brothers, WWE, Viacom, Cartoon Network, and more, The Souled Store has grown to become India's brand for licensed merchandise. The Souled Store was born out of the idea of loving what you do. Our philosophy is that life is short - do not spend it doing something you do not like. There are too many Monday mornings, and you cannot go dreading every single one of them. Over the years, we have built a strong team of like-minded pop culture enthusiasts who are committed to catering to fellow fans with all their heart and soul.    Activity on InternshalaHiring since March 2021225 opportunities posted28 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1463,24 +1451,24 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:34</t>
+          <t>2025-07-23 14:10:46</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/python-development-internship-in-multiple-locations-at-grexa-ai-private-limited1753160574</t>
+          <t>https://internshala.com/internship/detail/founders-office-internship-in-mumbai-at-the-souled-store1753257658</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dietetics/Nutrition</t>
+          <t>Human Resources (HR)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Develop and implement customized nutrition plans based on Ayurvedic principles2. Conduct nutritional assessments and provide dietary guidance3. Research and create educational materials on nutrition and Ayurveda4. Collaborate with the wellness team for comprehensive client care5. Monitor and document client progressSkill(s) requiredDietetics/NutritionEnglish Proficiency (Written)MS-ExcelEarn certifications in these skillsLearn Business CommunicationLearn MS-ExcelWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 3 months                                    4. have relevant skills and interests                    Other requirements                    1. Currently pursuing or recently completing a degree in nutrition, dietetics, or a related field                                    2. Possess an interest in holistic health and Ayurveda is preferred                                    3. Strong communication and interpersonal skills                                    4. Possess the ability to work independently and in a team                PerksCertificate Informal dress codeNumber of openings        3                        About Ayurveda House Private Limited                Website         Ayurveda is committed to enhancing holistic health and wellness through traditional Ayurvedic practices and products. Our mission is to provide natural and effective solutions for a healthier lifestyle by blending the ancient wisdom of Ayurveda with contemporary wellness needs. Discover the benefits of 100% genuine Ayurvedic health and personal care products from Ayuvya. We are dedicated to bringing the richness of Ayurvedic tradition into the modern world, offering quality products through our Ayuvya app, your one-stop destination for all Ayurvedic health and beauty needs.    Activity on InternshalaHiring since June 2023888 opportunities posted10 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1490,7 +1478,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1498,24 +1486,24 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:34</t>
+          <t>2025-07-23 14:10:46</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/dietetics-nutrition-internship-in-delhi-at-ayurveda-house-private-limited1753165488</t>
+          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-gurgaon-at-monkhub1753266588</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Climate Tech Marketing</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Collaborate with our experienced founder, who has over 8 years of freelancing experience, on developing cutting-edge web tools with a focus on AI.2. Assist in the design, development, and deployment of responsive and user-friendly web applications.3. Take part in brainstorming sessions, contribute creative ideas, and help shape the direction of our projects.4. Conduct research and stay up-to-date with the latest web development trends, tools, and technologies.Requirements:1. A passion for web development and a strong desire to learn and grow in a startup environment.2. Familiarity with modern JavaScript frameworks like ReactJS or VueJS.3. Basic knowledge of HTML, CSS, and JavaScript.4. Good problem-solving skills and a willingness to tackle challenges head-on.5. Excellent communication skills and the ability to work collaboratively as part of a team.6. Self-motivated with the ability to work independently and manage time effectively.Perks and Benefits:1. Gain invaluable hands-on experience and learn from an experienced founder who has worked with various companies and startups.2. Collaborate with a diverse and passionate team of professionals.3. Opportunity for a full-time role with Blaziken Technologies if the internship is successful.Skill(s) requiredCSSHTMLJavaScriptPythonEarn certifications in these skillsLearn CSSLearn HTMLLearn PythonLearn AngularLearn Node.JSLearn Node.JS using JavascriptLearn Software Testing using JavascriptLearn Voice App DevelopmentLearn ReactJSWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 6 months                                    4. are from Mumbai only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Free snacks &amp; beveragesNumber of openings        2                        About Blaziken Technologies Private Limited                        We are a software development agency that builds websites, applications, and automation for firms and businesses, while also working on new innovative AI products.    Activity on InternshalaHiring since July 20239 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include: 1. Your work will involve marketing &amp; promotions for the important sector of climate change solutions, and will involve significant interactions with exciting startups, innovators and professionals in the climate tech industry in India.2. Specific activities will involve providing support to our marketing team in preparing marketing collaterals, creative visuals, LinkedIn posts and analysis of the results from our marketing activities.3. Your marketing support will target sectors such as renewable energy, electric mobility, energy efficiency, waste management, water sustainability etc.4. Most of your marketing efforts will be in the B2B category and will involve a mix of market strategy, focussed communications and online marketing.5. You will also work with our events team to promote specific climate tech events &amp; workshops, especially the upcoming CLIMAFIX 25 summit in Sep 2025 that we organize with IIT Madras.6. You will design and implement online &amp; social media marketing strategies.7. A good proportion of your work will also involve creative communications in the form of videos, graphics, animations and ways to creatively and imaginatively engage the audience.Skill(s) requiredCreative ThinkingEffective CommunicationMarketingMarketing Strategies Problem SolvingSalesEarn certifications in these skillsLearn Email MarketingLearn Facebook MarketingLearn Google AdWordsLearn Search Engine MarketingLearn SEOLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 23rd Jul'25 and 27th Aug'25                                    3. are available for duration of 2 months                                    4. are from Chennai only                                    5. have relevant skills and interests                    Other requirements                    1. The role can be converted to permanent depending on the performance                                    2. MBA a plus but not compulsory                                    3. Being interested in the field of sustainability and climate tech will be a plus                                    4. Should be adaptable to highly flexible working environments and culture                PerksCertificate Letter of recommendation Informal dress codeNumber of openings        2                        About Energy Alternatives India                        Energy Alternatives India (EAI) is India's leading research and consulting firm for the renewable energy and clean technology industries. Based out of Chennai and founded by IIT &amp; IIM professionals, we were the first boutique management consulting firm for this sector (established in 2008) and one of the few firms that has worked in almost every climate tech domain - solar &amp; wind power, biofuels, electric vehicles, energy storage, green chemicals, waste management, green hydrogen and more. In addition to climate tech consulting, EAI and IIT Madras also organize India's largest climate startup summit (CLIMAFIX Summit) and run a pioneering global climate education platform (Clidemy). Some of our prominent consulting clients include the World Bank, Reliance, Bill &amp; Melinda Gates Foundation, GE, Toyota, GSK, Pepsi, Bosch, Yokogawa, Technip, Vedanta Group and more. We also work with many state governments and city administrations across India.    Activity on InternshalaHiring since May 2022135 opportunities posted10 candidates hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1533,24 +1521,24 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:35</t>
+          <t>2025-07-23 14:10:47</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/software-development-internship-in-mumbai-at-blaziken-technologies-private-limited1753160552</t>
+          <t>https://internshala.com/internship/detail/climate-tech-marketing-internship-in-chennai-at-energy-alternatives-india1753248864</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Graphic Designing &amp; Digital Marketing Specialist</t>
+          <t>Videographer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>About part time job/internship    Intern's Day-to-Day Responsibilities Include:     Graphic Design &amp; Content CreationDesign engaging graphics for our brand and client projects - including social media posts, packaging, website assets, and ad creativesEdit and produce promotional videos and reels for digital campaigns and product marketingCome up with trendy, visually appealing design concepts based on market research and brand goalsSupport visual consistency across all platforms and assist in refreshing brand aesthetics as needed     Digital Marketing &amp; Social MediaManage brand and client social media pages (Instagram, Facebook, Pinterest), including scheduling posts, replying to messages, and maintaining engagementReach out to influencers for barter deals and collaborationsStrategically grow pages and keep them active with engaging and consistent contentHandle basic post automation and performance tracking using tools like Meta Business Suite, Canva Scheduler, or LaterConduct research on trends, competitors, and audience behavior to optimize content strategy        E-commerce, Listings &amp; Client CoordinationWork on setting up and optimizing Shopify or Wix websites for our brand and clients     layout design, SEO basics, mobile responsiveness, etc.Optimize Amazon listings     from product titles, bullet points, and A+ content to visualsTalk to clients directly to understand their design and marketing needsAssist in executing marketing campaigns across email, Meta Ads, and Amazon AdsContribute to brainstorming and execution of innovative campaigns and strategiesWhat We're Looking For:Strong visual eye and familiarity with Canva, Photoshop, or IllustratorInterest in e-commerce, social media, and digital brandingBasic understanding of website platforms like Shopify or WixStrong communication skills and the ability to manage multiple prioritiesA go-getter mindset     someone who can take initiative, learn quickly, and deliver creativelySkill(s) requiredAdobe IllustratorGraphic DesignSocial Media MarketingEarn certifications in these skillsLearn Colour Theory for DesignersLearn Adobe PhotoshopLearn Digital ArtLearn Facebook MarketingLearn Social Media MarketingWho can applyOnly those candidates can apply who:                1. are available for the part time job/internship                                    2. can start the part time job/internship between 22nd Jul'25 and 26th Aug'25                                    3. are available for duration of 5 months                                    4. have relevant skills and interests                    PerksCertificate Letter of recommendation Flexible work hours Informal dress code 5 days a week Job offerAdditional informationJob offer: On successful conversion to a permanent employee, the candidate can expect a salary of ₹ 200000 to 600000/year Number of openings        1                        About Chaitanya Chaudhary                        Koozy Up is India's first beverage fabric company. We build Koozy's/holders for beverages and glassware. We are currently a young company and engaging merchandising for bars is our next endeavour.    Activity on InternshalaHiring since October 20239 opportunities posted                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
+          <t>About the internship    Selected intern's day-to-day responsibilities include:1. Shoot high-quality videos in-clinic including treatments, client testimonials, BTS and events2. Create engaging and trendy reels tailored for Instagram and other social media3. Edit raw footage into compelling short-form videos with transitions, text, and music4. Coordinate with the social media and marketing team to align on content themes5. Ensure quick turnaround and content consistencyCelebrity Secrets is looking for a creative and enthusiastic Videographer Intern with a passion for shooting and editing short-form video content, especially for platforms like Instagram. If you love capturing engaging moments and creating aesthetic reels, this internship is the perfect launchpad for your career in content creation.Skill(s) requiredCMS (Content Management System)Content ManagementCreative ThinkingTime ManagementVideo EditingVideographyVideo MakingEarn certifications in these skillsLearn Adobe Premiere ProLearn Video EditingWho can applyOnly those candidates can apply who:                1. are available for full time (in-office) internship                                    2. can start the internship between 21st Jul'25 and 25th Aug'25                                    3. are available for duration of 6 months                                    4. are from Hyderabad only                                    5. have relevant skills and interests                    * Women wanting to start/restart their career can also apply.Other requirements                    1. Are skilled in video shooting and basic editing (mobile or DSLR)                                    2. Have a good sense of storytelling, timing, and trends                                    3. Can create aesthetic content suitable for beauty and wellness branding                                    4. Are available for the full 6-month duration                                    5. Are based in or willing to relocate to Hyderabad                PerksCertificate Letter of recommendationNumber of openings        1                        About Edge &amp; Essence                Website         Welcome to Edge &amp; Essence, your ultimate lifestyle guide featuring trends in People, Health &amp; Wellness, Food, Beauty &amp; Fashion, Entertainment, Travel, and Art &amp; Culture. As a premium lifestyle monthly magazine, we invite forward-thinking businesses, brands, and innovators to collaborate with us. Together, we can captivate a highly engaged audience and make your brand stand out in the competitive marketplace.    Activity on InternshalaHiring since July 20256 opportunities posted1 candidate hired                        Apply now                    Additional Questions×CloseSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            LoginSign up to continue                    Sign up/ Login with Google                                    Sign up with Email                OREmailPasswordFirst NameLast NameSign up                By signing up, you agree to our Terms and Conditions.        Already registered?                            Login</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1568,12 +1556,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:36</t>
+          <t>2025-07-23 14:10:47</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/part-time-graphic-designing-digital-marketing-specialist-internship-in-faridabad-at-chaitanya-chaudhary1753167776</t>
+          <t>https://internshala.com/internship/detail/videographer-internship-in-hyderabad-at-edge-essence1753253552</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1587,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1630,7 +1618,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1661,7 +1649,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1692,7 +1680,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1723,7 +1711,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1754,7 +1742,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1785,7 +1773,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1816,7 +1804,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1847,7 +1835,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1878,7 +1866,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1909,7 +1897,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1940,7 +1928,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1971,7 +1959,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2002,7 +1990,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2033,7 +2021,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-07-22 11:20:49</t>
+          <t>2025-07-23 14:11:01</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2060,7 +2048,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2087,7 +2075,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2114,7 +2102,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2141,7 +2129,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2168,7 +2156,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2195,7 +2183,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2222,7 +2210,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2249,7 +2237,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2276,7 +2264,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2303,7 +2291,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2334,7 +2322,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2365,7 +2353,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2396,7 +2384,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2427,7 +2415,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2458,7 +2446,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:03</t>
+          <t>2025-07-23 14:11:16</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
